--- a/Reference Table.xlsx
+++ b/Reference Table.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="499">
   <si>
     <t>FB Chorales</t>
   </si>
@@ -658,6 +658,9 @@
   </si>
   <si>
     <t>I vol.26, p.54</t>
+  </si>
+  <si>
+    <t>248 ; 354</t>
   </si>
   <si>
     <t>Sei Lob und Ehr dem höchsten Gut</t>
@@ -2204,7 +2207,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2279,6 +2282,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
@@ -3485,7 +3494,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4578,22 +4587,22 @@
     </row>
     <row r="52" ht="32.05" customHeight="1">
       <c r="A52" s="11">
-        <v>117.09</v>
-      </c>
-      <c r="B52" s="17">
-        <v>354</v>
-      </c>
-      <c r="C52" t="s" s="18">
+        <v>117.04</v>
+      </c>
+      <c r="B52" t="s" s="25">
         <v>197</v>
       </c>
+      <c r="C52" t="s" s="26">
+        <v>198</v>
+      </c>
       <c r="D52" t="s" s="22">
+        <v>199</v>
+      </c>
+      <c r="E52" t="s" s="20">
         <v>198</v>
       </c>
-      <c r="E52" t="s" s="20">
-        <v>197</v>
-      </c>
-      <c r="F52" t="s" s="20">
-        <v>199</v>
+      <c r="F52" t="s" s="26">
+        <v>200</v>
       </c>
       <c r="G52" t="s" s="23">
         <v>128</v>
@@ -4601,1102 +4610,1106 @@
     </row>
     <row r="53" ht="32.05" customHeight="1">
       <c r="A53" s="11">
-        <v>121.06</v>
-      </c>
-      <c r="B53" s="17">
-        <v>56</v>
+        <v>117.09</v>
+      </c>
+      <c r="B53" t="s" s="25">
+        <v>197</v>
       </c>
       <c r="C53" t="s" s="18">
+        <v>198</v>
+      </c>
+      <c r="D53" t="s" s="22">
+        <v>199</v>
+      </c>
+      <c r="E53" t="s" s="20">
+        <v>198</v>
+      </c>
+      <c r="F53" t="s" s="20">
         <v>200</v>
       </c>
-      <c r="D53" t="s" s="19">
-        <v>201</v>
-      </c>
-      <c r="E53" t="s" s="20">
-        <v>202</v>
-      </c>
-      <c r="F53" t="s" s="20">
-        <v>203</v>
-      </c>
-      <c r="G53" s="21"/>
+      <c r="G53" t="s" s="23">
+        <v>128</v>
+      </c>
     </row>
     <row r="54" ht="32.05" customHeight="1">
       <c r="A54" s="11">
-        <v>126.06</v>
+        <v>121.06</v>
       </c>
       <c r="B54" s="17">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s" s="18">
+        <v>201</v>
+      </c>
+      <c r="D54" t="s" s="19">
+        <v>202</v>
+      </c>
+      <c r="E54" t="s" s="20">
+        <v>203</v>
+      </c>
+      <c r="F54" t="s" s="20">
         <v>204</v>
-      </c>
-      <c r="D54" t="s" s="19">
-        <v>205</v>
-      </c>
-      <c r="E54" t="s" s="20">
-        <v>102</v>
-      </c>
-      <c r="F54" t="s" s="20">
-        <v>206</v>
       </c>
       <c r="G54" s="21"/>
     </row>
     <row r="55" ht="32.05" customHeight="1">
       <c r="A55" s="11">
-        <v>133.06</v>
+        <v>126.06</v>
       </c>
       <c r="B55" s="17">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s" s="18">
+        <v>205</v>
+      </c>
+      <c r="D55" t="s" s="19">
+        <v>206</v>
+      </c>
+      <c r="E55" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s" s="20">
         <v>207</v>
-      </c>
-      <c r="D55" t="s" s="22">
-        <v>208</v>
-      </c>
-      <c r="E55" t="s" s="20">
-        <v>209</v>
-      </c>
-      <c r="F55" t="s" s="20">
-        <v>210</v>
       </c>
       <c r="G55" s="21"/>
     </row>
     <row r="56" ht="32.05" customHeight="1">
       <c r="A56" s="11">
-        <v>136.06</v>
+        <v>133.06</v>
       </c>
       <c r="B56" s="17">
-        <v>331</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s" s="18">
+        <v>208</v>
+      </c>
+      <c r="D56" t="s" s="22">
+        <v>209</v>
+      </c>
+      <c r="E56" t="s" s="20">
+        <v>210</v>
+      </c>
+      <c r="F56" t="s" s="20">
         <v>211</v>
       </c>
-      <c r="D56" t="s" s="22">
-        <v>212</v>
-      </c>
-      <c r="E56" t="s" s="20">
-        <v>213</v>
-      </c>
-      <c r="F56" t="s" s="20">
-        <v>214</v>
-      </c>
-      <c r="G56" t="s" s="23">
-        <v>55</v>
-      </c>
+      <c r="G56" s="21"/>
     </row>
     <row r="57" ht="32.05" customHeight="1">
       <c r="A57" s="11">
-        <v>140.07</v>
+        <v>136.06</v>
       </c>
       <c r="B57" s="17">
-        <v>179</v>
+        <v>331</v>
       </c>
       <c r="C57" t="s" s="18">
+        <v>212</v>
+      </c>
+      <c r="D57" t="s" s="22">
+        <v>213</v>
+      </c>
+      <c r="E57" t="s" s="20">
+        <v>214</v>
+      </c>
+      <c r="F57" t="s" s="20">
         <v>215</v>
       </c>
-      <c r="D57" t="s" s="19">
-        <v>216</v>
-      </c>
-      <c r="E57" t="s" s="20">
-        <v>217</v>
-      </c>
-      <c r="F57" t="s" s="20">
-        <v>218</v>
-      </c>
-      <c r="G57" s="21"/>
+      <c r="G57" t="s" s="23">
+        <v>55</v>
+      </c>
     </row>
     <row r="58" ht="32.05" customHeight="1">
       <c r="A58" s="11">
-        <v>145.05</v>
+        <v>140.07</v>
       </c>
       <c r="B58" s="17">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s" s="18">
+        <v>216</v>
+      </c>
+      <c r="D58" t="s" s="19">
+        <v>217</v>
+      </c>
+      <c r="E58" t="s" s="20">
+        <v>218</v>
+      </c>
+      <c r="F58" t="s" s="20">
         <v>219</v>
-      </c>
-      <c r="D58" t="s" s="22">
-        <v>220</v>
-      </c>
-      <c r="E58" t="s" s="20">
-        <v>221</v>
-      </c>
-      <c r="F58" t="s" s="20">
-        <v>222</v>
       </c>
       <c r="G58" s="21"/>
     </row>
     <row r="59" ht="32.05" customHeight="1">
       <c r="A59" s="11">
-        <v>153.01</v>
+        <v>145.05</v>
       </c>
       <c r="B59" s="17">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s" s="18">
+        <v>220</v>
+      </c>
+      <c r="D59" t="s" s="22">
+        <v>221</v>
+      </c>
+      <c r="E59" t="s" s="20">
+        <v>222</v>
+      </c>
+      <c r="F59" t="s" s="20">
         <v>223</v>
-      </c>
-      <c r="D59" t="s" s="22">
-        <v>224</v>
-      </c>
-      <c r="E59" t="s" s="20">
-        <v>225</v>
-      </c>
-      <c r="F59" t="s" s="20">
-        <v>226</v>
       </c>
       <c r="G59" s="21"/>
     </row>
     <row r="60" ht="32.05" customHeight="1">
       <c r="A60" s="11">
-        <v>153.05</v>
+        <v>153.01</v>
       </c>
       <c r="B60" s="17">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s" s="18">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D60" t="s" s="22">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E60" t="s" s="20">
+        <v>226</v>
+      </c>
+      <c r="F60" t="s" s="20">
         <v>227</v>
-      </c>
-      <c r="F60" t="s" s="20">
-        <v>228</v>
       </c>
       <c r="G60" s="21"/>
     </row>
     <row r="61" ht="32.05" customHeight="1">
       <c r="A61" s="11">
-        <v>153.09</v>
+        <v>153.05</v>
       </c>
       <c r="B61" s="17">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s" s="18">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D61" t="s" s="22">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E61" t="s" s="20">
+        <v>228</v>
+      </c>
+      <c r="F61" t="s" s="20">
         <v>229</v>
-      </c>
-      <c r="F61" t="s" s="20">
-        <v>230</v>
       </c>
       <c r="G61" s="21"/>
     </row>
     <row r="62" ht="32.05" customHeight="1">
       <c r="A62" s="11">
-        <v>154.03</v>
+        <v>153.09</v>
       </c>
       <c r="B62" s="17">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s" s="18">
+        <v>224</v>
+      </c>
+      <c r="D62" t="s" s="22">
+        <v>225</v>
+      </c>
+      <c r="E62" t="s" s="20">
+        <v>230</v>
+      </c>
+      <c r="F62" t="s" s="20">
         <v>231</v>
-      </c>
-      <c r="D62" t="s" s="22">
-        <v>232</v>
-      </c>
-      <c r="E62" t="s" s="20">
-        <v>233</v>
-      </c>
-      <c r="F62" t="s" s="20">
-        <v>234</v>
       </c>
       <c r="G62" s="21"/>
     </row>
     <row r="63" ht="32.05" customHeight="1">
       <c r="A63" s="11">
+        <v>154.03</v>
+      </c>
+      <c r="B63" s="17">
+        <v>233</v>
+      </c>
+      <c r="C63" t="s" s="18">
+        <v>232</v>
+      </c>
+      <c r="D63" t="s" s="22">
+        <v>233</v>
+      </c>
+      <c r="E63" t="s" s="20">
+        <v>234</v>
+      </c>
+      <c r="F63" t="s" s="20">
+        <v>235</v>
+      </c>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" ht="32.05" customHeight="1">
+      <c r="A64" s="11">
         <v>159.05</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B64" s="17">
         <v>61</v>
       </c>
-      <c r="C63" t="s" s="18">
-        <v>235</v>
-      </c>
-      <c r="D63" t="s" s="22">
+      <c r="C64" t="s" s="18">
         <v>236</v>
       </c>
-      <c r="E63" t="s" s="20">
+      <c r="D64" t="s" s="22">
         <v>237</v>
       </c>
-      <c r="F63" t="s" s="20">
+      <c r="E64" t="s" s="20">
         <v>238</v>
       </c>
-      <c r="G63" s="21"/>
-    </row>
-    <row r="64" ht="44.05" customHeight="1">
-      <c r="A64" s="11">
-        <v>161.06</v>
-      </c>
-      <c r="B64" s="17">
-        <v>270</v>
-      </c>
-      <c r="C64" t="s" s="18">
+      <c r="F64" t="s" s="20">
         <v>239</v>
       </c>
-      <c r="D64" t="s" s="19">
-        <v>240</v>
-      </c>
-      <c r="E64" t="s" s="20">
-        <v>241</v>
-      </c>
-      <c r="F64" t="s" s="20">
-        <v>242</v>
-      </c>
-      <c r="G64" t="s" s="23">
-        <v>243</v>
-      </c>
+      <c r="G64" s="21"/>
     </row>
     <row r="65" ht="44.05" customHeight="1">
       <c r="A65" s="11">
-        <v>168.06</v>
+        <v>161.06</v>
       </c>
       <c r="B65" s="17">
-        <v>92</v>
+        <v>270</v>
       </c>
       <c r="C65" t="s" s="18">
+        <v>240</v>
+      </c>
+      <c r="D65" t="s" s="19">
+        <v>241</v>
+      </c>
+      <c r="E65" t="s" s="20">
+        <v>242</v>
+      </c>
+      <c r="F65" t="s" s="20">
+        <v>243</v>
+      </c>
+      <c r="G65" t="s" s="23">
         <v>244</v>
       </c>
-      <c r="D65" t="s" s="22">
-        <v>245</v>
-      </c>
-      <c r="E65" t="s" s="20">
-        <v>187</v>
-      </c>
-      <c r="F65" t="s" s="20">
-        <v>246</v>
-      </c>
-      <c r="G65" s="21"/>
     </row>
     <row r="66" ht="44.05" customHeight="1">
       <c r="A66" s="11">
+        <v>168.06</v>
+      </c>
+      <c r="B66" s="17">
+        <v>92</v>
+      </c>
+      <c r="C66" t="s" s="18">
+        <v>245</v>
+      </c>
+      <c r="D66" t="s" s="22">
+        <v>246</v>
+      </c>
+      <c r="E66" t="s" s="20">
+        <v>187</v>
+      </c>
+      <c r="F66" t="s" s="20">
+        <v>247</v>
+      </c>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" ht="44.05" customHeight="1">
+      <c r="A67" s="11">
         <v>172.06</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B67" s="17">
         <v>323</v>
       </c>
-      <c r="C66" t="s" s="18">
-        <v>247</v>
-      </c>
-      <c r="D66" t="s" s="19">
+      <c r="C67" t="s" s="18">
         <v>248</v>
       </c>
-      <c r="E66" t="s" s="20">
+      <c r="D67" t="s" s="19">
         <v>249</v>
       </c>
-      <c r="F66" t="s" s="20">
+      <c r="E67" t="s" s="20">
         <v>250</v>
       </c>
-      <c r="G66" t="s" s="23">
+      <c r="F67" t="s" s="20">
+        <v>251</v>
+      </c>
+      <c r="G67" t="s" s="23">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" ht="32.05" customHeight="1">
-      <c r="A67" s="11">
-        <v>174.05</v>
-      </c>
-      <c r="B67" s="17">
-        <v>58</v>
-      </c>
-      <c r="C67" t="s" s="18">
-        <v>251</v>
-      </c>
-      <c r="D67" t="s" s="22">
-        <v>252</v>
-      </c>
-      <c r="E67" t="s" s="20">
-        <v>253</v>
-      </c>
-      <c r="F67" t="s" s="20">
-        <v>254</v>
-      </c>
-      <c r="G67" s="21"/>
     </row>
     <row r="68" ht="32.05" customHeight="1">
       <c r="A68" s="11">
-        <v>176.06</v>
+        <v>174.05</v>
       </c>
       <c r="B68" s="17">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s" s="18">
+        <v>252</v>
+      </c>
+      <c r="D68" t="s" s="22">
+        <v>253</v>
+      </c>
+      <c r="E68" t="s" s="20">
+        <v>254</v>
+      </c>
+      <c r="F68" t="s" s="20">
         <v>255</v>
-      </c>
-      <c r="D68" t="s" s="22">
-        <v>256</v>
-      </c>
-      <c r="E68" t="s" s="20">
-        <v>257</v>
-      </c>
-      <c r="F68" t="s" s="20">
-        <v>258</v>
       </c>
       <c r="G68" s="21"/>
     </row>
     <row r="69" ht="32.05" customHeight="1">
       <c r="A69" s="11">
-        <v>177.05</v>
+        <v>176.06</v>
       </c>
       <c r="B69" s="17">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s" s="18">
+        <v>256</v>
+      </c>
+      <c r="D69" t="s" s="22">
+        <v>257</v>
+      </c>
+      <c r="E69" t="s" s="20">
+        <v>258</v>
+      </c>
+      <c r="F69" t="s" s="20">
         <v>259</v>
       </c>
-      <c r="D69" t="s" s="22">
-        <v>260</v>
-      </c>
-      <c r="E69" t="s" s="20">
-        <v>261</v>
-      </c>
-      <c r="F69" t="s" s="20">
-        <v>262</v>
-      </c>
-      <c r="G69" t="s" s="23">
-        <v>263</v>
-      </c>
+      <c r="G69" s="21"/>
     </row>
     <row r="70" ht="32.05" customHeight="1">
       <c r="A70" s="11">
-        <v>187.07</v>
+        <v>177.05</v>
       </c>
       <c r="B70" s="17">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s" s="18">
+        <v>260</v>
+      </c>
+      <c r="D70" t="s" s="22">
+        <v>261</v>
+      </c>
+      <c r="E70" t="s" s="20">
+        <v>262</v>
+      </c>
+      <c r="F70" t="s" s="20">
+        <v>263</v>
+      </c>
+      <c r="G70" t="s" s="23">
         <v>264</v>
       </c>
-      <c r="D70" t="s" s="22">
-        <v>265</v>
-      </c>
-      <c r="E70" t="s" s="20">
-        <v>266</v>
-      </c>
-      <c r="F70" t="s" s="20">
-        <v>267</v>
-      </c>
-      <c r="G70" s="21"/>
     </row>
     <row r="71" ht="32.05" customHeight="1">
       <c r="A71" s="11">
+        <v>187.07</v>
+      </c>
+      <c r="B71" s="17">
+        <v>109</v>
+      </c>
+      <c r="C71" t="s" s="18">
+        <v>265</v>
+      </c>
+      <c r="D71" t="s" s="22">
+        <v>266</v>
+      </c>
+      <c r="E71" t="s" s="20">
+        <v>267</v>
+      </c>
+      <c r="F71" t="s" s="20">
+        <v>268</v>
+      </c>
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" ht="32.05" customHeight="1">
+      <c r="A72" s="11">
         <v>194.06</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B72" s="17">
         <v>256</v>
       </c>
-      <c r="C71" t="s" s="18">
-        <v>268</v>
-      </c>
-      <c r="D71" t="s" s="22">
+      <c r="C72" t="s" s="18">
         <v>269</v>
       </c>
-      <c r="E71" t="s" s="20">
+      <c r="D72" t="s" s="22">
         <v>270</v>
       </c>
-      <c r="F71" t="s" s="20">
+      <c r="E72" t="s" s="20">
         <v>271</v>
       </c>
-      <c r="G71" t="s" s="23">
+      <c r="F72" t="s" s="20">
+        <v>272</v>
+      </c>
+      <c r="G72" t="s" s="23">
         <v>55</v>
       </c>
     </row>
-    <row r="72" ht="44.05" customHeight="1">
-      <c r="A72" s="11">
+    <row r="73" ht="44.05" customHeight="1">
+      <c r="A73" s="11">
         <v>244.03</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B73" s="17">
         <v>78</v>
       </c>
-      <c r="C72" t="s" s="18">
-        <v>272</v>
-      </c>
-      <c r="D72" t="s" s="19">
+      <c r="C73" t="s" s="18">
         <v>273</v>
       </c>
-      <c r="E72" t="s" s="20">
+      <c r="D73" t="s" s="19">
         <v>274</v>
       </c>
-      <c r="F72" t="s" s="20">
+      <c r="E73" t="s" s="20">
         <v>275</v>
       </c>
-      <c r="G72" s="21"/>
-    </row>
-    <row r="73" ht="32.05" customHeight="1">
-      <c r="A73" s="11">
-        <v>244.1</v>
-      </c>
-      <c r="B73" s="17">
-        <v>117</v>
-      </c>
-      <c r="C73" t="s" s="18">
-        <v>272</v>
-      </c>
-      <c r="D73" t="s" s="19">
-        <v>273</v>
-      </c>
-      <c r="E73" t="s" s="20">
+      <c r="F73" t="s" s="20">
         <v>276</v>
-      </c>
-      <c r="F73" t="s" s="20">
-        <v>277</v>
       </c>
       <c r="G73" s="21"/>
     </row>
     <row r="74" ht="32.05" customHeight="1">
       <c r="A74" s="11">
-        <v>244.15</v>
+        <v>244.1</v>
       </c>
       <c r="B74" s="17">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s" s="18">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D74" t="s" s="19">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E74" t="s" s="20">
+        <v>277</v>
+      </c>
+      <c r="F74" t="s" s="20">
         <v>278</v>
-      </c>
-      <c r="F74" t="s" s="20">
-        <v>279</v>
       </c>
       <c r="G74" s="21"/>
     </row>
     <row r="75" ht="32.05" customHeight="1">
       <c r="A75" s="11">
-        <v>244.25</v>
+        <v>244.15</v>
       </c>
       <c r="B75" s="17">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s" s="18">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D75" t="s" s="19">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E75" t="s" s="20">
+        <v>279</v>
+      </c>
+      <c r="F75" t="s" s="20">
         <v>280</v>
-      </c>
-      <c r="F75" t="s" s="20">
-        <v>281</v>
       </c>
       <c r="G75" s="21"/>
     </row>
     <row r="76" ht="32.05" customHeight="1">
       <c r="A76" s="11">
-        <v>244.32</v>
+        <v>244.25</v>
       </c>
       <c r="B76" s="17">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s" s="18">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D76" t="s" s="19">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E76" t="s" s="20">
+        <v>281</v>
+      </c>
+      <c r="F76" t="s" s="20">
         <v>282</v>
-      </c>
-      <c r="F76" t="s" s="20">
-        <v>283</v>
       </c>
       <c r="G76" s="21"/>
     </row>
     <row r="77" ht="32.05" customHeight="1">
       <c r="A77" s="11">
-        <v>244.37</v>
+        <v>244.32</v>
       </c>
       <c r="B77" s="17">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s" s="18">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D77" t="s" s="19">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E77" t="s" s="20">
+        <v>283</v>
+      </c>
+      <c r="F77" t="s" s="20">
         <v>284</v>
-      </c>
-      <c r="F77" t="s" s="20">
-        <v>285</v>
       </c>
       <c r="G77" s="21"/>
     </row>
     <row r="78" ht="32.05" customHeight="1">
       <c r="A78" s="11">
-        <v>244.4</v>
+        <v>244.37</v>
       </c>
       <c r="B78" s="17">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s" s="18">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D78" t="s" s="19">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E78" t="s" s="20">
+        <v>285</v>
+      </c>
+      <c r="F78" t="s" s="20">
         <v>286</v>
-      </c>
-      <c r="F78" t="s" s="20">
-        <v>287</v>
       </c>
       <c r="G78" s="21"/>
     </row>
     <row r="79" ht="32.05" customHeight="1">
       <c r="A79" s="11">
+        <v>244.4</v>
+      </c>
+      <c r="B79" s="17">
+        <v>121</v>
+      </c>
+      <c r="C79" t="s" s="18">
+        <v>273</v>
+      </c>
+      <c r="D79" t="s" s="19">
+        <v>274</v>
+      </c>
+      <c r="E79" t="s" s="20">
+        <v>287</v>
+      </c>
+      <c r="F79" t="s" s="20">
+        <v>288</v>
+      </c>
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" ht="32.05" customHeight="1">
+      <c r="A80" s="11">
         <v>244.44</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B80" s="17">
         <v>80</v>
       </c>
-      <c r="C79" t="s" s="18">
-        <v>272</v>
-      </c>
-      <c r="D79" t="s" s="19">
+      <c r="C80" t="s" s="18">
         <v>273</v>
       </c>
-      <c r="E79" t="s" s="20">
-        <v>288</v>
-      </c>
-      <c r="F79" t="s" s="20">
+      <c r="D80" t="s" s="19">
+        <v>274</v>
+      </c>
+      <c r="E80" t="s" s="20">
         <v>289</v>
       </c>
-      <c r="G79" s="21"/>
-    </row>
-    <row r="80" ht="44.05" customHeight="1">
-      <c r="A80" s="11">
+      <c r="F80" t="s" s="20">
+        <v>290</v>
+      </c>
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" ht="44.05" customHeight="1">
+      <c r="A81" s="11">
         <v>244.46</v>
       </c>
-      <c r="B80" s="17">
+      <c r="B81" s="17">
         <v>105</v>
       </c>
-      <c r="C80" t="s" s="18">
-        <v>272</v>
-      </c>
-      <c r="D80" t="s" s="19">
+      <c r="C81" t="s" s="18">
         <v>273</v>
       </c>
-      <c r="E80" t="s" s="20">
-        <v>290</v>
-      </c>
-      <c r="F80" t="s" s="20">
+      <c r="D81" t="s" s="19">
+        <v>274</v>
+      </c>
+      <c r="E81" t="s" s="20">
         <v>291</v>
       </c>
-      <c r="G80" s="21"/>
-    </row>
-    <row r="81" ht="32.05" customHeight="1">
-      <c r="A81" s="11">
-        <v>244.54</v>
-      </c>
-      <c r="B81" s="17">
-        <v>74</v>
-      </c>
-      <c r="C81" t="s" s="18">
-        <v>272</v>
-      </c>
-      <c r="D81" t="s" s="19">
-        <v>273</v>
-      </c>
-      <c r="E81" t="s" s="20">
+      <c r="F81" t="s" s="20">
         <v>292</v>
-      </c>
-      <c r="F81" t="s" s="20">
-        <v>293</v>
       </c>
       <c r="G81" s="21"/>
     </row>
     <row r="82" ht="32.05" customHeight="1">
       <c r="A82" s="11">
+        <v>244.54</v>
+      </c>
+      <c r="B82" s="17">
+        <v>74</v>
+      </c>
+      <c r="C82" t="s" s="18">
+        <v>273</v>
+      </c>
+      <c r="D82" t="s" s="19">
+        <v>274</v>
+      </c>
+      <c r="E82" t="s" s="20">
+        <v>293</v>
+      </c>
+      <c r="F82" t="s" s="20">
+        <v>294</v>
+      </c>
+      <c r="G82" s="21"/>
+    </row>
+    <row r="83" ht="32.05" customHeight="1">
+      <c r="A83" s="11">
         <v>244.62</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B83" s="17">
         <v>89</v>
       </c>
-      <c r="C82" t="s" s="18">
-        <v>272</v>
-      </c>
-      <c r="D82" t="s" s="19">
+      <c r="C83" t="s" s="18">
         <v>273</v>
       </c>
-      <c r="E82" t="s" s="20">
-        <v>294</v>
-      </c>
-      <c r="F82" t="s" s="20">
+      <c r="D83" t="s" s="19">
+        <v>274</v>
+      </c>
+      <c r="E83" t="s" s="20">
         <v>295</v>
       </c>
-      <c r="G82" s="21"/>
-    </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" s="11">
+      <c r="F83" t="s" s="20">
+        <v>296</v>
+      </c>
+      <c r="G83" s="21"/>
+    </row>
+    <row r="84" ht="20.05" customHeight="1">
+      <c r="A84" s="11">
         <v>245.03</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B84" s="17">
         <v>59</v>
       </c>
-      <c r="C83" t="s" s="18">
-        <v>296</v>
-      </c>
-      <c r="D83" t="s" s="22">
+      <c r="C84" t="s" s="18">
         <v>297</v>
       </c>
-      <c r="E83" t="s" s="20">
+      <c r="D84" t="s" s="22">
         <v>298</v>
       </c>
-      <c r="F83" t="s" s="20">
+      <c r="E84" t="s" s="20">
         <v>299</v>
-      </c>
-      <c r="G83" s="21"/>
-    </row>
-    <row r="84" ht="32.05" customHeight="1">
-      <c r="A84" s="11">
-        <v>245.11</v>
-      </c>
-      <c r="B84" s="17">
-        <v>63</v>
-      </c>
-      <c r="C84" t="s" s="18">
-        <v>296</v>
-      </c>
-      <c r="D84" t="s" s="22">
-        <v>297</v>
-      </c>
-      <c r="E84" t="s" s="20">
-        <v>284</v>
       </c>
       <c r="F84" t="s" s="20">
         <v>300</v>
       </c>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" ht="41" customHeight="1">
+    <row r="85" ht="32.05" customHeight="1">
       <c r="A85" s="11">
+        <v>245.11</v>
+      </c>
+      <c r="B85" s="17">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s" s="18">
+        <v>297</v>
+      </c>
+      <c r="D85" t="s" s="22">
+        <v>298</v>
+      </c>
+      <c r="E85" t="s" s="20">
+        <v>285</v>
+      </c>
+      <c r="F85" t="s" s="20">
+        <v>301</v>
+      </c>
+      <c r="G85" s="21"/>
+    </row>
+    <row r="86" ht="41" customHeight="1">
+      <c r="A86" s="11">
         <v>245.14</v>
       </c>
-      <c r="B85" s="17">
+      <c r="B86" s="17">
         <v>83</v>
       </c>
-      <c r="C85" t="s" s="18">
-        <v>296</v>
-      </c>
-      <c r="D85" t="s" s="22">
+      <c r="C86" t="s" s="18">
         <v>297</v>
       </c>
-      <c r="E85" t="s" s="20">
-        <v>301</v>
-      </c>
-      <c r="F85" t="s" s="20">
+      <c r="D86" t="s" s="22">
+        <v>298</v>
+      </c>
+      <c r="E86" t="s" s="20">
         <v>302</v>
       </c>
-      <c r="G85" t="s" s="23">
+      <c r="F86" t="s" s="20">
         <v>303</v>
       </c>
-    </row>
-    <row r="86" ht="32.05" customHeight="1">
-      <c r="A86" s="11">
-        <v>245.15</v>
-      </c>
-      <c r="B86" s="17">
-        <v>81</v>
-      </c>
-      <c r="C86" t="s" s="18">
-        <v>296</v>
-      </c>
-      <c r="D86" t="s" s="22">
-        <v>297</v>
-      </c>
-      <c r="E86" t="s" s="20">
+      <c r="G86" t="s" s="23">
         <v>304</v>
       </c>
-      <c r="F86" t="s" s="20">
-        <v>305</v>
-      </c>
-      <c r="G86" s="21"/>
     </row>
     <row r="87" ht="32.05" customHeight="1">
       <c r="A87" s="11">
+        <v>245.15</v>
+      </c>
+      <c r="B87" s="17">
+        <v>81</v>
+      </c>
+      <c r="C87" t="s" s="18">
+        <v>297</v>
+      </c>
+      <c r="D87" t="s" s="22">
+        <v>298</v>
+      </c>
+      <c r="E87" t="s" s="20">
+        <v>305</v>
+      </c>
+      <c r="F87" t="s" s="20">
+        <v>306</v>
+      </c>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" ht="32.05" customHeight="1">
+      <c r="A88" s="11">
         <v>245.17</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B88" s="17">
         <v>111</v>
       </c>
-      <c r="C87" t="s" s="18">
-        <v>296</v>
-      </c>
-      <c r="D87" t="s" s="22">
+      <c r="C88" t="s" s="18">
         <v>297</v>
       </c>
-      <c r="E87" t="s" s="20">
-        <v>306</v>
-      </c>
-      <c r="F87" t="s" s="20">
+      <c r="D88" t="s" s="22">
+        <v>298</v>
+      </c>
+      <c r="E88" t="s" s="20">
         <v>307</v>
       </c>
-      <c r="G87" s="21"/>
-    </row>
-    <row r="88" ht="44.05" customHeight="1">
-      <c r="A88" s="11">
+      <c r="F88" t="s" s="20">
+        <v>308</v>
+      </c>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" ht="44.05" customHeight="1">
+      <c r="A89" s="11">
         <v>245.22</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B89" s="17">
         <v>310</v>
       </c>
-      <c r="C88" t="s" s="18">
-        <v>296</v>
-      </c>
-      <c r="D88" t="s" s="22">
+      <c r="C89" t="s" s="18">
         <v>297</v>
       </c>
-      <c r="E88" t="s" s="20">
-        <v>308</v>
-      </c>
-      <c r="F88" t="s" s="20">
+      <c r="D89" t="s" s="22">
+        <v>298</v>
+      </c>
+      <c r="E89" t="s" s="20">
         <v>309</v>
       </c>
-      <c r="G88" s="21"/>
-    </row>
-    <row r="89" ht="32.05" customHeight="1">
-      <c r="A89" s="11">
-        <v>245.26</v>
-      </c>
-      <c r="B89" s="17">
-        <v>108</v>
-      </c>
-      <c r="C89" t="s" s="18">
-        <v>296</v>
-      </c>
-      <c r="D89" t="s" s="22">
-        <v>297</v>
-      </c>
-      <c r="E89" t="s" s="20">
+      <c r="F89" t="s" s="20">
         <v>310</v>
-      </c>
-      <c r="F89" t="s" s="20">
-        <v>311</v>
       </c>
       <c r="G89" s="21"/>
     </row>
     <row r="90" ht="32.05" customHeight="1">
       <c r="A90" s="11">
-        <v>245.28</v>
+        <v>245.26</v>
       </c>
       <c r="B90" s="17">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s" s="18">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D90" t="s" s="22">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E90" t="s" s="20">
+        <v>311</v>
+      </c>
+      <c r="F90" t="s" s="20">
         <v>312</v>
-      </c>
-      <c r="F90" t="s" s="20">
-        <v>313</v>
       </c>
       <c r="G90" s="21"/>
     </row>
     <row r="91" ht="32.05" customHeight="1">
       <c r="A91" s="11">
-        <v>245.37</v>
+        <v>245.28</v>
       </c>
       <c r="B91" s="17">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s" s="18">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D91" t="s" s="22">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E91" t="s" s="20">
+        <v>313</v>
+      </c>
+      <c r="F91" t="s" s="20">
         <v>314</v>
-      </c>
-      <c r="F91" t="s" s="20">
-        <v>315</v>
       </c>
       <c r="G91" s="21"/>
     </row>
     <row r="92" ht="32.05" customHeight="1">
       <c r="A92" s="11">
-        <v>245.4</v>
+        <v>245.37</v>
       </c>
       <c r="B92" s="17">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s" s="18">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D92" t="s" s="22">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E92" t="s" s="20">
+        <v>315</v>
+      </c>
+      <c r="F92" t="s" s="20">
         <v>316</v>
-      </c>
-      <c r="F92" t="s" s="20">
-        <v>317</v>
       </c>
       <c r="G92" s="21"/>
     </row>
     <row r="93" ht="32.05" customHeight="1">
       <c r="A93" s="11">
-        <v>248.05</v>
+        <v>245.4</v>
       </c>
       <c r="B93" s="17">
-        <v>345</v>
+        <v>107</v>
       </c>
       <c r="C93" t="s" s="18">
+        <v>297</v>
+      </c>
+      <c r="D93" t="s" s="22">
+        <v>298</v>
+      </c>
+      <c r="E93" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="F93" t="s" s="20">
         <v>318</v>
-      </c>
-      <c r="D93" t="s" s="19">
-        <v>319</v>
-      </c>
-      <c r="E93" t="s" s="20">
-        <v>320</v>
-      </c>
-      <c r="F93" t="s" s="20">
-        <v>321</v>
       </c>
       <c r="G93" s="21"/>
     </row>
     <row r="94" ht="32.05" customHeight="1">
       <c r="A94" s="11">
-        <v>248.09</v>
+        <v>248.05</v>
       </c>
       <c r="B94" s="17">
-        <v>46</v>
+        <v>345</v>
       </c>
       <c r="C94" t="s" s="18">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D94" t="s" s="19">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E94" t="s" s="20">
+        <v>321</v>
+      </c>
+      <c r="F94" t="s" s="20">
         <v>322</v>
       </c>
-      <c r="F94" t="s" s="20">
-        <v>323</v>
-      </c>
-      <c r="G94" t="s" s="23">
-        <v>324</v>
-      </c>
+      <c r="G94" s="21"/>
     </row>
     <row r="95" ht="32.05" customHeight="1">
       <c r="A95" s="11">
-        <v>248.12</v>
+        <v>248.09</v>
       </c>
       <c r="B95" s="17">
-        <v>361</v>
+        <v>46</v>
       </c>
       <c r="C95" t="s" s="18">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D95" t="s" s="19">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E95" t="s" s="20">
+        <v>323</v>
+      </c>
+      <c r="F95" t="s" s="20">
+        <v>324</v>
+      </c>
+      <c r="G95" t="s" s="23">
         <v>325</v>
       </c>
-      <c r="F95" t="s" s="20">
-        <v>326</v>
-      </c>
-      <c r="G95" s="21"/>
     </row>
     <row r="96" ht="32.05" customHeight="1">
       <c r="A96" s="11">
-        <v>248.23</v>
+        <v>248.12</v>
       </c>
       <c r="B96" s="17">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C96" t="s" s="18">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D96" t="s" s="19">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E96" t="s" s="20">
+        <v>326</v>
+      </c>
+      <c r="F96" t="s" s="20">
         <v>327</v>
       </c>
-      <c r="F96" t="s" s="20">
-        <v>328</v>
-      </c>
-      <c r="G96" t="s" s="23">
-        <v>324</v>
-      </c>
+      <c r="G96" s="21"/>
     </row>
     <row r="97" ht="32.05" customHeight="1">
       <c r="A97" s="11">
+        <v>248.23</v>
+      </c>
+      <c r="B97" s="17">
+        <v>344</v>
+      </c>
+      <c r="C97" t="s" s="18">
+        <v>319</v>
+      </c>
+      <c r="D97" t="s" s="19">
+        <v>320</v>
+      </c>
+      <c r="E97" t="s" s="20">
+        <v>328</v>
+      </c>
+      <c r="F97" t="s" s="20">
+        <v>329</v>
+      </c>
+      <c r="G97" t="s" s="23">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98" ht="32.05" customHeight="1">
+      <c r="A98" s="11">
         <v>248.33</v>
       </c>
-      <c r="B97" s="17">
+      <c r="B98" s="17">
         <v>139</v>
       </c>
-      <c r="C97" t="s" s="18">
-        <v>318</v>
-      </c>
-      <c r="D97" t="s" s="19">
+      <c r="C98" t="s" s="18">
         <v>319</v>
       </c>
-      <c r="E97" t="s" s="20">
-        <v>329</v>
-      </c>
-      <c r="F97" t="s" s="20">
+      <c r="D98" t="s" s="19">
+        <v>320</v>
+      </c>
+      <c r="E98" t="s" s="20">
         <v>330</v>
       </c>
-      <c r="G97" s="21"/>
-    </row>
-    <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" s="11">
+      <c r="F98" t="s" s="20">
+        <v>331</v>
+      </c>
+      <c r="G98" s="21"/>
+    </row>
+    <row r="99" ht="20.05" customHeight="1">
+      <c r="A99" s="11">
         <v>248.35</v>
       </c>
-      <c r="B98" s="17">
+      <c r="B99" s="17">
         <v>360</v>
       </c>
-      <c r="C98" t="s" s="18">
-        <v>318</v>
-      </c>
-      <c r="D98" t="s" s="19">
+      <c r="C99" t="s" s="18">
         <v>319</v>
       </c>
-      <c r="E98" t="s" s="20">
-        <v>331</v>
-      </c>
-      <c r="F98" t="s" s="20">
+      <c r="D99" t="s" s="19">
+        <v>320</v>
+      </c>
+      <c r="E99" t="s" s="20">
         <v>332</v>
       </c>
-      <c r="G98" s="21"/>
-    </row>
-    <row r="99" ht="32.05" customHeight="1">
-      <c r="A99" s="11">
-        <v>248.42</v>
-      </c>
-      <c r="B99" s="17">
-        <v>368</v>
-      </c>
-      <c r="C99" t="s" s="18">
-        <v>318</v>
-      </c>
-      <c r="D99" t="s" s="19">
-        <v>319</v>
-      </c>
-      <c r="E99" t="s" s="20">
+      <c r="F99" t="s" s="20">
         <v>333</v>
       </c>
-      <c r="F99" t="s" s="20">
-        <v>334</v>
-      </c>
-      <c r="G99" t="s" s="23">
-        <v>324</v>
-      </c>
+      <c r="G99" s="21"/>
     </row>
     <row r="100" ht="32.05" customHeight="1">
       <c r="A100" s="11">
-        <v>248.46</v>
+        <v>248.42</v>
       </c>
       <c r="B100" s="17">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="C100" t="s" s="18">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D100" t="s" s="19">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E100" t="s" s="20">
+        <v>334</v>
+      </c>
+      <c r="F100" t="s" s="20">
         <v>335</v>
       </c>
-      <c r="F100" t="s" s="20">
-        <v>336</v>
-      </c>
-      <c r="G100" s="21"/>
+      <c r="G100" t="s" s="23">
+        <v>325</v>
+      </c>
     </row>
     <row r="101" ht="32.05" customHeight="1">
       <c r="A101" s="11">
-        <v>248.53</v>
+        <v>248.46</v>
       </c>
       <c r="B101" s="17">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C101" t="s" s="18">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D101" t="s" s="19">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E101" t="s" s="20">
+        <v>336</v>
+      </c>
+      <c r="F101" t="s" s="20">
         <v>337</v>
-      </c>
-      <c r="F101" t="s" s="20">
-        <v>338</v>
       </c>
       <c r="G101" s="21"/>
     </row>
     <row r="102" ht="32.05" customHeight="1">
       <c r="A102" s="11">
+        <v>248.53</v>
+      </c>
+      <c r="B102" s="17">
+        <v>35</v>
+      </c>
+      <c r="C102" t="s" s="18">
+        <v>319</v>
+      </c>
+      <c r="D102" t="s" s="19">
+        <v>320</v>
+      </c>
+      <c r="E102" t="s" s="20">
+        <v>338</v>
+      </c>
+      <c r="F102" t="s" s="20">
+        <v>339</v>
+      </c>
+      <c r="G102" s="21"/>
+    </row>
+    <row r="103" ht="32.05" customHeight="1">
+      <c r="A103" s="11">
         <v>248.59</v>
       </c>
-      <c r="B102" s="17">
+      <c r="B103" s="17">
         <v>362</v>
       </c>
-      <c r="C102" t="s" s="18">
-        <v>318</v>
-      </c>
-      <c r="D102" t="s" s="19">
+      <c r="C103" t="s" s="18">
         <v>319</v>
       </c>
-      <c r="E102" t="s" s="20">
-        <v>339</v>
-      </c>
-      <c r="F102" t="s" s="20">
+      <c r="D103" t="s" s="19">
+        <v>320</v>
+      </c>
+      <c r="E103" t="s" s="20">
         <v>340</v>
       </c>
-      <c r="G102" s="21"/>
-    </row>
-    <row r="103" ht="32.05" customHeight="1">
-      <c r="A103" s="25">
+      <c r="F103" t="s" s="20">
+        <v>341</v>
+      </c>
+      <c r="G103" s="21"/>
+    </row>
+    <row r="104" ht="32.05" customHeight="1">
+      <c r="A104" s="27">
         <v>250</v>
       </c>
-      <c r="B103" s="17">
+      <c r="B104" s="17">
         <v>347</v>
       </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="27"/>
-      <c r="E103" t="s" s="20">
-        <v>341</v>
-      </c>
-      <c r="F103" t="s" s="20">
+      <c r="C104" s="28"/>
+      <c r="D104" s="29"/>
+      <c r="E104" t="s" s="20">
         <v>342</v>
-      </c>
-      <c r="G103" t="s" s="23">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" ht="32.05" customHeight="1">
-      <c r="A104" s="25">
-        <v>251</v>
-      </c>
-      <c r="B104" s="17">
-        <v>329</v>
-      </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="27"/>
-      <c r="E104" t="s" s="20">
-        <v>197</v>
       </c>
       <c r="F104" t="s" s="20">
         <v>343</v>
@@ -5705,883 +5718,891 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" ht="32.35" customHeight="1">
-      <c r="A105" s="28">
+    <row r="105" ht="32.05" customHeight="1">
+      <c r="A105" s="27">
+        <v>251</v>
+      </c>
+      <c r="B105" s="17">
+        <v>329</v>
+      </c>
+      <c r="C105" s="28"/>
+      <c r="D105" s="29"/>
+      <c r="E105" t="s" s="20">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s" s="20">
+        <v>344</v>
+      </c>
+      <c r="G105" t="s" s="23">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" ht="32.35" customHeight="1">
+      <c r="A106" s="30">
         <v>252</v>
       </c>
-      <c r="B105" s="29">
+      <c r="B106" s="31">
         <v>330</v>
       </c>
-      <c r="C105" s="30"/>
-      <c r="D105" s="31"/>
-      <c r="E105" t="s" s="32">
-        <v>344</v>
-      </c>
-      <c r="F105" t="s" s="32">
+      <c r="C106" s="32"/>
+      <c r="D106" s="33"/>
+      <c r="E106" t="s" s="34">
         <v>345</v>
       </c>
-      <c r="G105" t="s" s="33">
+      <c r="F106" t="s" s="34">
+        <v>346</v>
+      </c>
+      <c r="G106" t="s" s="35">
         <v>161</v>
       </c>
     </row>
-    <row r="106" ht="20.35" customHeight="1">
-      <c r="A106" t="s" s="34">
-        <v>346</v>
-      </c>
-      <c r="B106" s="35"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="35"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="36"/>
-    </row>
-    <row r="107" ht="32.35" customHeight="1">
-      <c r="A107" t="s" s="8">
-        <v>2</v>
+    <row r="107" ht="20.35" customHeight="1">
+      <c r="A107" t="s" s="36">
+        <v>347</v>
       </c>
       <c r="B107" s="37"/>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
-      <c r="E107" t="s" s="9">
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="38"/>
+    </row>
+    <row r="108" ht="32.35" customHeight="1">
+      <c r="A108" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="F107" t="s" s="9">
+      <c r="F108" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="G107" t="s" s="10">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="108" ht="32.65" customHeight="1">
-      <c r="A108" t="s" s="38">
+      <c r="G108" t="s" s="10">
         <v>348</v>
       </c>
-      <c r="B108" s="39"/>
-      <c r="C108" t="s" s="40">
+    </row>
+    <row r="109" ht="32.65" customHeight="1">
+      <c r="A109" t="s" s="40">
         <v>349</v>
       </c>
-      <c r="D108" t="s" s="41">
+      <c r="B109" s="41"/>
+      <c r="C109" t="s" s="42">
         <v>350</v>
       </c>
-      <c r="E108" t="s" s="15">
+      <c r="D109" t="s" s="43">
         <v>351</v>
       </c>
-      <c r="F108" t="s" s="15">
+      <c r="E109" t="s" s="15">
         <v>352</v>
       </c>
-      <c r="G108" s="16"/>
-    </row>
-    <row r="109" ht="32.35" customHeight="1">
-      <c r="A109" t="s" s="38">
+      <c r="F109" t="s" s="15">
         <v>353</v>
       </c>
-      <c r="B109" s="42"/>
-      <c r="C109" t="s" s="43">
+      <c r="G109" s="16"/>
+    </row>
+    <row r="110" ht="32.35" customHeight="1">
+      <c r="A110" t="s" s="40">
         <v>354</v>
       </c>
-      <c r="D109" t="s" s="19">
+      <c r="B110" s="44"/>
+      <c r="C110" t="s" s="45">
         <v>355</v>
       </c>
-      <c r="E109" t="s" s="20">
+      <c r="D110" t="s" s="19">
         <v>356</v>
       </c>
-      <c r="F109" t="s" s="20">
+      <c r="E110" t="s" s="20">
         <v>357</v>
       </c>
-      <c r="G109" t="s" s="23">
+      <c r="F110" t="s" s="20">
+        <v>358</v>
+      </c>
+      <c r="G110" t="s" s="23">
         <v>161</v>
       </c>
     </row>
-    <row r="110" ht="32.35" customHeight="1">
-      <c r="A110" t="s" s="38">
-        <v>358</v>
-      </c>
-      <c r="B110" s="42"/>
-      <c r="C110" t="s" s="43">
+    <row r="111" ht="32.35" customHeight="1">
+      <c r="A111" t="s" s="40">
+        <v>359</v>
+      </c>
+      <c r="B111" s="44"/>
+      <c r="C111" t="s" s="45">
         <v>129</v>
-      </c>
-      <c r="D110" t="s" s="22">
-        <v>130</v>
-      </c>
-      <c r="E110" t="s" s="20">
-        <v>359</v>
-      </c>
-      <c r="F110" t="s" s="20">
-        <v>360</v>
-      </c>
-      <c r="G110" s="21"/>
-    </row>
-    <row r="111" ht="32.35" customHeight="1">
-      <c r="A111" t="s" s="38">
-        <v>361</v>
-      </c>
-      <c r="B111" s="42"/>
-      <c r="C111" t="s" s="43">
-        <v>362</v>
       </c>
       <c r="D111" t="s" s="22">
         <v>130</v>
       </c>
       <c r="E111" t="s" s="20">
+        <v>360</v>
+      </c>
+      <c r="F111" t="s" s="20">
+        <v>361</v>
+      </c>
+      <c r="G111" s="21"/>
+    </row>
+    <row r="112" ht="32.35" customHeight="1">
+      <c r="A112" t="s" s="40">
+        <v>362</v>
+      </c>
+      <c r="B112" s="44"/>
+      <c r="C112" t="s" s="45">
         <v>363</v>
       </c>
-      <c r="F111" t="s" s="20">
+      <c r="D112" t="s" s="22">
+        <v>130</v>
+      </c>
+      <c r="E112" t="s" s="20">
         <v>364</v>
       </c>
-      <c r="G111" s="21"/>
-    </row>
-    <row r="112" ht="32.35" customHeight="1">
-      <c r="A112" t="s" s="38">
+      <c r="F112" t="s" s="20">
         <v>365</v>
       </c>
-      <c r="B112" s="42"/>
-      <c r="C112" t="s" s="43">
+      <c r="G112" s="21"/>
+    </row>
+    <row r="113" ht="32.35" customHeight="1">
+      <c r="A113" t="s" s="40">
         <v>366</v>
       </c>
-      <c r="D112" t="s" s="22">
+      <c r="B113" s="44"/>
+      <c r="C113" t="s" s="45">
         <v>367</v>
       </c>
-      <c r="E112" t="s" s="20">
-        <v>280</v>
-      </c>
-      <c r="F112" t="s" s="20">
+      <c r="D113" t="s" s="22">
         <v>368</v>
       </c>
-      <c r="G112" s="21"/>
-    </row>
-    <row r="113" ht="32.35" customHeight="1">
-      <c r="A113" t="s" s="38">
+      <c r="E113" t="s" s="20">
+        <v>281</v>
+      </c>
+      <c r="F113" t="s" s="20">
         <v>369</v>
       </c>
-      <c r="B113" s="42"/>
-      <c r="C113" t="s" s="43">
+      <c r="G113" s="21"/>
+    </row>
+    <row r="114" ht="32.35" customHeight="1">
+      <c r="A114" t="s" s="40">
         <v>370</v>
       </c>
-      <c r="D113" t="s" s="22">
+      <c r="B114" s="44"/>
+      <c r="C114" t="s" s="45">
         <v>371</v>
       </c>
-      <c r="E113" t="s" s="20">
+      <c r="D114" t="s" s="22">
         <v>372</v>
       </c>
-      <c r="F113" t="s" s="20">
+      <c r="E114" t="s" s="20">
         <v>373</v>
       </c>
-      <c r="G113" t="s" s="23">
+      <c r="F114" t="s" s="20">
         <v>374</v>
       </c>
-    </row>
-    <row r="114" ht="32.35" customHeight="1">
-      <c r="A114" t="s" s="38">
+      <c r="G114" t="s" s="23">
         <v>375</v>
       </c>
-      <c r="B114" s="42"/>
-      <c r="C114" t="s" s="43">
+    </row>
+    <row r="115" ht="32.35" customHeight="1">
+      <c r="A115" t="s" s="40">
         <v>376</v>
       </c>
-      <c r="D114" t="s" s="22">
+      <c r="B115" s="44"/>
+      <c r="C115" t="s" s="45">
         <v>377</v>
       </c>
-      <c r="E114" t="s" s="20">
+      <c r="D115" t="s" s="22">
         <v>378</v>
       </c>
-      <c r="F114" t="s" s="20">
+      <c r="E115" t="s" s="20">
         <v>379</v>
       </c>
-      <c r="G114" s="21"/>
-    </row>
-    <row r="115" ht="32.05" customHeight="1">
-      <c r="A115" t="s" s="38">
+      <c r="F115" t="s" s="20">
         <v>380</v>
       </c>
-      <c r="B115" s="42"/>
-      <c r="C115" t="s" s="43">
+      <c r="G115" s="21"/>
+    </row>
+    <row r="116" ht="32.05" customHeight="1">
+      <c r="A116" t="s" s="40">
         <v>381</v>
       </c>
-      <c r="D115" t="s" s="22">
+      <c r="B116" s="44"/>
+      <c r="C116" t="s" s="45">
         <v>382</v>
       </c>
-      <c r="E115" t="s" s="20">
+      <c r="D116" t="s" s="22">
+        <v>383</v>
+      </c>
+      <c r="E116" t="s" s="20">
         <v>40</v>
       </c>
-      <c r="F115" t="s" s="20">
-        <v>383</v>
-      </c>
-      <c r="G115" t="s" s="23">
+      <c r="F116" t="s" s="20">
         <v>384</v>
       </c>
-    </row>
-    <row r="116" ht="32.35" customHeight="1">
-      <c r="A116" t="s" s="38">
+      <c r="G116" t="s" s="23">
         <v>385</v>
       </c>
-      <c r="B116" s="42"/>
-      <c r="C116" t="s" s="43">
-        <v>341</v>
-      </c>
-      <c r="D116" t="s" s="22">
+    </row>
+    <row r="117" ht="32.35" customHeight="1">
+      <c r="A117" t="s" s="40">
         <v>386</v>
       </c>
-      <c r="E116" t="s" s="20">
-        <v>341</v>
-      </c>
-      <c r="F116" t="s" s="20">
+      <c r="B117" s="44"/>
+      <c r="C117" t="s" s="45">
+        <v>342</v>
+      </c>
+      <c r="D117" t="s" s="22">
         <v>387</v>
       </c>
-      <c r="G116" t="s" s="23">
+      <c r="E117" t="s" s="20">
+        <v>342</v>
+      </c>
+      <c r="F117" t="s" s="20">
         <v>388</v>
       </c>
-    </row>
-    <row r="117" ht="44.35" customHeight="1">
-      <c r="A117" t="s" s="38">
+      <c r="G117" t="s" s="23">
         <v>389</v>
       </c>
-      <c r="B117" s="42"/>
-      <c r="C117" t="s" s="43">
+    </row>
+    <row r="118" ht="44.35" customHeight="1">
+      <c r="A118" t="s" s="40">
         <v>390</v>
       </c>
-      <c r="D117" t="s" s="22">
+      <c r="B118" s="44"/>
+      <c r="C118" t="s" s="45">
         <v>391</v>
       </c>
-      <c r="E117" t="s" s="20">
+      <c r="D118" t="s" s="22">
         <v>392</v>
       </c>
-      <c r="F117" t="s" s="20">
+      <c r="E118" t="s" s="20">
         <v>393</v>
       </c>
-      <c r="G117" t="s" s="23">
+      <c r="F118" t="s" s="20">
+        <v>394</v>
+      </c>
+      <c r="G118" t="s" s="23">
         <v>161</v>
       </c>
     </row>
-    <row r="118" ht="32.35" customHeight="1">
-      <c r="A118" t="s" s="38">
-        <v>394</v>
-      </c>
-      <c r="B118" s="42"/>
-      <c r="C118" t="s" s="43">
+    <row r="119" ht="32.35" customHeight="1">
+      <c r="A119" t="s" s="40">
+        <v>395</v>
+      </c>
+      <c r="B119" s="44"/>
+      <c r="C119" t="s" s="45">
         <v>185</v>
       </c>
-      <c r="D118" t="s" s="22">
+      <c r="D119" t="s" s="22">
         <v>186</v>
       </c>
-      <c r="E118" t="s" s="20">
+      <c r="E119" t="s" s="20">
         <v>185</v>
       </c>
-      <c r="F118" t="s" s="20">
-        <v>395</v>
-      </c>
-      <c r="G118" t="s" s="23">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="119" ht="32.35" customHeight="1">
-      <c r="A119" t="s" s="38">
+      <c r="F119" t="s" s="20">
         <v>396</v>
       </c>
-      <c r="B119" s="42"/>
-      <c r="C119" t="s" s="43">
+      <c r="G119" t="s" s="23">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="120" ht="32.35" customHeight="1">
+      <c r="A120" t="s" s="40">
         <v>397</v>
       </c>
-      <c r="D119" t="s" s="22">
+      <c r="B120" s="44"/>
+      <c r="C120" t="s" s="45">
         <v>398</v>
       </c>
-      <c r="E119" t="s" s="20">
+      <c r="D120" t="s" s="22">
         <v>399</v>
       </c>
-      <c r="F119" t="s" s="20">
+      <c r="E120" t="s" s="20">
         <v>400</v>
       </c>
-      <c r="G119" s="21"/>
-    </row>
-    <row r="120" ht="32.35" customHeight="1">
-      <c r="A120" t="s" s="38">
+      <c r="F120" t="s" s="20">
         <v>401</v>
       </c>
-      <c r="B120" s="42"/>
-      <c r="C120" t="s" s="43">
+      <c r="G120" s="21"/>
+    </row>
+    <row r="121" ht="32.35" customHeight="1">
+      <c r="A121" t="s" s="40">
         <v>402</v>
       </c>
-      <c r="D120" t="s" s="22">
+      <c r="B121" s="44"/>
+      <c r="C121" t="s" s="45">
         <v>403</v>
       </c>
-      <c r="E120" t="s" s="20">
+      <c r="D121" t="s" s="22">
+        <v>404</v>
+      </c>
+      <c r="E121" t="s" s="20">
         <v>151</v>
       </c>
-      <c r="F120" t="s" s="20">
-        <v>404</v>
-      </c>
-      <c r="G120" s="21"/>
-    </row>
-    <row r="121" ht="32.35" customHeight="1">
-      <c r="A121" t="s" s="38">
+      <c r="F121" t="s" s="20">
         <v>405</v>
       </c>
-      <c r="B121" s="42"/>
-      <c r="C121" t="s" s="43">
+      <c r="G121" s="21"/>
+    </row>
+    <row r="122" ht="32.35" customHeight="1">
+      <c r="A122" t="s" s="40">
         <v>406</v>
       </c>
-      <c r="D121" t="s" s="22">
+      <c r="B122" s="44"/>
+      <c r="C122" t="s" s="45">
         <v>407</v>
       </c>
-      <c r="E121" t="s" s="20">
+      <c r="D122" t="s" s="22">
         <v>408</v>
       </c>
-      <c r="F121" t="s" s="20">
+      <c r="E122" t="s" s="20">
         <v>409</v>
       </c>
-      <c r="G121" t="s" s="23">
+      <c r="F122" t="s" s="20">
+        <v>410</v>
+      </c>
+      <c r="G122" t="s" s="23">
         <v>161</v>
       </c>
     </row>
-    <row r="122" ht="32.35" customHeight="1">
-      <c r="A122" t="s" s="38">
-        <v>410</v>
-      </c>
-      <c r="B122" s="42"/>
-      <c r="C122" t="s" s="43">
+    <row r="123" ht="32.35" customHeight="1">
+      <c r="A123" t="s" s="40">
         <v>411</v>
       </c>
-      <c r="D122" t="s" s="22">
+      <c r="B123" s="44"/>
+      <c r="C123" t="s" s="45">
         <v>412</v>
       </c>
-      <c r="E122" t="s" s="20">
+      <c r="D123" t="s" s="22">
         <v>413</v>
       </c>
-      <c r="F122" t="s" s="20">
+      <c r="E123" t="s" s="20">
         <v>414</v>
       </c>
-      <c r="G122" t="s" s="23">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="123" ht="32.35" customHeight="1">
-      <c r="A123" t="s" s="38">
+      <c r="F123" t="s" s="20">
         <v>415</v>
       </c>
-      <c r="B123" s="42"/>
-      <c r="C123" t="s" s="43">
+      <c r="G123" t="s" s="23">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="124" ht="32.35" customHeight="1">
+      <c r="A124" t="s" s="40">
         <v>416</v>
       </c>
-      <c r="D123" t="s" s="22">
+      <c r="B124" s="44"/>
+      <c r="C124" t="s" s="45">
         <v>417</v>
       </c>
-      <c r="E123" t="s" s="20">
+      <c r="D124" t="s" s="22">
         <v>418</v>
       </c>
-      <c r="F123" t="s" s="20">
+      <c r="E124" t="s" s="20">
         <v>419</v>
       </c>
-      <c r="G123" s="21"/>
-    </row>
-    <row r="124" ht="44.35" customHeight="1">
-      <c r="A124" t="s" s="38">
+      <c r="F124" t="s" s="20">
         <v>420</v>
       </c>
-      <c r="B124" s="42"/>
-      <c r="C124" t="s" s="43">
+      <c r="G124" s="21"/>
+    </row>
+    <row r="125" ht="44.35" customHeight="1">
+      <c r="A125" t="s" s="40">
         <v>421</v>
       </c>
-      <c r="D124" t="s" s="22">
+      <c r="B125" s="44"/>
+      <c r="C125" t="s" s="45">
         <v>422</v>
       </c>
-      <c r="E124" t="s" s="20">
+      <c r="D125" t="s" s="22">
         <v>423</v>
       </c>
-      <c r="F124" t="s" s="20">
+      <c r="E125" t="s" s="20">
         <v>424</v>
       </c>
-      <c r="G124" t="s" s="23">
+      <c r="F125" t="s" s="20">
+        <v>425</v>
+      </c>
+      <c r="G125" t="s" s="23">
         <v>161</v>
       </c>
     </row>
-    <row r="125" ht="32.35" customHeight="1">
-      <c r="A125" t="s" s="38">
-        <v>425</v>
-      </c>
-      <c r="B125" s="42"/>
-      <c r="C125" t="s" s="43">
+    <row r="126" ht="32.35" customHeight="1">
+      <c r="A126" t="s" s="40">
         <v>426</v>
       </c>
-      <c r="D125" t="s" s="22">
+      <c r="B126" s="44"/>
+      <c r="C126" t="s" s="45">
         <v>427</v>
       </c>
-      <c r="E125" t="s" s="20">
+      <c r="D126" t="s" s="22">
         <v>428</v>
       </c>
-      <c r="F125" t="s" s="20">
+      <c r="E126" t="s" s="20">
         <v>429</v>
       </c>
-      <c r="G125" s="21"/>
-    </row>
-    <row r="126" ht="32.35" customHeight="1">
-      <c r="A126" t="s" s="38">
+      <c r="F126" t="s" s="20">
         <v>430</v>
       </c>
-      <c r="B126" s="42"/>
-      <c r="C126" t="s" s="43">
+      <c r="G126" s="21"/>
+    </row>
+    <row r="127" ht="32.35" customHeight="1">
+      <c r="A127" t="s" s="40">
         <v>431</v>
       </c>
-      <c r="D126" t="s" s="19">
+      <c r="B127" s="44"/>
+      <c r="C127" t="s" s="45">
         <v>432</v>
       </c>
-      <c r="E126" t="s" s="20">
-        <v>316</v>
-      </c>
-      <c r="F126" t="s" s="20">
+      <c r="D127" t="s" s="19">
         <v>433</v>
       </c>
-      <c r="G126" t="s" s="23">
+      <c r="E127" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="F127" t="s" s="20">
         <v>434</v>
       </c>
-    </row>
-    <row r="127" ht="32.35" customHeight="1">
-      <c r="A127" t="s" s="38">
+      <c r="G127" t="s" s="23">
         <v>435</v>
       </c>
-      <c r="B127" s="42"/>
-      <c r="C127" t="s" s="43">
+    </row>
+    <row r="128" ht="32.35" customHeight="1">
+      <c r="A128" t="s" s="40">
         <v>436</v>
       </c>
-      <c r="D127" t="s" s="19">
+      <c r="B128" s="44"/>
+      <c r="C128" t="s" s="45">
         <v>437</v>
       </c>
-      <c r="E127" t="s" s="20">
-        <v>397</v>
-      </c>
-      <c r="F127" t="s" s="20">
+      <c r="D128" t="s" s="19">
         <v>438</v>
       </c>
-      <c r="G127" s="21"/>
-    </row>
-    <row r="128" ht="44.05" customHeight="1">
-      <c r="A128" t="s" s="38">
+      <c r="E128" t="s" s="20">
+        <v>398</v>
+      </c>
+      <c r="F128" t="s" s="20">
         <v>439</v>
       </c>
-      <c r="B128" s="42"/>
-      <c r="C128" t="s" s="43">
+      <c r="G128" s="21"/>
+    </row>
+    <row r="129" ht="44.05" customHeight="1">
+      <c r="A129" t="s" s="40">
         <v>440</v>
       </c>
-      <c r="D128" t="s" s="19">
-        <v>350</v>
-      </c>
-      <c r="E128" t="s" s="20">
+      <c r="B129" s="44"/>
+      <c r="C129" t="s" s="45">
         <v>441</v>
       </c>
-      <c r="F128" t="s" s="20">
+      <c r="D129" t="s" s="19">
+        <v>351</v>
+      </c>
+      <c r="E129" t="s" s="20">
         <v>442</v>
       </c>
-      <c r="G128" t="s" s="23">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="129" ht="41" customHeight="1">
-      <c r="A129" t="s" s="38">
+      <c r="F129" t="s" s="20">
         <v>443</v>
       </c>
-      <c r="B129" s="42"/>
-      <c r="C129" t="s" s="43">
+      <c r="G129" t="s" s="23">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" ht="41" customHeight="1">
+      <c r="A130" t="s" s="40">
         <v>444</v>
       </c>
-      <c r="D129" t="s" s="19">
+      <c r="B130" s="44"/>
+      <c r="C130" t="s" s="45">
         <v>445</v>
       </c>
-      <c r="E129" t="s" s="20">
+      <c r="D130" t="s" s="19">
         <v>446</v>
       </c>
-      <c r="F129" t="s" s="20">
+      <c r="E130" t="s" s="20">
         <v>447</v>
       </c>
-      <c r="G129" t="s" s="23">
+      <c r="F130" t="s" s="20">
         <v>448</v>
       </c>
-    </row>
-    <row r="130" ht="32.35" customHeight="1">
-      <c r="A130" t="s" s="38">
+      <c r="G130" t="s" s="23">
         <v>449</v>
       </c>
-      <c r="B130" s="42"/>
-      <c r="C130" t="s" s="43">
+    </row>
+    <row r="131" ht="32.35" customHeight="1">
+      <c r="A131" t="s" s="40">
         <v>450</v>
       </c>
-      <c r="D130" t="s" s="22">
+      <c r="B131" s="44"/>
+      <c r="C131" t="s" s="45">
         <v>451</v>
       </c>
-      <c r="E130" t="s" s="20">
-        <v>259</v>
-      </c>
-      <c r="F130" t="s" s="20">
+      <c r="D131" t="s" s="22">
         <v>452</v>
       </c>
-      <c r="G130" t="s" s="23">
+      <c r="E131" t="s" s="20">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s" s="20">
+        <v>453</v>
+      </c>
+      <c r="G131" t="s" s="23">
         <v>161</v>
       </c>
     </row>
-    <row r="131" ht="32.35" customHeight="1">
-      <c r="A131" t="s" s="38">
-        <v>453</v>
-      </c>
-      <c r="B131" s="42"/>
-      <c r="C131" t="s" s="43">
+    <row r="132" ht="32.35" customHeight="1">
+      <c r="A132" t="s" s="40">
         <v>454</v>
       </c>
-      <c r="D131" t="s" s="22">
+      <c r="B132" s="44"/>
+      <c r="C132" t="s" s="45">
         <v>455</v>
       </c>
-      <c r="E131" t="s" s="20">
+      <c r="D132" t="s" s="22">
         <v>456</v>
       </c>
-      <c r="F131" t="s" s="20">
+      <c r="E132" t="s" s="20">
         <v>457</v>
       </c>
-      <c r="G131" t="s" s="23">
+      <c r="F132" t="s" s="20">
         <v>458</v>
       </c>
-    </row>
-    <row r="132" ht="44.05" customHeight="1">
-      <c r="A132" t="s" s="38">
+      <c r="G132" t="s" s="23">
         <v>459</v>
       </c>
-      <c r="B132" s="42"/>
-      <c r="C132" t="s" s="43">
-        <v>272</v>
-      </c>
-      <c r="D132" t="s" s="19">
+    </row>
+    <row r="133" ht="44.05" customHeight="1">
+      <c r="A133" t="s" s="40">
+        <v>460</v>
+      </c>
+      <c r="B133" s="44"/>
+      <c r="C133" t="s" s="45">
         <v>273</v>
       </c>
-      <c r="E132" t="s" s="20">
-        <v>460</v>
-      </c>
-      <c r="F132" t="s" s="20">
+      <c r="D133" t="s" s="19">
+        <v>274</v>
+      </c>
+      <c r="E133" t="s" s="20">
         <v>461</v>
       </c>
-      <c r="G132" s="21"/>
-    </row>
-    <row r="133" ht="32.35" customHeight="1">
-      <c r="A133" t="s" s="44">
+      <c r="F133" t="s" s="20">
         <v>462</v>
       </c>
-      <c r="B133" s="42"/>
-      <c r="C133" t="s" s="43">
-        <v>272</v>
-      </c>
-      <c r="D133" t="s" s="19">
+      <c r="G133" s="21"/>
+    </row>
+    <row r="134" ht="32.35" customHeight="1">
+      <c r="A134" t="s" s="46">
+        <v>463</v>
+      </c>
+      <c r="B134" s="44"/>
+      <c r="C134" t="s" s="45">
         <v>273</v>
       </c>
-      <c r="E133" s="26"/>
-      <c r="F133" t="s" s="20">
-        <v>463</v>
-      </c>
-      <c r="G133" t="s" s="23">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="134" ht="32.05" customHeight="1">
-      <c r="A134" t="s" s="38">
+      <c r="D134" t="s" s="19">
+        <v>274</v>
+      </c>
+      <c r="E134" s="28"/>
+      <c r="F134" t="s" s="20">
         <v>464</v>
       </c>
-      <c r="B134" s="42"/>
-      <c r="C134" t="s" s="43">
-        <v>296</v>
-      </c>
-      <c r="D134" t="s" s="22">
+      <c r="G134" t="s" s="23">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="135" ht="32.05" customHeight="1">
+      <c r="A135" t="s" s="40">
+        <v>465</v>
+      </c>
+      <c r="B135" s="44"/>
+      <c r="C135" t="s" s="45">
         <v>297</v>
       </c>
-      <c r="E134" t="s" s="20">
-        <v>465</v>
-      </c>
-      <c r="F134" t="s" s="20">
+      <c r="D135" t="s" s="22">
+        <v>298</v>
+      </c>
+      <c r="E135" t="s" s="20">
         <v>466</v>
       </c>
-      <c r="G134" s="21"/>
-    </row>
-    <row r="135" ht="44.05" customHeight="1">
-      <c r="A135" t="s" s="38">
+      <c r="F135" t="s" s="20">
         <v>467</v>
       </c>
-      <c r="B135" s="42"/>
-      <c r="C135" t="s" s="43">
-        <v>318</v>
-      </c>
-      <c r="D135" t="s" s="19">
+      <c r="G135" s="21"/>
+    </row>
+    <row r="136" ht="44.05" customHeight="1">
+      <c r="A136" t="s" s="40">
+        <v>468</v>
+      </c>
+      <c r="B136" s="44"/>
+      <c r="C136" t="s" s="45">
         <v>319</v>
       </c>
-      <c r="E135" t="s" s="20">
-        <v>460</v>
-      </c>
-      <c r="F135" t="s" s="20">
+      <c r="D136" t="s" s="19">
+        <v>320</v>
+      </c>
+      <c r="E136" t="s" s="20">
         <v>461</v>
       </c>
-      <c r="G135" s="21"/>
-    </row>
-    <row r="136" ht="32.05" customHeight="1">
-      <c r="A136" t="s" s="38">
-        <v>468</v>
-      </c>
-      <c r="B136" s="42"/>
-      <c r="C136" t="s" s="43">
-        <v>318</v>
-      </c>
-      <c r="D136" t="s" s="19">
+      <c r="F136" t="s" s="20">
+        <v>462</v>
+      </c>
+      <c r="G136" s="21"/>
+    </row>
+    <row r="137" ht="32.05" customHeight="1">
+      <c r="A137" t="s" s="40">
+        <v>469</v>
+      </c>
+      <c r="B137" s="44"/>
+      <c r="C137" t="s" s="45">
         <v>319</v>
       </c>
-      <c r="E136" t="s" s="20">
-        <v>469</v>
-      </c>
-      <c r="F136" t="s" s="20">
+      <c r="D137" t="s" s="19">
+        <v>320</v>
+      </c>
+      <c r="E137" t="s" s="20">
         <v>470</v>
       </c>
-      <c r="G136" s="21"/>
-    </row>
-    <row r="137" ht="32.35" customHeight="1">
-      <c r="A137" t="s" s="45">
+      <c r="F137" t="s" s="20">
         <v>471</v>
       </c>
-      <c r="B137" s="46"/>
-      <c r="C137" t="s" s="47">
-        <v>318</v>
-      </c>
-      <c r="D137" t="s" s="48">
+      <c r="G137" s="21"/>
+    </row>
+    <row r="138" ht="32.35" customHeight="1">
+      <c r="A138" t="s" s="47">
+        <v>472</v>
+      </c>
+      <c r="B138" s="48"/>
+      <c r="C138" t="s" s="49">
         <v>319</v>
       </c>
-      <c r="E137" t="s" s="32">
-        <v>472</v>
-      </c>
-      <c r="F137" t="s" s="32">
+      <c r="D138" t="s" s="50">
+        <v>320</v>
+      </c>
+      <c r="E138" t="s" s="34">
         <v>473</v>
       </c>
-      <c r="G137" t="s" s="33">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="138" ht="20.35" customHeight="1">
-      <c r="A138" t="s" s="34">
+      <c r="F138" t="s" s="34">
         <v>474</v>
       </c>
-      <c r="B138" s="35"/>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="36"/>
-    </row>
-    <row r="139" ht="32.35" customHeight="1">
-      <c r="A139" t="s" s="8">
+      <c r="G138" t="s" s="35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="139" ht="20.35" customHeight="1">
+      <c r="A139" t="s" s="36">
         <v>475</v>
       </c>
-      <c r="B139" t="s" s="9">
-        <v>476</v>
-      </c>
+      <c r="B139" s="37"/>
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
-      <c r="E139" t="s" s="9">
+      <c r="E139" s="37"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="38"/>
+    </row>
+    <row r="140" ht="32.35" customHeight="1">
+      <c r="A140" t="s" s="8">
+        <v>476</v>
+      </c>
+      <c r="B140" t="s" s="9">
+        <v>477</v>
+      </c>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
+      <c r="E140" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="F139" t="s" s="9">
+      <c r="F140" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="G139" t="s" s="10">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="140" ht="32.35" customHeight="1">
-      <c r="A140" s="25">
+      <c r="G140" t="s" s="10">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" ht="32.35" customHeight="1">
+      <c r="A141" s="27">
         <v>447</v>
       </c>
-      <c r="B140" s="49">
+      <c r="B141" s="51">
         <v>232</v>
       </c>
-      <c r="C140" s="50"/>
-      <c r="D140" s="51"/>
-      <c r="E140" t="s" s="15">
-        <v>477</v>
-      </c>
-      <c r="F140" t="s" s="15">
+      <c r="C141" s="52"/>
+      <c r="D141" s="53"/>
+      <c r="E141" t="s" s="15">
         <v>478</v>
       </c>
-      <c r="G140" s="16"/>
-    </row>
-    <row r="141" ht="41" customHeight="1">
-      <c r="A141" s="25">
+      <c r="F141" t="s" s="15">
+        <v>479</v>
+      </c>
+      <c r="G141" s="16"/>
+    </row>
+    <row r="142" ht="41" customHeight="1">
+      <c r="A142" s="27">
         <v>461</v>
       </c>
-      <c r="B141" s="17">
+      <c r="B142" s="17">
         <v>234</v>
       </c>
-      <c r="C141" s="26"/>
-      <c r="D141" s="52"/>
-      <c r="E141" t="s" s="20">
-        <v>479</v>
-      </c>
-      <c r="F141" t="s" s="20">
+      <c r="C142" s="28"/>
+      <c r="D142" s="54"/>
+      <c r="E142" t="s" s="20">
         <v>480</v>
       </c>
-      <c r="G141" t="s" s="23">
+      <c r="F142" t="s" s="20">
         <v>481</v>
       </c>
-    </row>
-    <row r="142" ht="32.05" customHeight="1">
-      <c r="A142" s="25">
+      <c r="G142" t="s" s="23">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="143" ht="32.05" customHeight="1">
+      <c r="A143" s="27">
         <v>470</v>
       </c>
-      <c r="B142" s="17">
+      <c r="B143" s="17">
         <v>244</v>
       </c>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
-      <c r="E142" t="s" s="20">
-        <v>482</v>
-      </c>
-      <c r="F142" t="s" s="20">
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" t="s" s="20">
         <v>483</v>
       </c>
-      <c r="G142" s="21"/>
-    </row>
-    <row r="143" ht="32.05" customHeight="1">
-      <c r="A143" s="25">
+      <c r="F143" t="s" s="20">
+        <v>484</v>
+      </c>
+      <c r="G143" s="21"/>
+    </row>
+    <row r="144" ht="32.05" customHeight="1">
+      <c r="A144" s="27">
         <v>488</v>
       </c>
-      <c r="B143" s="17">
+      <c r="B144" s="17">
         <v>346</v>
       </c>
-      <c r="C143" s="26"/>
-      <c r="D143" s="26"/>
-      <c r="E143" t="s" s="20">
-        <v>484</v>
-      </c>
-      <c r="F143" t="s" s="20">
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" t="s" s="20">
         <v>485</v>
       </c>
-      <c r="G143" s="21"/>
-    </row>
-    <row r="144" ht="32.05" customHeight="1">
-      <c r="A144" s="25">
+      <c r="F144" t="s" s="20">
+        <v>486</v>
+      </c>
+      <c r="G144" s="21"/>
+    </row>
+    <row r="145" ht="32.05" customHeight="1">
+      <c r="A145" s="27">
         <v>495</v>
       </c>
-      <c r="B144" s="17">
+      <c r="B145" s="17">
         <v>213</v>
       </c>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-      <c r="E144" t="s" s="20">
-        <v>486</v>
-      </c>
-      <c r="F144" t="s" s="20">
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" t="s" s="20">
         <v>487</v>
       </c>
-      <c r="G144" s="21"/>
-    </row>
-    <row r="145" ht="32.05" customHeight="1">
-      <c r="A145" s="25">
+      <c r="F145" t="s" s="20">
+        <v>488</v>
+      </c>
+      <c r="G145" s="21"/>
+    </row>
+    <row r="146" ht="32.05" customHeight="1">
+      <c r="A146" s="27">
         <v>499</v>
       </c>
-      <c r="B145" s="17">
+      <c r="B146" s="17">
         <v>172</v>
       </c>
-      <c r="C145" s="26"/>
-      <c r="D145" s="26"/>
-      <c r="E145" t="s" s="20">
-        <v>488</v>
-      </c>
-      <c r="F145" t="s" s="20">
+      <c r="C146" s="28"/>
+      <c r="D146" s="28"/>
+      <c r="E146" t="s" s="20">
         <v>489</v>
       </c>
-      <c r="G145" s="21"/>
-    </row>
-    <row r="146" ht="32.05" customHeight="1">
-      <c r="A146" s="25">
+      <c r="F146" t="s" s="20">
+        <v>490</v>
+      </c>
+      <c r="G146" s="21"/>
+    </row>
+    <row r="147" ht="32.05" customHeight="1">
+      <c r="A147" s="27">
         <v>481</v>
       </c>
-      <c r="B146" s="17">
+      <c r="B147" s="17">
         <v>220</v>
       </c>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
-      <c r="E146" t="s" s="20">
-        <v>490</v>
-      </c>
-      <c r="F146" t="s" s="20">
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" t="s" s="20">
         <v>491</v>
       </c>
-      <c r="G146" s="21"/>
-    </row>
-    <row r="147" ht="32.35" customHeight="1">
-      <c r="A147" s="28">
+      <c r="F147" t="s" s="20">
+        <v>492</v>
+      </c>
+      <c r="G147" s="21"/>
+    </row>
+    <row r="148" ht="32.35" customHeight="1">
+      <c r="A148" s="30">
         <v>506</v>
       </c>
-      <c r="B147" s="29">
+      <c r="B148" s="31">
         <v>193</v>
       </c>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
-      <c r="E147" t="s" s="32">
-        <v>492</v>
-      </c>
-      <c r="F147" t="s" s="32">
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" t="s" s="34">
         <v>493</v>
       </c>
-      <c r="G147" s="53"/>
-    </row>
-    <row r="148" ht="20.35" customHeight="1">
-      <c r="A148" t="s" s="34">
+      <c r="F148" t="s" s="34">
         <v>494</v>
       </c>
-      <c r="B148" s="35"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="36"/>
-    </row>
-    <row r="149" ht="32.35" customHeight="1">
-      <c r="A149" t="s" s="8">
-        <v>2</v>
+      <c r="G148" s="55"/>
+    </row>
+    <row r="149" ht="20.35" customHeight="1">
+      <c r="A149" t="s" s="36">
+        <v>495</v>
       </c>
       <c r="B149" s="37"/>
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
-      <c r="E149" t="s" s="9">
+      <c r="E149" s="37"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="38"/>
+    </row>
+    <row r="150" ht="32.35" customHeight="1">
+      <c r="A150" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
+      <c r="E150" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="F149" t="s" s="9">
+      <c r="F150" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="G149" t="s" s="10">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="150" ht="20.35" customHeight="1">
-      <c r="A150" s="38"/>
-      <c r="B150" t="s" s="54">
-        <v>495</v>
-      </c>
-      <c r="C150" s="35"/>
-      <c r="D150" s="35"/>
-      <c r="E150" s="35"/>
-      <c r="F150" s="35"/>
-      <c r="G150" s="36"/>
-    </row>
-    <row r="151" ht="20.85" customHeight="1">
-      <c r="A151" s="55"/>
-      <c r="B151" s="56"/>
-      <c r="C151" s="57"/>
-      <c r="D151" s="57"/>
-      <c r="E151" s="57"/>
-      <c r="F151" s="57"/>
-      <c r="G151" s="58"/>
-    </row>
-    <row r="152" ht="26.9" customHeight="1">
-      <c r="A152" t="s" s="2">
+      <c r="G150" t="s" s="10">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="151" ht="20.35" customHeight="1">
+      <c r="A151" s="40"/>
+      <c r="B151" t="s" s="56">
         <v>496</v>
       </c>
-      <c r="B152" s="59"/>
+      <c r="C151" s="37"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="37"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="38"/>
+    </row>
+    <row r="152" ht="20.85" customHeight="1">
+      <c r="A152" s="57"/>
+      <c r="B152" s="58"/>
       <c r="C152" s="59"/>
       <c r="D152" s="59"/>
       <c r="E152" s="59"/>
       <c r="F152" s="59"/>
       <c r="G152" s="60"/>
     </row>
-    <row r="153" ht="20.25" customHeight="1">
-      <c r="A153" t="s" s="5">
-        <v>1</v>
+    <row r="153" ht="26.9" customHeight="1">
+      <c r="A153" t="s" s="2">
+        <v>497</v>
       </c>
       <c r="B153" s="61"/>
       <c r="C153" s="61"/>
@@ -6590,156 +6611,167 @@
       <c r="F153" s="61"/>
       <c r="G153" s="62"/>
     </row>
-    <row r="154" ht="32.35" customHeight="1">
-      <c r="A154" t="s" s="8">
+    <row r="154" ht="20.25" customHeight="1">
+      <c r="A154" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B154" s="63"/>
+      <c r="C154" s="63"/>
+      <c r="D154" s="63"/>
+      <c r="E154" s="63"/>
+      <c r="F154" s="63"/>
+      <c r="G154" s="64"/>
+    </row>
+    <row r="155" ht="32.35" customHeight="1">
+      <c r="A155" t="s" s="8">
         <v>2</v>
       </c>
-      <c r="B154" t="s" s="9">
+      <c r="B155" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="C154" s="37"/>
-      <c r="D154" s="37"/>
-      <c r="E154" t="s" s="9">
+      <c r="C155" s="39"/>
+      <c r="D155" s="39"/>
+      <c r="E155" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="F154" t="s" s="9">
+      <c r="F155" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="G154" t="s" s="10">
+      <c r="G155" t="s" s="10">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="156" ht="20.35" customHeight="1">
+      <c r="A156" s="40"/>
+      <c r="B156" t="s" s="56">
+        <v>496</v>
+      </c>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="38"/>
+    </row>
+    <row r="157" ht="20.35" customHeight="1">
+      <c r="A157" s="47"/>
+      <c r="B157" s="65"/>
+      <c r="C157" s="66"/>
+      <c r="D157" s="66"/>
+      <c r="E157" s="66"/>
+      <c r="F157" s="66"/>
+      <c r="G157" s="67"/>
+    </row>
+    <row r="158" ht="20.35" customHeight="1">
+      <c r="A158" t="s" s="36">
         <v>347</v>
-      </c>
-    </row>
-    <row r="155" ht="20.35" customHeight="1">
-      <c r="A155" s="38"/>
-      <c r="B155" t="s" s="54">
-        <v>495</v>
-      </c>
-      <c r="C155" s="35"/>
-      <c r="D155" s="35"/>
-      <c r="E155" s="35"/>
-      <c r="F155" s="35"/>
-      <c r="G155" s="36"/>
-    </row>
-    <row r="156" ht="20.35" customHeight="1">
-      <c r="A156" s="45"/>
-      <c r="B156" s="63"/>
-      <c r="C156" s="64"/>
-      <c r="D156" s="64"/>
-      <c r="E156" s="64"/>
-      <c r="F156" s="64"/>
-      <c r="G156" s="65"/>
-    </row>
-    <row r="157" ht="20.35" customHeight="1">
-      <c r="A157" t="s" s="34">
-        <v>346</v>
-      </c>
-      <c r="B157" s="35"/>
-      <c r="C157" s="35"/>
-      <c r="D157" s="35"/>
-      <c r="E157" s="35"/>
-      <c r="F157" s="35"/>
-      <c r="G157" s="36"/>
-    </row>
-    <row r="158" ht="32.35" customHeight="1">
-      <c r="A158" t="s" s="8">
-        <v>2</v>
       </c>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
-      <c r="E158" t="s" s="9">
+      <c r="E158" s="37"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="38"/>
+    </row>
+    <row r="159" ht="32.35" customHeight="1">
+      <c r="A159" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="B159" s="39"/>
+      <c r="C159" s="39"/>
+      <c r="D159" s="39"/>
+      <c r="E159" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="F158" t="s" s="9">
+      <c r="F159" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="G158" t="s" s="10">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="159" ht="20.35" customHeight="1">
-      <c r="A159" s="38"/>
-      <c r="B159" t="s" s="54">
-        <v>495</v>
-      </c>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="35"/>
-      <c r="G159" s="36"/>
+      <c r="G159" t="s" s="10">
+        <v>348</v>
+      </c>
     </row>
     <row r="160" ht="20.35" customHeight="1">
-      <c r="A160" s="45"/>
-      <c r="B160" s="63"/>
-      <c r="C160" s="64"/>
-      <c r="D160" s="64"/>
-      <c r="E160" s="64"/>
-      <c r="F160" s="64"/>
-      <c r="G160" s="65"/>
+      <c r="A160" s="40"/>
+      <c r="B160" t="s" s="56">
+        <v>496</v>
+      </c>
+      <c r="C160" s="37"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="38"/>
     </row>
     <row r="161" ht="20.35" customHeight="1">
-      <c r="A161" t="s" s="34">
-        <v>497</v>
-      </c>
-      <c r="B161" s="35"/>
-      <c r="C161" s="35"/>
-      <c r="D161" s="35"/>
-      <c r="E161" s="35"/>
-      <c r="F161" s="35"/>
-      <c r="G161" s="36"/>
-    </row>
-    <row r="162" ht="32.35" customHeight="1">
-      <c r="A162" t="s" s="8">
-        <v>2</v>
+      <c r="A161" s="47"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="66"/>
+      <c r="D161" s="66"/>
+      <c r="E161" s="66"/>
+      <c r="F161" s="66"/>
+      <c r="G161" s="67"/>
+    </row>
+    <row r="162" ht="20.35" customHeight="1">
+      <c r="A162" t="s" s="36">
+        <v>498</v>
       </c>
       <c r="B162" s="37"/>
       <c r="C162" s="37"/>
       <c r="D162" s="37"/>
-      <c r="E162" t="s" s="9">
+      <c r="E162" s="37"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="38"/>
+    </row>
+    <row r="163" ht="32.35" customHeight="1">
+      <c r="A163" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="B163" s="39"/>
+      <c r="C163" s="39"/>
+      <c r="D163" s="39"/>
+      <c r="E163" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="F162" t="s" s="9">
+      <c r="F163" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="G162" t="s" s="10">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="163" ht="20.35" customHeight="1">
-      <c r="A163" s="38"/>
-      <c r="B163" t="s" s="54">
-        <v>495</v>
-      </c>
-      <c r="C163" s="35"/>
-      <c r="D163" s="35"/>
-      <c r="E163" s="35"/>
-      <c r="F163" s="35"/>
-      <c r="G163" s="36"/>
-    </row>
-    <row r="164" ht="20.85" customHeight="1">
-      <c r="A164" s="55"/>
-      <c r="B164" s="56"/>
-      <c r="C164" s="57"/>
-      <c r="D164" s="57"/>
-      <c r="E164" s="57"/>
-      <c r="F164" s="57"/>
-      <c r="G164" s="58"/>
+      <c r="G163" t="s" s="10">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="164" ht="20.35" customHeight="1">
+      <c r="A164" s="40"/>
+      <c r="B164" t="s" s="56">
+        <v>496</v>
+      </c>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="38"/>
+    </row>
+    <row r="165" ht="20.85" customHeight="1">
+      <c r="A165" s="57"/>
+      <c r="B165" s="58"/>
+      <c r="C165" s="59"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59"/>
+      <c r="G165" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A106:G106"/>
+    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A107:G107"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A152:G152"/>
     <mergeCell ref="A153:G153"/>
-    <mergeCell ref="A161:G161"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="A157:G157"/>
-    <mergeCell ref="B150:G151"/>
-    <mergeCell ref="B155:G156"/>
-    <mergeCell ref="B159:G160"/>
-    <mergeCell ref="B163:G164"/>
+    <mergeCell ref="A154:G154"/>
+    <mergeCell ref="A162:G162"/>
+    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="A158:G158"/>
+    <mergeCell ref="B151:G152"/>
+    <mergeCell ref="B156:G157"/>
+    <mergeCell ref="B160:G161"/>
+    <mergeCell ref="B164:G165"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/Reference Table.xlsx
+++ b/Reference Table.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juyao\Documents\Github\harmonic_analysis\Bach_chorale_FB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D33753-1A5A-4FBF-B9C1-91FC1404F479}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="16354" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Final Table" sheetId="1" r:id="rId4"/>
+    <sheet name="Final Table" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="500">
   <si>
     <t>FB Chorales</t>
   </si>
@@ -1152,7 +1161,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1162,7 +1171,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1644,7 +1653,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1654,7 +1663,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1665,7 +1674,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1675,7 +1684,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1761,40 +1770,32 @@
   <si>
     <t>Schemelli Chorales (2-voice)</t>
   </si>
+  <si>
+    <t>Missing figures since m. 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="# ###/###"/>
-    <numFmt numFmtId="60" formatCode="mmm d, yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#\ ###/###"/>
+    <numFmt numFmtId="165" formatCode="mmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="15"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -1810,13 +1811,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Helvetica Neue"/>
@@ -1827,8 +1828,8 @@
       <name val="Times"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -2203,213 +2204,213 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="68">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2420,26 +2421,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ff1cb000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF1CB000"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -2638,7 +2698,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2657,7 +2717,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2687,7 +2747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2713,7 +2773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2739,7 +2799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2765,7 +2825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2791,7 +2851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2817,7 +2877,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2843,7 +2903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2869,7 +2929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2895,7 +2955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2908,9 +2968,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2927,7 +2993,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2946,7 +3012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2972,7 +3038,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2998,7 +3064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3024,7 +3090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3050,7 +3116,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3076,7 +3142,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3102,7 +3168,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3128,7 +3194,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3154,7 +3220,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3180,7 +3246,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3193,9 +3259,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3209,7 +3281,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3228,7 +3300,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3258,7 +3330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3284,7 +3356,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3310,7 +3382,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3336,7 +3408,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3362,7 +3434,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3388,7 +3460,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3414,7 +3486,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3440,7 +3512,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3466,7 +3538,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3479,3181 +3551,3192 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:IV165"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.0625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4766" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.0391" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38" style="1" customWidth="1"/>
+    <col min="8" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.9" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="26.85" customHeight="1">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s" s="10">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="32.35" customHeight="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A4" s="5">
         <v>3.06</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="6">
         <v>0.506493506493506</v>
       </c>
-      <c r="C4" t="s" s="13">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="14">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="15">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s" s="15">
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" s="11">
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A5" s="5">
         <v>5.07</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>304</v>
       </c>
-      <c r="C5" t="s" s="18">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s" s="19">
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s" s="20">
+      <c r="E5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s" s="20">
+      <c r="F5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" s="11">
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A6" s="5">
         <v>6.06</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="11">
         <v>72</v>
       </c>
-      <c r="C6" t="s" s="18">
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s" s="19">
+      <c r="D6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s" s="20">
+      <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s" s="20">
+      <c r="F6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" s="11">
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A7" s="5">
         <v>8.06</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="11">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="18">
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s" s="19">
+      <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="20">
+      <c r="E7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s" s="20">
+      <c r="F7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" ht="32.05" customHeight="1">
-      <c r="A8" s="11">
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A8" s="5">
         <v>9.07</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="11">
         <v>290</v>
       </c>
-      <c r="C8" t="s" s="18">
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s" s="22">
+      <c r="D8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s" s="20">
+      <c r="E8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s" s="20">
+      <c r="F8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" s="11">
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A9" s="5">
         <v>10.07</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="11">
         <v>358</v>
       </c>
-      <c r="C9" t="s" s="18">
+      <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s" s="19">
+      <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s" s="20">
+      <c r="E9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s" s="20">
+      <c r="F9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s" s="23">
+      <c r="G9" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" ht="32.05" customHeight="1">
-      <c r="A10" s="11">
+    <row r="10" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A10" s="5">
         <v>11.06</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <v>343</v>
       </c>
-      <c r="C10" t="s" s="18">
+      <c r="C10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s" s="20">
+      <c r="E10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s" s="20">
+      <c r="F10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" s="11">
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A11" s="5">
         <v>13.06</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="11">
         <v>103</v>
       </c>
-      <c r="C11" t="s" s="18">
+      <c r="C11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s" s="19">
+      <c r="D11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s" s="20">
+      <c r="E11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s" s="20">
+      <c r="F11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" ht="32.05" customHeight="1">
-      <c r="A12" s="11">
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A12" s="5">
         <v>14.05</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="11">
         <v>182</v>
       </c>
-      <c r="C12" t="s" s="18">
+      <c r="C12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s" s="19">
+      <c r="D12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s" s="20">
+      <c r="E12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s" s="20">
+      <c r="F12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" ht="32.05" customHeight="1">
-      <c r="A13" s="11">
-        <v>16.06</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A13" s="5">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="B13" s="11">
         <v>99</v>
       </c>
-      <c r="C13" t="s" s="18">
+      <c r="C13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s" s="19">
+      <c r="D13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s" s="20">
+      <c r="E13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s" s="20">
+      <c r="F13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G13" t="s" s="23">
+      <c r="G13" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" ht="32.05" customHeight="1">
-      <c r="A14" s="11">
+    <row r="14" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A14" s="5">
         <v>19.07</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="11">
         <v>298</v>
       </c>
-      <c r="C14" t="s" s="18">
+      <c r="C14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s" s="19">
+      <c r="D14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s" s="20">
+      <c r="E14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F14" t="s" s="20">
+      <c r="F14" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G14" t="s" s="23">
+      <c r="G14" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" ht="32.05" customHeight="1">
-      <c r="A15" s="24">
+    <row r="15" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A15" s="18">
         <v>20.07</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="11">
         <v>26</v>
       </c>
-      <c r="C15" t="s" s="18">
+      <c r="C15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s" s="22">
+      <c r="D15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s" s="20">
+      <c r="E15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s" s="20">
+      <c r="F15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" s="24">
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A16" s="18">
         <v>20.11</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="11">
         <v>26</v>
       </c>
-      <c r="C16" t="s" s="18">
+      <c r="C16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s" s="22">
+      <c r="D16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" t="s" s="20">
+      <c r="E16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F16" t="s" s="20">
+      <c r="F16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" ht="32.05" customHeight="1">
-      <c r="A17" s="24">
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A17" s="18">
         <v>24.06</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="11">
         <v>337</v>
       </c>
-      <c r="C17" t="s" s="18">
+      <c r="C17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D17" t="s" s="22">
+      <c r="D17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E17" t="s" s="20">
+      <c r="E17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F17" t="s" s="20">
+      <c r="F17" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G17" t="s" s="23">
+      <c r="G17" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" ht="32.35" customHeight="1">
-      <c r="A18" s="11">
+    <row r="18" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A18" s="5">
         <v>26.06</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="11">
         <v>48</v>
       </c>
-      <c r="C18" t="s" s="18">
+      <c r="C18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D18" t="s" s="22">
+      <c r="D18" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E18" t="s" s="20">
+      <c r="E18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F18" t="s" s="20">
+      <c r="F18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" s="11">
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A19" s="5">
         <v>29.08</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="11">
         <v>116</v>
       </c>
-      <c r="C19" t="s" s="18">
+      <c r="C19" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D19" t="s" s="22">
+      <c r="D19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E19" t="s" s="20">
+      <c r="E19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F19" t="s" s="20">
+      <c r="F19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G19" t="s" s="23">
+      <c r="G19" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" s="11">
+    <row r="20" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A20" s="5">
         <v>30.06</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="11">
         <v>76</v>
       </c>
-      <c r="C20" t="s" s="18">
+      <c r="C20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D20" t="s" s="22">
+      <c r="D20" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E20" t="s" s="20">
+      <c r="E20" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F20" t="s" s="20">
+      <c r="F20" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" ht="44.05" customHeight="1">
-      <c r="A21" s="11">
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A21" s="5">
         <v>33.06</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="11">
         <v>13</v>
       </c>
-      <c r="C21" t="s" s="18">
+      <c r="C21" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s" s="22">
+      <c r="D21" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E21" t="s" s="20">
+      <c r="E21" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F21" t="s" s="20">
+      <c r="F21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" s="11">
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A22" s="5">
         <v>36.04</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="11">
         <v>86</v>
       </c>
-      <c r="C22" t="s" s="18">
+      <c r="C22" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D22" t="s" s="22">
+      <c r="D22" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E22" t="s" s="20">
+      <c r="E22" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F22" t="s" s="20">
+      <c r="F22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" ht="32.05" customHeight="1">
-      <c r="A23" s="11">
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A23" s="5">
         <v>36.08</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="11">
         <v>28</v>
       </c>
-      <c r="C23" t="s" s="18">
+      <c r="C23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D23" t="s" s="22">
+      <c r="D23" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E23" t="s" s="20">
+      <c r="E23" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F23" t="s" s="20">
+      <c r="F23" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" ht="32.05" customHeight="1">
-      <c r="A24" s="11">
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A24" s="5">
         <v>37.06</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="11">
         <v>341</v>
       </c>
-      <c r="C24" t="s" s="18">
+      <c r="C24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D24" t="s" s="19">
+      <c r="D24" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E24" t="s" s="20">
+      <c r="E24" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F24" t="s" s="20">
+      <c r="F24" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" ht="32.05" customHeight="1">
-      <c r="A25" s="11">
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A25" s="5">
         <v>38.06</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="11">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="18">
+      <c r="C25" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D25" t="s" s="22">
+      <c r="D25" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E25" t="s" s="20">
+      <c r="E25" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F25" t="s" s="20">
+      <c r="F25" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G25" t="s" s="23">
+      <c r="G25" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" ht="32.05" customHeight="1">
-      <c r="A26" s="11">
+    <row r="26" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A26" s="5">
         <v>40.03</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="11">
         <v>321</v>
       </c>
-      <c r="C26" t="s" s="18">
+      <c r="C26" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D26" t="s" s="22">
+      <c r="D26" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E26" t="s" s="20">
+      <c r="E26" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F26" t="s" s="20">
+      <c r="F26" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" ht="32.05" customHeight="1">
-      <c r="A27" s="11">
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A27" s="5">
         <v>40.06</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="11">
         <v>142</v>
       </c>
-      <c r="C27" t="s" s="18">
+      <c r="C27" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D27" t="s" s="22">
+      <c r="D27" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E27" t="s" s="20">
+      <c r="E27" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F27" t="s" s="20">
+      <c r="F27" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" ht="32.05" customHeight="1">
-      <c r="A28" s="11">
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A28" s="5">
         <v>42.07</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="11">
         <v>91</v>
       </c>
-      <c r="C28" t="s" s="18">
+      <c r="C28" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D28" t="s" s="22">
+      <c r="D28" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E28" t="s" s="20">
+      <c r="E28" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F28" t="s" s="20">
+      <c r="F28" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" ht="32.05" customHeight="1">
-      <c r="A29" s="11">
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A29" s="5">
         <v>43.11</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="11">
         <v>102</v>
       </c>
-      <c r="C29" t="s" s="18">
+      <c r="C29" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D29" t="s" s="22">
+      <c r="D29" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E29" t="s" s="20">
+      <c r="E29" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F29" t="s" s="20">
+      <c r="F29" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" ht="44.05" customHeight="1">
-      <c r="A30" s="11">
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A30" s="5">
         <v>47.05</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="11">
         <v>94</v>
       </c>
-      <c r="C30" t="s" s="18">
+      <c r="C30" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D30" t="s" s="22">
+      <c r="D30" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E30" t="s" s="20">
+      <c r="E30" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F30" t="s" s="20">
+      <c r="F30" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" ht="32.05" customHeight="1">
-      <c r="A31" s="11">
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A31" s="5">
         <v>48.07</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="11">
         <v>266</v>
       </c>
-      <c r="C31" t="s" s="18">
+      <c r="C31" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D31" t="s" s="22">
+      <c r="D31" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E31" t="s" s="20">
+      <c r="E31" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F31" t="s" s="20">
+      <c r="F31" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G31" t="s" s="23">
+      <c r="G31" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" ht="56.05" customHeight="1">
-      <c r="A32" s="11">
+    <row r="32" spans="1:7" ht="56.1" customHeight="1">
+      <c r="A32" s="5">
         <v>57.08</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="11">
         <v>90</v>
       </c>
-      <c r="C32" t="s" s="18">
+      <c r="C32" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D32" t="s" s="19">
+      <c r="D32" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E32" t="s" s="20">
+      <c r="E32" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F32" t="s" s="20">
+      <c r="F32" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" ht="32.05" customHeight="1">
-      <c r="A33" s="11">
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A33" s="5">
         <v>62.06</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="11">
         <v>170</v>
       </c>
-      <c r="C33" t="s" s="18">
+      <c r="C33" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D33" t="s" s="22">
+      <c r="D33" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E33" t="s" s="20">
+      <c r="E33" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F33" t="s" s="20">
+      <c r="F33" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" ht="44.05" customHeight="1">
-      <c r="A34" s="11">
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A34" s="5">
         <v>64.08</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="11">
         <v>138</v>
       </c>
-      <c r="C34" t="s" s="18">
+      <c r="C34" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D34" t="s" s="22">
+      <c r="D34" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E34" t="s" s="20">
+      <c r="E34" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F34" t="s" s="20">
+      <c r="F34" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G34" t="s" s="23">
+      <c r="G34" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" ht="32.05" customHeight="1">
-      <c r="A35" s="11">
-        <v>67.06999999999999</v>
-      </c>
-      <c r="B35" s="17">
+    <row r="35" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A35" s="5">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="B35" s="11">
         <v>42</v>
       </c>
-      <c r="C35" t="s" s="18">
+      <c r="C35" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D35" t="s" s="22">
+      <c r="D35" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E35" t="s" s="20">
+      <c r="E35" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F35" t="s" s="20">
+      <c r="F35" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" ht="32.05" customHeight="1">
-      <c r="A36" s="11">
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A36" s="5">
         <v>73.05</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="11">
         <v>191</v>
       </c>
-      <c r="C36" t="s" s="18">
+      <c r="C36" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D36" t="s" s="22">
+      <c r="D36" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E36" t="s" s="20">
+      <c r="E36" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F36" t="s" s="20">
+      <c r="F36" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" ht="32.05" customHeight="1">
-      <c r="A37" s="11">
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A37" s="5">
         <v>74.08</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="11">
         <v>370</v>
       </c>
-      <c r="C37" t="s" s="18">
+      <c r="C37" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D37" t="s" s="22">
+      <c r="D37" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E37" t="s" s="20">
+      <c r="E37" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F37" t="s" s="20">
+      <c r="F37" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" ht="32.05" customHeight="1">
-      <c r="A38" s="11">
-        <v>78.06999999999999</v>
-      </c>
-      <c r="B38" s="17">
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A38" s="5">
+        <v>78.069999999999993</v>
+      </c>
+      <c r="B38" s="11">
         <v>297</v>
       </c>
-      <c r="C38" t="s" s="18">
+      <c r="C38" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D38" t="s" s="22">
+      <c r="D38" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E38" t="s" s="20">
+      <c r="E38" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F38" t="s" s="20">
+      <c r="F38" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G38" t="s" s="23">
+      <c r="G38" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" ht="32.05" customHeight="1">
-      <c r="A39" s="11">
-        <v>81.06999999999999</v>
-      </c>
-      <c r="B39" s="17">
+    <row r="39" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A39" s="5">
+        <v>81.069999999999993</v>
+      </c>
+      <c r="B39" s="11">
         <v>324</v>
       </c>
-      <c r="C39" t="s" s="18">
+      <c r="C39" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D39" t="s" s="22">
+      <c r="D39" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E39" t="s" s="20">
+      <c r="E39" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F39" t="s" s="20">
+      <c r="F39" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" ht="32.05" customHeight="1">
-      <c r="A40" s="11">
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A40" s="5">
         <v>83.05</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="11">
         <v>325</v>
       </c>
-      <c r="C40" t="s" s="18">
+      <c r="C40" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D40" t="s" s="22">
+      <c r="D40" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E40" t="s" s="20">
+      <c r="E40" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F40" t="s" s="20">
+      <c r="F40" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="21"/>
-    </row>
-    <row r="41" ht="32.05" customHeight="1">
-      <c r="A41" s="11">
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A41" s="5">
         <v>89.06</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="11">
         <v>281</v>
       </c>
-      <c r="C41" t="s" s="18">
+      <c r="C41" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D41" t="s" s="22">
+      <c r="D41" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E41" t="s" s="20">
+      <c r="E41" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F41" t="s" s="20">
+      <c r="F41" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" ht="32.05" customHeight="1">
-      <c r="A42" s="11">
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A42" s="5">
         <v>91.06</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="11">
         <v>51</v>
       </c>
-      <c r="C42" t="s" s="18">
+      <c r="C42" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D42" t="s" s="22">
+      <c r="D42" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E42" t="s" s="20">
+      <c r="E42" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="F42" t="s" s="20">
+      <c r="F42" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G42" t="s" s="23">
+      <c r="G42" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" ht="32.05" customHeight="1">
-      <c r="A43" s="11">
+    <row r="43" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A43" s="5">
         <v>94.08</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="11">
         <v>291</v>
       </c>
-      <c r="C43" t="s" s="18">
+      <c r="C43" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D43" t="s" s="22">
+      <c r="D43" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E43" t="s" s="20">
+      <c r="E43" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F43" t="s" s="20">
+      <c r="F43" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="21"/>
-    </row>
-    <row r="44" ht="32.05" customHeight="1">
-      <c r="A44" s="11">
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A44" s="5">
         <v>96.06</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="11">
         <v>303</v>
       </c>
-      <c r="C44" t="s" s="18">
+      <c r="C44" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D44" t="s" s="19">
+      <c r="D44" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E44" t="s" s="20">
+      <c r="E44" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F44" t="s" s="20">
+      <c r="F44" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="G44" s="21"/>
-    </row>
-    <row r="45" ht="32.05" customHeight="1">
-      <c r="A45" s="11">
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A45" s="5">
         <v>102.07</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="11">
         <v>110</v>
       </c>
-      <c r="C45" t="s" s="18">
+      <c r="C45" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D45" t="s" s="22">
+      <c r="D45" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E45" t="s" s="20">
+      <c r="E45" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F45" t="s" s="20">
+      <c r="F45" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" ht="32.05" customHeight="1">
-      <c r="A46" s="11">
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A46" s="5">
         <v>104.06</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="11">
         <v>326</v>
       </c>
-      <c r="C46" t="s" s="18">
+      <c r="C46" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D46" t="s" s="22">
+      <c r="D46" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E46" t="s" s="20">
+      <c r="E46" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F46" t="s" s="20">
+      <c r="F46" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G46" s="21"/>
-    </row>
-    <row r="47" ht="44.05" customHeight="1">
-      <c r="A47" s="11">
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A47" s="5">
         <v>108.06</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="11">
         <v>45</v>
       </c>
-      <c r="C47" t="s" s="18">
+      <c r="C47" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D47" t="s" s="22">
+      <c r="D47" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E47" t="s" s="20">
+      <c r="E47" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F47" t="s" s="20">
+      <c r="F47" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="G47" s="21"/>
-    </row>
-    <row r="48" ht="32.05" customHeight="1">
-      <c r="A48" s="11">
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A48" s="5">
         <v>112.05</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="11">
         <v>313</v>
       </c>
-      <c r="C48" t="s" s="18">
+      <c r="C48" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D48" t="s" s="22">
+      <c r="D48" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E48" t="s" s="20">
+      <c r="E48" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F48" t="s" s="20">
+      <c r="F48" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G48" t="s" s="23">
+      <c r="G48" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="49" ht="44.05" customHeight="1">
-      <c r="A49" s="11">
+    <row r="49" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A49" s="5">
         <v>113.08</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="11">
         <v>294</v>
       </c>
-      <c r="C49" t="s" s="18">
+      <c r="C49" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D49" t="s" s="22">
+      <c r="D49" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E49" t="s" s="20">
+      <c r="E49" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="F49" t="s" s="20">
+      <c r="F49" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" ht="32.05" customHeight="1">
-      <c r="A50" s="11">
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A50" s="5">
         <v>114.07</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="11">
         <v>301</v>
       </c>
-      <c r="C50" t="s" s="18">
+      <c r="C50" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D50" t="s" s="22">
+      <c r="D50" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E50" t="s" s="20">
+      <c r="E50" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F50" t="s" s="20">
+      <c r="F50" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="G50" s="21"/>
-    </row>
-    <row r="51" ht="32.05" customHeight="1">
-      <c r="A51" s="11">
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A51" s="5">
         <v>115.06</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="11">
         <v>38</v>
       </c>
-      <c r="C51" t="s" s="18">
+      <c r="C51" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D51" t="s" s="22">
+      <c r="D51" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E51" t="s" s="20">
+      <c r="E51" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F51" t="s" s="20">
+      <c r="F51" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G51" s="21"/>
-    </row>
-    <row r="52" ht="32.05" customHeight="1">
-      <c r="A52" s="11">
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A52" s="5">
         <v>117.04</v>
       </c>
-      <c r="B52" t="s" s="25">
+      <c r="B52" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C52" t="s" s="26">
+      <c r="C52" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="D52" t="s" s="22">
+      <c r="D52" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E52" t="s" s="20">
+      <c r="E52" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F52" t="s" s="26">
+      <c r="F52" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="G52" t="s" s="23">
+      <c r="G52" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" ht="32.05" customHeight="1">
-      <c r="A53" s="11">
+    <row r="53" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A53" s="5">
         <v>117.09</v>
       </c>
-      <c r="B53" t="s" s="25">
+      <c r="B53" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C53" t="s" s="18">
+      <c r="C53" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D53" t="s" s="22">
+      <c r="D53" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E53" t="s" s="20">
+      <c r="E53" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F53" t="s" s="20">
+      <c r="F53" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="G53" t="s" s="23">
+      <c r="G53" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" ht="32.05" customHeight="1">
-      <c r="A54" s="11">
+    <row r="54" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A54" s="5">
         <v>121.06</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="11">
         <v>56</v>
       </c>
-      <c r="C54" t="s" s="18">
+      <c r="C54" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D54" t="s" s="19">
+      <c r="D54" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E54" t="s" s="20">
+      <c r="E54" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F54" t="s" s="20">
+      <c r="F54" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G54" s="21"/>
-    </row>
-    <row r="55" ht="32.05" customHeight="1">
-      <c r="A55" s="11">
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A55" s="5">
         <v>126.06</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="11">
         <v>215</v>
       </c>
-      <c r="C55" t="s" s="18">
+      <c r="C55" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D55" t="s" s="19">
+      <c r="D55" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E55" t="s" s="20">
+      <c r="E55" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F55" t="s" s="20">
+      <c r="F55" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G55" s="21"/>
-    </row>
-    <row r="56" ht="32.05" customHeight="1">
-      <c r="A56" s="11">
+      <c r="G55" s="15"/>
+    </row>
+    <row r="56" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A56" s="5">
         <v>133.06</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="11">
         <v>60</v>
       </c>
-      <c r="C56" t="s" s="18">
+      <c r="C56" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D56" t="s" s="22">
+      <c r="D56" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E56" t="s" s="20">
+      <c r="E56" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="F56" t="s" s="20">
+      <c r="F56" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="G56" s="21"/>
-    </row>
-    <row r="57" ht="32.05" customHeight="1">
-      <c r="A57" s="11">
+      <c r="G56" s="15"/>
+    </row>
+    <row r="57" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A57" s="5">
         <v>136.06</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="11">
         <v>331</v>
       </c>
-      <c r="C57" t="s" s="18">
+      <c r="C57" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D57" t="s" s="22">
+      <c r="D57" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E57" t="s" s="20">
+      <c r="E57" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="F57" t="s" s="20">
+      <c r="F57" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="G57" t="s" s="23">
+      <c r="G57" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" ht="32.05" customHeight="1">
-      <c r="A58" s="11">
+    <row r="58" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A58" s="5">
         <v>140.07</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="11">
         <v>179</v>
       </c>
-      <c r="C58" t="s" s="18">
+      <c r="C58" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D58" t="s" s="19">
+      <c r="D58" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="E58" t="s" s="20">
+      <c r="E58" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="F58" t="s" s="20">
+      <c r="F58" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G58" s="21"/>
-    </row>
-    <row r="59" ht="32.05" customHeight="1">
-      <c r="A59" s="11">
-        <v>145.05</v>
-      </c>
-      <c r="B59" s="17">
+      <c r="G58" s="15"/>
+    </row>
+    <row r="59" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A59" s="5">
+        <v>145.05000000000001</v>
+      </c>
+      <c r="B59" s="11">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="18">
+      <c r="C59" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D59" t="s" s="22">
+      <c r="D59" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="E59" t="s" s="20">
+      <c r="E59" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F59" t="s" s="20">
+      <c r="F59" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="G59" s="21"/>
-    </row>
-    <row r="60" ht="32.05" customHeight="1">
-      <c r="A60" s="11">
+      <c r="G59" s="15"/>
+    </row>
+    <row r="60" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A60" s="5">
         <v>153.01</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="11">
         <v>3</v>
       </c>
-      <c r="C60" t="s" s="18">
+      <c r="C60" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D60" t="s" s="22">
+      <c r="D60" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E60" t="s" s="20">
+      <c r="E60" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F60" t="s" s="20">
+      <c r="F60" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="G60" s="21"/>
-    </row>
-    <row r="61" ht="32.05" customHeight="1">
-      <c r="A61" s="11">
-        <v>153.05</v>
-      </c>
-      <c r="B61" s="17">
+      <c r="G60" s="15"/>
+    </row>
+    <row r="61" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A61" s="5">
+        <v>153.05000000000001</v>
+      </c>
+      <c r="B61" s="11">
         <v>21</v>
       </c>
-      <c r="C61" t="s" s="18">
+      <c r="C61" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D61" t="s" s="22">
+      <c r="D61" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E61" t="s" s="20">
+      <c r="E61" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F61" t="s" s="20">
+      <c r="F61" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="G61" s="21"/>
-    </row>
-    <row r="62" ht="32.05" customHeight="1">
-      <c r="A62" s="11">
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A62" s="5">
         <v>153.09</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="11">
         <v>217</v>
       </c>
-      <c r="C62" t="s" s="18">
+      <c r="C62" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D62" t="s" s="22">
+      <c r="D62" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E62" t="s" s="20">
+      <c r="E62" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="F62" t="s" s="20">
+      <c r="F62" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="G62" s="21"/>
-    </row>
-    <row r="63" ht="32.05" customHeight="1">
-      <c r="A63" s="11">
+      <c r="G62" s="15"/>
+    </row>
+    <row r="63" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A63" s="5">
         <v>154.03</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="11">
         <v>233</v>
       </c>
-      <c r="C63" t="s" s="18">
+      <c r="C63" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D63" t="s" s="22">
+      <c r="D63" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="E63" t="s" s="20">
+      <c r="E63" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F63" t="s" s="20">
+      <c r="F63" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="G63" s="21"/>
-    </row>
-    <row r="64" ht="32.05" customHeight="1">
-      <c r="A64" s="11">
-        <v>159.05</v>
-      </c>
-      <c r="B64" s="17">
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A64" s="5">
+        <v>159.05000000000001</v>
+      </c>
+      <c r="B64" s="11">
         <v>61</v>
       </c>
-      <c r="C64" t="s" s="18">
+      <c r="C64" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D64" t="s" s="22">
+      <c r="D64" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E64" t="s" s="20">
+      <c r="E64" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="F64" t="s" s="20">
+      <c r="F64" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="G64" s="21"/>
-    </row>
-    <row r="65" ht="44.05" customHeight="1">
-      <c r="A65" s="11">
+      <c r="G64" s="15"/>
+    </row>
+    <row r="65" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A65" s="5">
         <v>161.06</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="11">
         <v>270</v>
       </c>
-      <c r="C65" t="s" s="18">
+      <c r="C65" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D65" t="s" s="19">
+      <c r="D65" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E65" t="s" s="20">
+      <c r="E65" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F65" t="s" s="20">
+      <c r="F65" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="G65" t="s" s="23">
+      <c r="G65" s="17" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="66" ht="44.05" customHeight="1">
-      <c r="A66" s="11">
+    <row r="66" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A66" s="5">
         <v>168.06</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="11">
         <v>92</v>
       </c>
-      <c r="C66" t="s" s="18">
+      <c r="C66" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D66" t="s" s="22">
+      <c r="D66" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="E66" t="s" s="20">
+      <c r="E66" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="F66" t="s" s="20">
+      <c r="F66" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="G66" s="21"/>
-    </row>
-    <row r="67" ht="44.05" customHeight="1">
-      <c r="A67" s="11">
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A67" s="5">
         <v>172.06</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="11">
         <v>323</v>
       </c>
-      <c r="C67" t="s" s="18">
+      <c r="C67" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D67" t="s" s="19">
+      <c r="D67" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E67" t="s" s="20">
+      <c r="E67" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="F67" t="s" s="20">
+      <c r="F67" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G67" t="s" s="23">
+      <c r="G67" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" ht="32.05" customHeight="1">
-      <c r="A68" s="11">
+    <row r="68" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A68" s="5">
         <v>174.05</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="11">
         <v>58</v>
       </c>
-      <c r="C68" t="s" s="18">
+      <c r="C68" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D68" t="s" s="22">
+      <c r="D68" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E68" t="s" s="20">
+      <c r="E68" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="F68" t="s" s="20">
+      <c r="F68" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="G68" s="21"/>
-    </row>
-    <row r="69" ht="32.05" customHeight="1">
-      <c r="A69" s="11">
+      <c r="G68" s="15"/>
+    </row>
+    <row r="69" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A69" s="5">
         <v>176.06</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="11">
         <v>119</v>
       </c>
-      <c r="C69" t="s" s="18">
+      <c r="C69" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D69" t="s" s="22">
+      <c r="D69" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E69" t="s" s="20">
+      <c r="E69" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="F69" t="s" s="20">
+      <c r="F69" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G69" s="21"/>
-    </row>
-    <row r="70" ht="32.05" customHeight="1">
-      <c r="A70" s="11">
+      <c r="G69" s="15"/>
+    </row>
+    <row r="70" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A70" s="5">
         <v>177.05</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="11">
         <v>71</v>
       </c>
-      <c r="C70" t="s" s="18">
+      <c r="C70" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D70" t="s" s="22">
+      <c r="D70" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="E70" t="s" s="20">
+      <c r="E70" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="F70" t="s" s="20">
+      <c r="F70" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="G70" t="s" s="23">
+      <c r="G70" s="17" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="71" ht="32.05" customHeight="1">
-      <c r="A71" s="11">
+    <row r="71" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A71" s="5">
         <v>187.07</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="11">
         <v>109</v>
       </c>
-      <c r="C71" t="s" s="18">
+      <c r="C71" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D71" t="s" s="22">
+      <c r="D71" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="E71" t="s" s="20">
+      <c r="E71" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F71" t="s" s="20">
+      <c r="F71" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="G71" s="21"/>
-    </row>
-    <row r="72" ht="32.05" customHeight="1">
-      <c r="A72" s="11">
+      <c r="G71" s="15"/>
+    </row>
+    <row r="72" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A72" s="5">
         <v>194.06</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="11">
         <v>256</v>
       </c>
-      <c r="C72" t="s" s="18">
+      <c r="C72" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D72" t="s" s="22">
+      <c r="D72" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E72" t="s" s="20">
+      <c r="E72" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="F72" t="s" s="20">
+      <c r="F72" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="G72" t="s" s="23">
+      <c r="G72" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" ht="44.05" customHeight="1">
-      <c r="A73" s="11">
+    <row r="73" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A73" s="5">
         <v>244.03</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="11">
         <v>78</v>
       </c>
-      <c r="C73" t="s" s="18">
+      <c r="C73" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D73" t="s" s="19">
+      <c r="D73" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E73" t="s" s="20">
+      <c r="E73" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="F73" t="s" s="20">
+      <c r="F73" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="G73" s="21"/>
-    </row>
-    <row r="74" ht="32.05" customHeight="1">
-      <c r="A74" s="11">
+      <c r="G73" s="15"/>
+    </row>
+    <row r="74" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A74" s="5">
         <v>244.1</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B74" s="11">
         <v>117</v>
       </c>
-      <c r="C74" t="s" s="18">
+      <c r="C74" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D74" t="s" s="19">
+      <c r="D74" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E74" t="s" s="20">
+      <c r="E74" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="F74" t="s" s="20">
+      <c r="F74" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="G74" s="21"/>
-    </row>
-    <row r="75" ht="32.05" customHeight="1">
-      <c r="A75" s="11">
+      <c r="G74" s="15"/>
+    </row>
+    <row r="75" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A75" s="5">
         <v>244.15</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B75" s="11">
         <v>98</v>
       </c>
-      <c r="C75" t="s" s="18">
+      <c r="C75" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D75" t="s" s="19">
+      <c r="D75" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E75" t="s" s="20">
+      <c r="E75" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="F75" t="s" s="20">
+      <c r="F75" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="G75" s="21"/>
-    </row>
-    <row r="76" ht="32.05" customHeight="1">
-      <c r="A76" s="11">
+      <c r="G75" s="15"/>
+    </row>
+    <row r="76" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A76" s="5">
         <v>244.25</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="11">
         <v>115</v>
       </c>
-      <c r="C76" t="s" s="18">
+      <c r="C76" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D76" t="s" s="19">
+      <c r="D76" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E76" t="s" s="20">
+      <c r="E76" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F76" t="s" s="20">
+      <c r="F76" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="G76" s="21"/>
-    </row>
-    <row r="77" ht="32.05" customHeight="1">
-      <c r="A77" s="11">
+      <c r="G76" s="15"/>
+    </row>
+    <row r="77" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A77" s="5">
         <v>244.32</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="11">
         <v>118</v>
       </c>
-      <c r="C77" t="s" s="18">
+      <c r="C77" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D77" t="s" s="19">
+      <c r="D77" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E77" t="s" s="20">
+      <c r="E77" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F77" t="s" s="20">
+      <c r="F77" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="G77" s="21"/>
-    </row>
-    <row r="78" ht="32.05" customHeight="1">
-      <c r="A78" s="11">
+      <c r="G77" s="15"/>
+    </row>
+    <row r="78" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A78" s="5">
         <v>244.37</v>
       </c>
-      <c r="B78" s="17">
+      <c r="B78" s="11">
         <v>50</v>
       </c>
-      <c r="C78" t="s" s="18">
+      <c r="C78" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D78" t="s" s="19">
+      <c r="D78" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E78" t="s" s="20">
+      <c r="E78" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F78" t="s" s="20">
+      <c r="F78" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="G78" s="21"/>
-    </row>
-    <row r="79" ht="32.05" customHeight="1">
-      <c r="A79" s="11">
+      <c r="G78" s="15"/>
+    </row>
+    <row r="79" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A79" s="5">
         <v>244.4</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="11">
         <v>121</v>
       </c>
-      <c r="C79" t="s" s="18">
+      <c r="C79" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D79" t="s" s="19">
+      <c r="D79" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E79" t="s" s="20">
+      <c r="E79" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F79" t="s" s="20">
+      <c r="F79" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="G79" s="21"/>
-    </row>
-    <row r="80" ht="32.05" customHeight="1">
-      <c r="A80" s="11">
+      <c r="G79" s="15"/>
+    </row>
+    <row r="80" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A80" s="5">
         <v>244.44</v>
       </c>
-      <c r="B80" s="17">
+      <c r="B80" s="11">
         <v>80</v>
       </c>
-      <c r="C80" t="s" s="18">
+      <c r="C80" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D80" t="s" s="19">
+      <c r="D80" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E80" t="s" s="20">
+      <c r="E80" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F80" t="s" s="20">
+      <c r="F80" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="G80" s="21"/>
-    </row>
-    <row r="81" ht="44.05" customHeight="1">
-      <c r="A81" s="11">
+      <c r="G80" s="15"/>
+    </row>
+    <row r="81" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A81" s="5">
         <v>244.46</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="11">
         <v>105</v>
       </c>
-      <c r="C81" t="s" s="18">
+      <c r="C81" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D81" t="s" s="19">
+      <c r="D81" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E81" t="s" s="20">
+      <c r="E81" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F81" t="s" s="20">
+      <c r="F81" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="G81" s="21"/>
-    </row>
-    <row r="82" ht="32.05" customHeight="1">
-      <c r="A82" s="11">
+      <c r="G81" s="15"/>
+    </row>
+    <row r="82" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A82" s="5">
         <v>244.54</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B82" s="11">
         <v>74</v>
       </c>
-      <c r="C82" t="s" s="18">
+      <c r="C82" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D82" t="s" s="19">
+      <c r="D82" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E82" t="s" s="20">
+      <c r="E82" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="F82" t="s" s="20">
+      <c r="F82" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="G82" s="21"/>
-    </row>
-    <row r="83" ht="32.05" customHeight="1">
-      <c r="A83" s="11">
+      <c r="G82" s="15"/>
+    </row>
+    <row r="83" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A83" s="5">
         <v>244.62</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B83" s="11">
         <v>89</v>
       </c>
-      <c r="C83" t="s" s="18">
+      <c r="C83" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D83" t="s" s="19">
+      <c r="D83" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E83" t="s" s="20">
+      <c r="E83" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F83" t="s" s="20">
+      <c r="F83" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="G83" s="21"/>
-    </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" s="11">
+      <c r="G83" s="15"/>
+    </row>
+    <row r="84" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="5">
         <v>245.03</v>
       </c>
-      <c r="B84" s="17">
+      <c r="B84" s="11">
         <v>59</v>
       </c>
-      <c r="C84" t="s" s="18">
+      <c r="C84" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D84" t="s" s="22">
+      <c r="D84" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E84" t="s" s="20">
+      <c r="E84" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F84" t="s" s="20">
+      <c r="F84" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="G84" s="21"/>
-    </row>
-    <row r="85" ht="32.05" customHeight="1">
-      <c r="A85" s="11">
+      <c r="G84" s="15"/>
+    </row>
+    <row r="85" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A85" s="5">
         <v>245.11</v>
       </c>
-      <c r="B85" s="17">
+      <c r="B85" s="11">
         <v>63</v>
       </c>
-      <c r="C85" t="s" s="18">
+      <c r="C85" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D85" t="s" s="22">
+      <c r="D85" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E85" t="s" s="20">
+      <c r="E85" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F85" t="s" s="20">
+      <c r="F85" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="G85" s="21"/>
-    </row>
-    <row r="86" ht="41" customHeight="1">
-      <c r="A86" s="11">
+      <c r="G85" s="15"/>
+    </row>
+    <row r="86" spans="1:7" ht="41.1" customHeight="1">
+      <c r="A86" s="5">
         <v>245.14</v>
       </c>
-      <c r="B86" s="17">
+      <c r="B86" s="11">
         <v>83</v>
       </c>
-      <c r="C86" t="s" s="18">
+      <c r="C86" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D86" t="s" s="22">
+      <c r="D86" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E86" t="s" s="20">
+      <c r="E86" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="F86" t="s" s="20">
+      <c r="F86" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="G86" t="s" s="23">
+      <c r="G86" s="17" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="87" ht="32.05" customHeight="1">
-      <c r="A87" s="11">
+    <row r="87" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A87" s="5">
         <v>245.15</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B87" s="11">
         <v>81</v>
       </c>
-      <c r="C87" t="s" s="18">
+      <c r="C87" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D87" t="s" s="22">
+      <c r="D87" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E87" t="s" s="20">
+      <c r="E87" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="F87" t="s" s="20">
+      <c r="F87" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="G87" s="21"/>
-    </row>
-    <row r="88" ht="32.05" customHeight="1">
-      <c r="A88" s="11">
+      <c r="G87" s="15"/>
+    </row>
+    <row r="88" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A88" s="5">
         <v>245.17</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B88" s="11">
         <v>111</v>
       </c>
-      <c r="C88" t="s" s="18">
+      <c r="C88" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D88" t="s" s="22">
+      <c r="D88" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E88" t="s" s="20">
+      <c r="E88" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="F88" t="s" s="20">
+      <c r="F88" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="G88" s="21"/>
-    </row>
-    <row r="89" ht="44.05" customHeight="1">
-      <c r="A89" s="11">
+      <c r="G88" s="15"/>
+    </row>
+    <row r="89" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A89" s="5">
         <v>245.22</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B89" s="11">
         <v>310</v>
       </c>
-      <c r="C89" t="s" s="18">
+      <c r="C89" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D89" t="s" s="22">
+      <c r="D89" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E89" t="s" s="20">
+      <c r="E89" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="F89" t="s" s="20">
+      <c r="F89" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="G89" s="21"/>
-    </row>
-    <row r="90" ht="32.05" customHeight="1">
-      <c r="A90" s="11">
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A90" s="5">
         <v>245.26</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B90" s="11">
         <v>108</v>
       </c>
-      <c r="C90" t="s" s="18">
+      <c r="C90" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D90" t="s" s="22">
+      <c r="D90" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E90" t="s" s="20">
+      <c r="E90" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="F90" t="s" s="20">
+      <c r="F90" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="G90" s="21"/>
-    </row>
-    <row r="91" ht="32.05" customHeight="1">
-      <c r="A91" s="11">
+      <c r="G90" s="15"/>
+    </row>
+    <row r="91" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A91" s="5">
         <v>245.28</v>
       </c>
-      <c r="B91" s="17">
+      <c r="B91" s="11">
         <v>106</v>
       </c>
-      <c r="C91" t="s" s="18">
+      <c r="C91" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D91" t="s" s="22">
+      <c r="D91" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E91" t="s" s="20">
+      <c r="E91" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="F91" t="s" s="20">
+      <c r="F91" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="G91" s="21"/>
-    </row>
-    <row r="92" ht="32.05" customHeight="1">
-      <c r="A92" s="11">
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A92" s="5">
         <v>245.37</v>
       </c>
-      <c r="B92" s="17">
+      <c r="B92" s="11">
         <v>113</v>
       </c>
-      <c r="C92" t="s" s="18">
+      <c r="C92" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D92" t="s" s="22">
+      <c r="D92" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E92" t="s" s="20">
+      <c r="E92" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="F92" t="s" s="20">
+      <c r="F92" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="G92" s="21"/>
-    </row>
-    <row r="93" ht="32.05" customHeight="1">
-      <c r="A93" s="11">
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A93" s="5">
         <v>245.4</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B93" s="11">
         <v>107</v>
       </c>
-      <c r="C93" t="s" s="18">
+      <c r="C93" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D93" t="s" s="22">
+      <c r="D93" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E93" t="s" s="20">
+      <c r="E93" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="F93" t="s" s="20">
+      <c r="F93" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="G93" s="21"/>
-    </row>
-    <row r="94" ht="32.05" customHeight="1">
-      <c r="A94" s="11">
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A94" s="5">
         <v>248.05</v>
       </c>
-      <c r="B94" s="17">
+      <c r="B94" s="11">
         <v>345</v>
       </c>
-      <c r="C94" t="s" s="18">
+      <c r="C94" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D94" t="s" s="19">
+      <c r="D94" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E94" t="s" s="20">
+      <c r="E94" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="F94" t="s" s="20">
+      <c r="F94" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="G94" s="21"/>
-    </row>
-    <row r="95" ht="32.05" customHeight="1">
-      <c r="A95" s="11">
+      <c r="G94" s="15"/>
+    </row>
+    <row r="95" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A95" s="5">
         <v>248.09</v>
       </c>
-      <c r="B95" s="17">
+      <c r="B95" s="11">
         <v>46</v>
       </c>
-      <c r="C95" t="s" s="18">
+      <c r="C95" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D95" t="s" s="19">
+      <c r="D95" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E95" t="s" s="20">
+      <c r="E95" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="F95" t="s" s="20">
+      <c r="F95" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="G95" t="s" s="23">
+      <c r="G95" s="17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="96" ht="32.05" customHeight="1">
-      <c r="A96" s="11">
+    <row r="96" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A96" s="5">
         <v>248.12</v>
       </c>
-      <c r="B96" s="17">
+      <c r="B96" s="11">
         <v>361</v>
       </c>
-      <c r="C96" t="s" s="18">
+      <c r="C96" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D96" t="s" s="19">
+      <c r="D96" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E96" t="s" s="20">
+      <c r="E96" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="F96" t="s" s="20">
+      <c r="F96" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="G96" s="21"/>
-    </row>
-    <row r="97" ht="32.05" customHeight="1">
-      <c r="A97" s="11">
+      <c r="G96" s="15"/>
+    </row>
+    <row r="97" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A97" s="5">
         <v>248.23</v>
       </c>
-      <c r="B97" s="17">
+      <c r="B97" s="11">
         <v>344</v>
       </c>
-      <c r="C97" t="s" s="18">
+      <c r="C97" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D97" t="s" s="19">
+      <c r="D97" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E97" t="s" s="20">
+      <c r="E97" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="F97" t="s" s="20">
+      <c r="F97" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="G97" t="s" s="23">
+      <c r="G97" s="17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="98" ht="32.05" customHeight="1">
-      <c r="A98" s="11">
+    <row r="98" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A98" s="5">
         <v>248.33</v>
       </c>
-      <c r="B98" s="17">
+      <c r="B98" s="11">
         <v>139</v>
       </c>
-      <c r="C98" t="s" s="18">
+      <c r="C98" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D98" t="s" s="19">
+      <c r="D98" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E98" t="s" s="20">
+      <c r="E98" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="F98" t="s" s="20">
+      <c r="F98" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="G98" s="21"/>
-    </row>
-    <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" s="11">
+      <c r="G98" s="15"/>
+    </row>
+    <row r="99" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A99" s="5">
         <v>248.35</v>
       </c>
-      <c r="B99" s="17">
+      <c r="B99" s="11">
         <v>360</v>
       </c>
-      <c r="C99" t="s" s="18">
+      <c r="C99" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D99" t="s" s="19">
+      <c r="D99" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E99" t="s" s="20">
+      <c r="E99" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="F99" t="s" s="20">
+      <c r="F99" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="G99" s="21"/>
-    </row>
-    <row r="100" ht="32.05" customHeight="1">
-      <c r="A100" s="11">
+      <c r="G99" s="15"/>
+    </row>
+    <row r="100" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A100" s="5">
         <v>248.42</v>
       </c>
-      <c r="B100" s="17">
+      <c r="B100" s="11">
         <v>368</v>
       </c>
-      <c r="C100" t="s" s="18">
+      <c r="C100" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D100" t="s" s="19">
+      <c r="D100" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E100" t="s" s="20">
+      <c r="E100" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F100" t="s" s="20">
+      <c r="F100" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="G100" t="s" s="23">
+      <c r="G100" s="17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="101" ht="32.05" customHeight="1">
-      <c r="A101" s="11">
+    <row r="101" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A101" s="5">
         <v>248.46</v>
       </c>
-      <c r="B101" s="17">
+      <c r="B101" s="11">
         <v>77</v>
       </c>
-      <c r="C101" t="s" s="18">
+      <c r="C101" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D101" t="s" s="19">
+      <c r="D101" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E101" t="s" s="20">
+      <c r="E101" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F101" t="s" s="20">
+      <c r="F101" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="G101" s="21"/>
-    </row>
-    <row r="102" ht="32.05" customHeight="1">
-      <c r="A102" s="11">
+      <c r="G101" s="15"/>
+    </row>
+    <row r="102" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A102" s="5">
         <v>248.53</v>
       </c>
-      <c r="B102" s="17">
+      <c r="B102" s="11">
         <v>35</v>
       </c>
-      <c r="C102" t="s" s="18">
+      <c r="C102" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D102" t="s" s="19">
+      <c r="D102" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E102" t="s" s="20">
+      <c r="E102" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="F102" t="s" s="20">
+      <c r="F102" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="G102" s="21"/>
-    </row>
-    <row r="103" ht="32.05" customHeight="1">
-      <c r="A103" s="11">
+      <c r="G102" s="15"/>
+    </row>
+    <row r="103" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A103" s="5">
         <v>248.59</v>
       </c>
-      <c r="B103" s="17">
+      <c r="B103" s="11">
         <v>362</v>
       </c>
-      <c r="C103" t="s" s="18">
+      <c r="C103" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D103" t="s" s="19">
+      <c r="D103" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E103" t="s" s="20">
+      <c r="E103" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="F103" t="s" s="20">
+      <c r="F103" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="G103" s="21"/>
-    </row>
-    <row r="104" ht="32.05" customHeight="1">
-      <c r="A104" s="27">
+      <c r="G103" s="15"/>
+    </row>
+    <row r="104" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A104" s="21">
         <v>250</v>
       </c>
-      <c r="B104" s="17">
+      <c r="B104" s="11">
         <v>347</v>
       </c>
-      <c r="C104" s="28"/>
-      <c r="D104" s="29"/>
-      <c r="E104" t="s" s="20">
+      <c r="C104" s="22"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="F104" t="s" s="20">
+      <c r="F104" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="G104" t="s" s="23">
+      <c r="G104" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" ht="32.05" customHeight="1">
-      <c r="A105" s="27">
+    <row r="105" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A105" s="21">
         <v>251</v>
       </c>
-      <c r="B105" s="17">
+      <c r="B105" s="11">
         <v>329</v>
       </c>
-      <c r="C105" s="28"/>
-      <c r="D105" s="29"/>
-      <c r="E105" t="s" s="20">
+      <c r="C105" s="22"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F105" t="s" s="20">
+      <c r="F105" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="G105" t="s" s="23">
+      <c r="G105" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106" ht="32.35" customHeight="1">
-      <c r="A106" s="30">
+    <row r="106" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A106" s="24">
         <v>252</v>
       </c>
-      <c r="B106" s="31">
+      <c r="B106" s="25">
         <v>330</v>
       </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="33"/>
-      <c r="E106" t="s" s="34">
+      <c r="C106" s="26"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="F106" t="s" s="34">
+      <c r="F106" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="G106" t="s" s="35">
+      <c r="G106" s="29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="107" ht="20.35" customHeight="1">
-      <c r="A107" t="s" s="36">
+    <row r="107" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A107" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="38"/>
-    </row>
-    <row r="108" ht="32.35" customHeight="1">
-      <c r="A108" t="s" s="8">
+      <c r="B107" s="52"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="53"/>
+    </row>
+    <row r="108" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" t="s" s="9">
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F108" t="s" s="9">
+      <c r="F108" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G108" t="s" s="10">
+      <c r="G108" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="109" ht="32.65" customHeight="1">
-      <c r="A109" t="s" s="40">
+    <row r="109" spans="1:7" ht="32.65" customHeight="1">
+      <c r="A109" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="B109" s="41"/>
-      <c r="C109" t="s" s="42">
+      <c r="B109" s="32"/>
+      <c r="C109" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="D109" t="s" s="43">
+      <c r="D109" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="E109" t="s" s="15">
+      <c r="E109" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="F109" t="s" s="15">
+      <c r="F109" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="G109" s="16"/>
-    </row>
-    <row r="110" ht="32.35" customHeight="1">
-      <c r="A110" t="s" s="40">
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A110" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="B110" s="44"/>
-      <c r="C110" t="s" s="45">
+      <c r="B110" s="35"/>
+      <c r="C110" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="D110" t="s" s="19">
+      <c r="D110" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="E110" t="s" s="20">
+      <c r="E110" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F110" t="s" s="20">
+      <c r="F110" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="G110" t="s" s="23">
+      <c r="G110" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" ht="32.35" customHeight="1">
-      <c r="A111" t="s" s="40">
+    <row r="111" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A111" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="B111" s="44"/>
-      <c r="C111" t="s" s="45">
+      <c r="B111" s="35"/>
+      <c r="C111" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="D111" t="s" s="22">
+      <c r="D111" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E111" t="s" s="20">
+      <c r="E111" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="F111" t="s" s="20">
+      <c r="F111" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="G111" s="21"/>
-    </row>
-    <row r="112" ht="32.35" customHeight="1">
-      <c r="A112" t="s" s="40">
+      <c r="G111" s="15"/>
+    </row>
+    <row r="112" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A112" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="B112" s="44"/>
-      <c r="C112" t="s" s="45">
+      <c r="B112" s="35"/>
+      <c r="C112" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="D112" t="s" s="22">
+      <c r="D112" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E112" t="s" s="20">
+      <c r="E112" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="F112" t="s" s="20">
+      <c r="F112" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="G112" s="21"/>
-    </row>
-    <row r="113" ht="32.35" customHeight="1">
-      <c r="A113" t="s" s="40">
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A113" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="B113" s="44"/>
-      <c r="C113" t="s" s="45">
+      <c r="B113" s="35"/>
+      <c r="C113" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="D113" t="s" s="22">
+      <c r="D113" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="E113" t="s" s="20">
+      <c r="E113" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F113" t="s" s="20">
+      <c r="F113" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="G113" s="21"/>
-    </row>
-    <row r="114" ht="32.35" customHeight="1">
-      <c r="A114" t="s" s="40">
+      <c r="G113" s="15"/>
+    </row>
+    <row r="114" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A114" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="B114" s="44"/>
-      <c r="C114" t="s" s="45">
+      <c r="B114" s="35"/>
+      <c r="C114" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="D114" t="s" s="22">
+      <c r="D114" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="E114" t="s" s="20">
+      <c r="E114" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="F114" t="s" s="20">
+      <c r="F114" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="G114" t="s" s="23">
+      <c r="G114" s="17" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="115" ht="32.35" customHeight="1">
-      <c r="A115" t="s" s="40">
+    <row r="115" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A115" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="B115" s="44"/>
-      <c r="C115" t="s" s="45">
+      <c r="B115" s="35"/>
+      <c r="C115" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="D115" t="s" s="22">
+      <c r="D115" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="E115" t="s" s="20">
+      <c r="E115" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="F115" t="s" s="20">
+      <c r="F115" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="G115" s="21"/>
-    </row>
-    <row r="116" ht="32.05" customHeight="1">
-      <c r="A116" t="s" s="40">
+      <c r="G115" s="15"/>
+    </row>
+    <row r="116" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A116" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="B116" s="44"/>
-      <c r="C116" t="s" s="45">
+      <c r="B116" s="35"/>
+      <c r="C116" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="D116" t="s" s="22">
+      <c r="D116" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E116" t="s" s="20">
+      <c r="E116" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F116" t="s" s="20">
+      <c r="F116" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="G116" t="s" s="23">
+      <c r="G116" s="17" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="117" ht="32.35" customHeight="1">
-      <c r="A117" t="s" s="40">
+    <row r="117" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A117" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="B117" s="44"/>
-      <c r="C117" t="s" s="45">
+      <c r="B117" s="35"/>
+      <c r="C117" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="D117" t="s" s="22">
+      <c r="D117" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="E117" t="s" s="20">
+      <c r="E117" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="F117" t="s" s="20">
+      <c r="F117" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="G117" t="s" s="23">
+      <c r="G117" s="17" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="118" ht="44.35" customHeight="1">
-      <c r="A118" t="s" s="40">
+    <row r="118" spans="1:7" ht="44.45" customHeight="1">
+      <c r="A118" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="B118" s="44"/>
-      <c r="C118" t="s" s="45">
+      <c r="B118" s="35"/>
+      <c r="C118" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="D118" t="s" s="22">
+      <c r="D118" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="E118" t="s" s="20">
+      <c r="E118" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="F118" t="s" s="20">
+      <c r="F118" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G118" t="s" s="23">
+      <c r="G118" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119" ht="32.35" customHeight="1">
-      <c r="A119" t="s" s="40">
+    <row r="119" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A119" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="B119" s="44"/>
-      <c r="C119" t="s" s="45">
+      <c r="B119" s="35"/>
+      <c r="C119" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="D119" t="s" s="22">
+      <c r="D119" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E119" t="s" s="20">
+      <c r="E119" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F119" t="s" s="20">
+      <c r="F119" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="G119" t="s" s="23">
+      <c r="G119" s="17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="120" ht="32.35" customHeight="1">
-      <c r="A120" t="s" s="40">
+    <row r="120" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A120" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="B120" s="44"/>
-      <c r="C120" t="s" s="45">
+      <c r="B120" s="35"/>
+      <c r="C120" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="D120" t="s" s="22">
+      <c r="D120" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="E120" t="s" s="20">
+      <c r="E120" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="F120" t="s" s="20">
+      <c r="F120" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G120" s="21"/>
-    </row>
-    <row r="121" ht="32.35" customHeight="1">
-      <c r="A121" t="s" s="40">
+      <c r="G120" s="15"/>
+    </row>
+    <row r="121" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A121" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B121" s="44"/>
-      <c r="C121" t="s" s="45">
+      <c r="B121" s="35"/>
+      <c r="C121" s="36" t="s">
         <v>403</v>
       </c>
-      <c r="D121" t="s" s="22">
+      <c r="D121" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="E121" t="s" s="20">
+      <c r="E121" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F121" t="s" s="20">
+      <c r="F121" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="G121" s="21"/>
-    </row>
-    <row r="122" ht="32.35" customHeight="1">
-      <c r="A122" t="s" s="40">
+      <c r="G121" s="15"/>
+    </row>
+    <row r="122" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A122" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="B122" s="44"/>
-      <c r="C122" t="s" s="45">
+      <c r="B122" s="35"/>
+      <c r="C122" s="36" t="s">
         <v>407</v>
       </c>
-      <c r="D122" t="s" s="22">
+      <c r="D122" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="E122" t="s" s="20">
+      <c r="E122" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="F122" t="s" s="20">
+      <c r="F122" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="G122" t="s" s="23">
+      <c r="G122" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="123" ht="32.35" customHeight="1">
-      <c r="A123" t="s" s="40">
+    <row r="123" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A123" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="B123" s="44"/>
-      <c r="C123" t="s" s="45">
+      <c r="B123" s="35"/>
+      <c r="C123" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="D123" t="s" s="22">
+      <c r="D123" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="E123" t="s" s="20">
+      <c r="E123" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F123" t="s" s="20">
+      <c r="F123" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="G123" t="s" s="23">
+      <c r="G123" s="17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="124" ht="32.35" customHeight="1">
-      <c r="A124" t="s" s="40">
+    <row r="124" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A124" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="B124" s="44"/>
-      <c r="C124" t="s" s="45">
+      <c r="B124" s="35"/>
+      <c r="C124" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="D124" t="s" s="22">
+      <c r="D124" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="E124" t="s" s="20">
+      <c r="E124" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="F124" t="s" s="20">
+      <c r="F124" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="G124" s="21"/>
-    </row>
-    <row r="125" ht="44.35" customHeight="1">
-      <c r="A125" t="s" s="40">
+      <c r="G124" s="15"/>
+    </row>
+    <row r="125" spans="1:7" ht="44.45" customHeight="1">
+      <c r="A125" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="B125" s="44"/>
-      <c r="C125" t="s" s="45">
+      <c r="B125" s="35"/>
+      <c r="C125" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="D125" t="s" s="22">
+      <c r="D125" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="E125" t="s" s="20">
+      <c r="E125" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="F125" t="s" s="20">
+      <c r="F125" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="G125" t="s" s="23">
+      <c r="G125" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126" ht="32.35" customHeight="1">
-      <c r="A126" t="s" s="40">
+    <row r="126" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A126" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="B126" s="44"/>
-      <c r="C126" t="s" s="45">
+      <c r="B126" s="35"/>
+      <c r="C126" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="D126" t="s" s="22">
+      <c r="D126" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="E126" t="s" s="20">
+      <c r="E126" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="F126" t="s" s="20">
+      <c r="F126" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="G126" s="21"/>
-    </row>
-    <row r="127" ht="32.35" customHeight="1">
-      <c r="A127" t="s" s="40">
+      <c r="G126" s="15"/>
+    </row>
+    <row r="127" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A127" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="B127" s="44"/>
-      <c r="C127" t="s" s="45">
+      <c r="B127" s="35"/>
+      <c r="C127" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="D127" t="s" s="19">
+      <c r="D127" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="E127" t="s" s="20">
+      <c r="E127" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="F127" t="s" s="20">
+      <c r="F127" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="G127" t="s" s="23">
+      <c r="G127" s="17" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="128" ht="32.35" customHeight="1">
-      <c r="A128" t="s" s="40">
+    <row r="128" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A128" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="B128" s="44"/>
-      <c r="C128" t="s" s="45">
+      <c r="B128" s="35"/>
+      <c r="C128" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="D128" t="s" s="19">
+      <c r="D128" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="E128" t="s" s="20">
+      <c r="E128" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="F128" t="s" s="20">
+      <c r="F128" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="G128" s="21"/>
-    </row>
-    <row r="129" ht="44.05" customHeight="1">
-      <c r="A129" t="s" s="40">
+      <c r="G128" s="15"/>
+    </row>
+    <row r="129" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A129" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="B129" s="44"/>
-      <c r="C129" t="s" s="45">
+      <c r="B129" s="35"/>
+      <c r="C129" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="D129" t="s" s="19">
+      <c r="D129" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="E129" t="s" s="20">
+      <c r="E129" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="F129" t="s" s="20">
+      <c r="F129" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="G129" t="s" s="23">
+      <c r="G129" s="17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="130" ht="41" customHeight="1">
-      <c r="A130" t="s" s="40">
+    <row r="130" spans="1:7" ht="41.1" customHeight="1">
+      <c r="A130" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="B130" s="44"/>
-      <c r="C130" t="s" s="45">
+      <c r="B130" s="35"/>
+      <c r="C130" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="D130" t="s" s="19">
+      <c r="D130" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="E130" t="s" s="20">
+      <c r="E130" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="F130" t="s" s="20">
+      <c r="F130" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="G130" t="s" s="23">
+      <c r="G130" s="17" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="131" ht="32.35" customHeight="1">
-      <c r="A131" t="s" s="40">
+    <row r="131" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A131" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="B131" s="44"/>
-      <c r="C131" t="s" s="45">
+      <c r="B131" s="35"/>
+      <c r="C131" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="D131" t="s" s="22">
+      <c r="D131" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="E131" t="s" s="20">
+      <c r="E131" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="F131" t="s" s="20">
+      <c r="F131" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="G131" t="s" s="23">
+      <c r="G131" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="132" ht="32.35" customHeight="1">
-      <c r="A132" t="s" s="40">
+    <row r="132" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A132" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="B132" s="44"/>
-      <c r="C132" t="s" s="45">
+      <c r="B132" s="35"/>
+      <c r="C132" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="D132" t="s" s="22">
+      <c r="D132" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="E132" t="s" s="20">
+      <c r="E132" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="F132" t="s" s="20">
+      <c r="F132" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="G132" t="s" s="23">
+      <c r="G132" s="17" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="133" ht="44.05" customHeight="1">
-      <c r="A133" t="s" s="40">
+    <row r="133" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A133" s="31" t="s">
         <v>460</v>
       </c>
-      <c r="B133" s="44"/>
-      <c r="C133" t="s" s="45">
+      <c r="B133" s="35"/>
+      <c r="C133" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="D133" t="s" s="19">
+      <c r="D133" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E133" t="s" s="20">
+      <c r="E133" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="F133" t="s" s="20">
+      <c r="F133" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="G133" s="21"/>
-    </row>
-    <row r="134" ht="32.35" customHeight="1">
-      <c r="A134" t="s" s="46">
+      <c r="G133" s="15"/>
+    </row>
+    <row r="134" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A134" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="B134" s="44"/>
-      <c r="C134" t="s" s="45">
+      <c r="B134" s="35"/>
+      <c r="C134" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="D134" t="s" s="19">
+      <c r="D134" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E134" s="28"/>
-      <c r="F134" t="s" s="20">
+      <c r="E134" s="22"/>
+      <c r="F134" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="G134" t="s" s="23">
+      <c r="G134" s="17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="135" ht="32.05" customHeight="1">
-      <c r="A135" t="s" s="40">
+    <row r="135" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A135" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="B135" s="44"/>
-      <c r="C135" t="s" s="45">
+      <c r="B135" s="35"/>
+      <c r="C135" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="D135" t="s" s="22">
+      <c r="D135" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E135" t="s" s="20">
+      <c r="E135" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="F135" t="s" s="20">
+      <c r="F135" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="G135" s="21"/>
-    </row>
-    <row r="136" ht="44.05" customHeight="1">
-      <c r="A136" t="s" s="40">
+      <c r="G135" s="15"/>
+    </row>
+    <row r="136" spans="1:7" ht="44.1" customHeight="1">
+      <c r="A136" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="B136" s="44"/>
-      <c r="C136" t="s" s="45">
+      <c r="B136" s="35"/>
+      <c r="C136" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="D136" t="s" s="19">
+      <c r="D136" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E136" t="s" s="20">
+      <c r="E136" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="F136" t="s" s="20">
+      <c r="F136" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="G136" s="21"/>
-    </row>
-    <row r="137" ht="32.05" customHeight="1">
-      <c r="A137" t="s" s="40">
+      <c r="G136" s="15"/>
+    </row>
+    <row r="137" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A137" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="B137" s="44"/>
-      <c r="C137" t="s" s="45">
+      <c r="B137" s="35"/>
+      <c r="C137" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="D137" t="s" s="19">
+      <c r="D137" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E137" t="s" s="20">
+      <c r="E137" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="F137" t="s" s="20">
+      <c r="F137" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="G137" s="21"/>
-    </row>
-    <row r="138" ht="32.35" customHeight="1">
-      <c r="A138" t="s" s="47">
+      <c r="G137" s="15"/>
+    </row>
+    <row r="138" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A138" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="B138" s="48"/>
-      <c r="C138" t="s" s="49">
+      <c r="B138" s="39"/>
+      <c r="C138" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="D138" t="s" s="50">
+      <c r="D138" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="E138" t="s" s="34">
+      <c r="E138" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="F138" t="s" s="34">
+      <c r="F138" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="G138" t="s" s="35">
+      <c r="G138" s="29" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="139" ht="20.35" customHeight="1">
-      <c r="A139" t="s" s="36">
+    <row r="139" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A139" s="51" t="s">
         <v>475</v>
       </c>
-      <c r="B139" s="37"/>
-      <c r="C139" s="37"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="38"/>
-    </row>
-    <row r="140" ht="32.35" customHeight="1">
-      <c r="A140" t="s" s="8">
+      <c r="B139" s="52"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="52"/>
+      <c r="F139" s="52"/>
+      <c r="G139" s="53"/>
+    </row>
+    <row r="140" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A140" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B140" t="s" s="9">
+      <c r="B140" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
-      <c r="E140" t="s" s="9">
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F140" t="s" s="9">
+      <c r="F140" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G140" t="s" s="10">
+      <c r="G140" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="141" ht="32.35" customHeight="1">
-      <c r="A141" s="27">
+    <row r="141" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A141" s="21">
         <v>447</v>
       </c>
-      <c r="B141" s="51">
+      <c r="B141" s="42">
         <v>232</v>
       </c>
-      <c r="C141" s="52"/>
-      <c r="D141" s="53"/>
-      <c r="E141" t="s" s="15">
+      <c r="C141" s="43"/>
+      <c r="D141" s="44"/>
+      <c r="E141" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="F141" t="s" s="15">
+      <c r="F141" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="G141" s="16"/>
-    </row>
-    <row r="142" ht="41" customHeight="1">
-      <c r="A142" s="27">
+      <c r="G141" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="41.1" customHeight="1">
+      <c r="A142" s="21">
         <v>461</v>
       </c>
-      <c r="B142" s="17">
+      <c r="B142" s="11">
         <v>234</v>
       </c>
-      <c r="C142" s="28"/>
-      <c r="D142" s="54"/>
-      <c r="E142" t="s" s="20">
+      <c r="C142" s="22"/>
+      <c r="D142" s="45"/>
+      <c r="E142" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="F142" t="s" s="20">
+      <c r="F142" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="G142" t="s" s="23">
+      <c r="G142" s="17" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="143" ht="32.05" customHeight="1">
-      <c r="A143" s="27">
+    <row r="143" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A143" s="21">
         <v>470</v>
       </c>
-      <c r="B143" s="17">
+      <c r="B143" s="11">
         <v>244</v>
       </c>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" t="s" s="20">
+      <c r="C143" s="22"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="F143" t="s" s="20">
+      <c r="F143" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="G143" s="21"/>
-    </row>
-    <row r="144" ht="32.05" customHeight="1">
-      <c r="A144" s="27">
+      <c r="G143" s="15"/>
+    </row>
+    <row r="144" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A144" s="21">
         <v>488</v>
       </c>
-      <c r="B144" s="17">
+      <c r="B144" s="11">
         <v>346</v>
       </c>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
-      <c r="E144" t="s" s="20">
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="F144" t="s" s="20">
+      <c r="F144" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="G144" s="21"/>
-    </row>
-    <row r="145" ht="32.05" customHeight="1">
-      <c r="A145" s="27">
+      <c r="G144" s="15"/>
+    </row>
+    <row r="145" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A145" s="21">
         <v>495</v>
       </c>
-      <c r="B145" s="17">
+      <c r="B145" s="11">
         <v>213</v>
       </c>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" t="s" s="20">
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="F145" t="s" s="20">
+      <c r="F145" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="G145" s="21"/>
-    </row>
-    <row r="146" ht="32.05" customHeight="1">
-      <c r="A146" s="27">
+      <c r="G145" s="15"/>
+    </row>
+    <row r="146" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A146" s="21">
         <v>499</v>
       </c>
-      <c r="B146" s="17">
+      <c r="B146" s="11">
         <v>172</v>
       </c>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" t="s" s="20">
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="F146" t="s" s="20">
+      <c r="F146" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="G146" s="21"/>
-    </row>
-    <row r="147" ht="32.05" customHeight="1">
-      <c r="A147" s="27">
+      <c r="G146" s="15"/>
+    </row>
+    <row r="147" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A147" s="21">
         <v>481</v>
       </c>
-      <c r="B147" s="17">
+      <c r="B147" s="11">
         <v>220</v>
       </c>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" t="s" s="20">
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="F147" t="s" s="20">
+      <c r="F147" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="G147" s="21"/>
-    </row>
-    <row r="148" ht="32.35" customHeight="1">
-      <c r="A148" s="30">
+      <c r="G147" s="15"/>
+    </row>
+    <row r="148" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A148" s="24">
         <v>506</v>
       </c>
-      <c r="B148" s="31">
+      <c r="B148" s="25">
         <v>193</v>
       </c>
-      <c r="C148" s="32"/>
-      <c r="D148" s="32"/>
-      <c r="E148" t="s" s="34">
+      <c r="C148" s="26"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="F148" t="s" s="34">
+      <c r="F148" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="G148" s="55"/>
-    </row>
-    <row r="149" ht="20.35" customHeight="1">
-      <c r="A149" t="s" s="36">
+      <c r="G148" s="46"/>
+    </row>
+    <row r="149" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A149" s="51" t="s">
         <v>495</v>
       </c>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="38"/>
-    </row>
-    <row r="150" ht="32.35" customHeight="1">
-      <c r="A150" t="s" s="8">
+      <c r="B149" s="52"/>
+      <c r="C149" s="52"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="52"/>
+      <c r="F149" s="52"/>
+      <c r="G149" s="53"/>
+    </row>
+    <row r="150" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A150" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="39"/>
-      <c r="E150" t="s" s="9">
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F150" t="s" s="9">
+      <c r="F150" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G150" t="s" s="10">
+      <c r="G150" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="151" ht="20.35" customHeight="1">
-      <c r="A151" s="40"/>
-      <c r="B151" t="s" s="56">
+    <row r="151" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A151" s="31"/>
+      <c r="B151" s="61" t="s">
         <v>496</v>
       </c>
-      <c r="C151" s="37"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="38"/>
-    </row>
-    <row r="152" ht="20.85" customHeight="1">
-      <c r="A152" s="57"/>
-      <c r="B152" s="58"/>
-      <c r="C152" s="59"/>
-      <c r="D152" s="59"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="60"/>
-    </row>
-    <row r="153" ht="26.9" customHeight="1">
-      <c r="A153" t="s" s="2">
+      <c r="C151" s="52"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="52"/>
+      <c r="G151" s="53"/>
+    </row>
+    <row r="152" spans="1:7" ht="20.85" customHeight="1">
+      <c r="A152" s="47"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="63"/>
+      <c r="E152" s="63"/>
+      <c r="F152" s="63"/>
+      <c r="G152" s="64"/>
+    </row>
+    <row r="153" spans="1:7" ht="26.85" customHeight="1">
+      <c r="A153" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="B153" s="61"/>
-      <c r="C153" s="61"/>
-      <c r="D153" s="61"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="61"/>
-      <c r="G153" s="62"/>
-    </row>
-    <row r="154" ht="20.25" customHeight="1">
-      <c r="A154" t="s" s="5">
+      <c r="B153" s="57"/>
+      <c r="C153" s="57"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="57"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="58"/>
+    </row>
+    <row r="154" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A154" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B154" s="63"/>
-      <c r="C154" s="63"/>
-      <c r="D154" s="63"/>
-      <c r="E154" s="63"/>
-      <c r="F154" s="63"/>
-      <c r="G154" s="64"/>
-    </row>
-    <row r="155" ht="32.35" customHeight="1">
-      <c r="A155" t="s" s="8">
+      <c r="B154" s="59"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="59"/>
+      <c r="E154" s="59"/>
+      <c r="F154" s="59"/>
+      <c r="G154" s="60"/>
+    </row>
+    <row r="155" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A155" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B155" t="s" s="9">
+      <c r="B155" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="39"/>
-      <c r="D155" s="39"/>
-      <c r="E155" t="s" s="9">
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F155" t="s" s="9">
+      <c r="F155" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G155" t="s" s="10">
+      <c r="G155" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="156" ht="20.35" customHeight="1">
-      <c r="A156" s="40"/>
-      <c r="B156" t="s" s="56">
+    <row r="156" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A156" s="31"/>
+      <c r="B156" s="61" t="s">
         <v>496</v>
       </c>
-      <c r="C156" s="37"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="38"/>
-    </row>
-    <row r="157" ht="20.35" customHeight="1">
-      <c r="A157" s="47"/>
+      <c r="C156" s="52"/>
+      <c r="D156" s="52"/>
+      <c r="E156" s="52"/>
+      <c r="F156" s="52"/>
+      <c r="G156" s="53"/>
+    </row>
+    <row r="157" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A157" s="38"/>
       <c r="B157" s="65"/>
       <c r="C157" s="66"/>
       <c r="D157" s="66"/>
@@ -6661,47 +6744,47 @@
       <c r="F157" s="66"/>
       <c r="G157" s="67"/>
     </row>
-    <row r="158" ht="20.35" customHeight="1">
-      <c r="A158" t="s" s="36">
+    <row r="158" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A158" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="B158" s="37"/>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="38"/>
-    </row>
-    <row r="159" ht="32.35" customHeight="1">
-      <c r="A159" t="s" s="8">
+      <c r="B158" s="52"/>
+      <c r="C158" s="52"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="52"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="53"/>
+    </row>
+    <row r="159" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A159" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="39"/>
-      <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
-      <c r="E159" t="s" s="9">
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F159" t="s" s="9">
+      <c r="F159" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G159" t="s" s="10">
+      <c r="G159" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="160" ht="20.35" customHeight="1">
-      <c r="A160" s="40"/>
-      <c r="B160" t="s" s="56">
+    <row r="160" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A160" s="31"/>
+      <c r="B160" s="61" t="s">
         <v>496</v>
       </c>
-      <c r="C160" s="37"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="38"/>
-    </row>
-    <row r="161" ht="20.35" customHeight="1">
-      <c r="A161" s="47"/>
+      <c r="C160" s="52"/>
+      <c r="D160" s="52"/>
+      <c r="E160" s="52"/>
+      <c r="F160" s="52"/>
+      <c r="G160" s="53"/>
+    </row>
+    <row r="161" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A161" s="38"/>
       <c r="B161" s="65"/>
       <c r="C161" s="66"/>
       <c r="D161" s="66"/>
@@ -6709,61 +6792,57 @@
       <c r="F161" s="66"/>
       <c r="G161" s="67"/>
     </row>
-    <row r="162" ht="20.35" customHeight="1">
-      <c r="A162" t="s" s="36">
+    <row r="162" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A162" s="51" t="s">
         <v>498</v>
       </c>
-      <c r="B162" s="37"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="38"/>
-    </row>
-    <row r="163" ht="32.35" customHeight="1">
-      <c r="A163" t="s" s="8">
+      <c r="B162" s="52"/>
+      <c r="C162" s="52"/>
+      <c r="D162" s="52"/>
+      <c r="E162" s="52"/>
+      <c r="F162" s="52"/>
+      <c r="G162" s="53"/>
+    </row>
+    <row r="163" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A163" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="39"/>
-      <c r="C163" s="39"/>
-      <c r="D163" s="39"/>
-      <c r="E163" t="s" s="9">
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F163" t="s" s="9">
+      <c r="F163" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G163" t="s" s="10">
+      <c r="G163" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="164" ht="20.35" customHeight="1">
-      <c r="A164" s="40"/>
-      <c r="B164" t="s" s="56">
+    <row r="164" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A164" s="31"/>
+      <c r="B164" s="61" t="s">
         <v>496</v>
       </c>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="38"/>
-    </row>
-    <row r="165" ht="20.85" customHeight="1">
-      <c r="A165" s="57"/>
-      <c r="B165" s="58"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="59"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="59"/>
-      <c r="G165" s="60"/>
+      <c r="C164" s="52"/>
+      <c r="D164" s="52"/>
+      <c r="E164" s="52"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="53"/>
+    </row>
+    <row r="165" spans="1:7" ht="20.85" customHeight="1">
+      <c r="A165" s="47"/>
+      <c r="B165" s="62"/>
+      <c r="C165" s="63"/>
+      <c r="D165" s="63"/>
+      <c r="E165" s="63"/>
+      <c r="F165" s="63"/>
+      <c r="G165" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A139:G139"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="B164:G165"/>
     <mergeCell ref="A154:G154"/>
     <mergeCell ref="A162:G162"/>
     <mergeCell ref="A149:G149"/>
@@ -6771,10 +6850,14 @@
     <mergeCell ref="B151:G152"/>
     <mergeCell ref="B156:G157"/>
     <mergeCell ref="B160:G161"/>
-    <mergeCell ref="B164:G165"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A153:G153"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Reference Table.xlsx
+++ b/Reference Table.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juyao\Documents\Github\harmonic_analysis\Bach_chorale_FB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D33753-1A5A-4FBF-B9C1-91FC1404F479}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="16354" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Final Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Final Table" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="515">
   <si>
     <t>FB Chorales</t>
   </si>
@@ -28,7 +19,8 @@
     <t>Breitkopf Chorales</t>
   </si>
   <si>
-    <t>Opus BWV</t>
+    <t>Opus BWV
+* indicates dubious FB</t>
   </si>
   <si>
     <t>Breitkopf Number</t>
@@ -40,7 +32,7 @@
     <t>Date of first performance</t>
   </si>
   <si>
-    <t>First lyrics</t>
+    <t>Text setting</t>
   </si>
   <si>
     <t>NBA location</t>
@@ -439,6 +431,9 @@
     <t>I vol.1, p.98</t>
   </si>
   <si>
+    <t>64.08*</t>
+  </si>
+  <si>
     <t>Sehet, welch eine Liebe hat uns der Vater erzeiget</t>
   </si>
   <si>
@@ -669,6 +664,9 @@
     <t>I vol.26, p.54</t>
   </si>
   <si>
+    <t>117.04*</t>
+  </si>
+  <si>
     <t>248 ; 354</t>
   </si>
   <si>
@@ -679,6 +677,9 @@
   </si>
   <si>
     <t>III vol.2.1, p.9</t>
+  </si>
+  <si>
+    <t>117.09*</t>
   </si>
   <si>
     <t>Christum wir sollen loben schon</t>
@@ -1141,15 +1142,24 @@
     <t>II vol.6, p.286</t>
   </si>
   <si>
+    <t>250*</t>
+  </si>
+  <si>
     <t>Was Gott tut, das ist wohlgetan</t>
   </si>
   <si>
     <t>III vol.2.1, p.3</t>
   </si>
   <si>
+    <t>251*</t>
+  </si>
+  <si>
     <t>III vol.2.1, p.4</t>
   </si>
   <si>
+    <t>252*</t>
+  </si>
+  <si>
     <t>Nun danket alle Gott</t>
   </si>
   <si>
@@ -1157,11 +1167,14 @@
   </si>
   <si>
     <t>Other 4-voice Chorales</t>
+  </si>
+  <si>
+    <t>Opus BWV</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1171,7 +1184,7 @@
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1653,7 +1666,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1663,7 +1676,7 @@
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1674,7 +1687,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1684,7 +1697,7 @@
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1693,11 +1706,17 @@
     </r>
   </si>
   <si>
+    <t>447*</t>
+  </si>
+  <si>
     <t>Der Tag ist hin</t>
   </si>
   <si>
     <t>FB - III vol.2.1, p.108
 4-v - III vol.2.2, p. 137</t>
+  </si>
+  <si>
+    <t>461*</t>
   </si>
   <si>
     <t>Gott lebet noch</t>
@@ -1717,6 +1736,9 @@
     </r>
   </si>
   <si>
+    <t>470*</t>
+  </si>
+  <si>
     <t>Jesu, Jesu, du bist mein</t>
   </si>
   <si>
@@ -1724,6 +1746,9 @@
 4-v - III vol.2.2, p. 144</t>
   </si>
   <si>
+    <t>488*</t>
+  </si>
+  <si>
     <t>Meines Lebens letzte Zeit</t>
   </si>
   <si>
@@ -1731,6 +1756,9 @@
 4-v - III vol.2.2, p. 199</t>
   </si>
   <si>
+    <t>495*</t>
+  </si>
+  <si>
     <t>O wie selig ihr doch, ihr Frommen</t>
   </si>
   <si>
@@ -1738,6 +1766,9 @@
 4-v - III vol.2.2, p. 124</t>
   </si>
   <si>
+    <t>499*</t>
+  </si>
+  <si>
     <t>Sei gegrüßet, Jesu gütig</t>
   </si>
   <si>
@@ -1745,6 +1776,9 @@
 4-v - III vol.2.2, p. 98</t>
   </si>
   <si>
+    <t>481*</t>
+  </si>
+  <si>
     <t>Lasset uns mit Jesu ziehen</t>
   </si>
   <si>
@@ -1752,6 +1786,9 @@
 4-v - III vol.2.2, p. 130</t>
   </si>
   <si>
+    <t>506*</t>
+  </si>
+  <si>
     <t>Was bist du doch, o Seele, so betrübet</t>
   </si>
   <si>
@@ -1771,31 +1808,42 @@
     <t>Schemelli Chorales (2-voice)</t>
   </si>
   <si>
-    <t>Missing figures since m. 5</t>
+    <t>First lyrics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#\ ###/###"/>
-    <numFmt numFmtId="165" formatCode="mmm\ d\,\ yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="# ###/###"/>
+    <numFmt numFmtId="60" formatCode="mmm d, yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="15"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -1811,25 +1859,19 @@
       <name val="Arial"/>
     </font>
     <font>
-      <i/>
+      <i val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Helvetica Neue"/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Times Roman"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
+      <b val="1"/>
+      <i val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -2204,213 +2246,210 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="67">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="59" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="60" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="60" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" indent="1" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" indent="1" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="49" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="60" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2421,85 +2460,25 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FF1CB000"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -2698,7 +2677,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2717,7 +2696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2747,7 +2726,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2773,7 +2752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2799,7 +2778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2825,7 +2804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2851,7 +2830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2877,7 +2856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2903,7 +2882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2929,7 +2908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2955,7 +2934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2968,15 +2947,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2993,7 +2966,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3012,7 +2985,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3038,7 +3011,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3064,7 +3037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3090,7 +3063,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3116,7 +3089,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3142,7 +3115,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3168,7 +3141,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3194,7 +3167,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3220,7 +3193,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3246,7 +3219,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3259,15 +3232,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3281,7 +3248,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3300,7 +3267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3330,7 +3297,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3356,7 +3323,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3382,7 +3349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3408,7 +3375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3434,7 +3401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3460,7 +3427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3486,7 +3453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3512,7 +3479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3538,7 +3505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3551,3298 +3518,3291 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV165"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.9219" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.0625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4766" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.0391" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.85" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" ht="26.9" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="32.35" customHeight="1">
+      <c r="A3" t="s" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A4" s="5">
+    <row r="4" ht="32.35" customHeight="1">
+      <c r="A4" s="11">
         <v>3.06</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="12">
         <v>0.506493506493506</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A5" s="5">
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" ht="32.05" customHeight="1">
+      <c r="A5" s="11">
         <v>5.07</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="17">
         <v>304</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" t="s" s="20">
         <v>16</v>
       </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A6" s="5">
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" ht="32.05" customHeight="1">
+      <c r="A6" s="11">
         <v>6.06</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="17">
         <v>72</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" t="s" s="20">
         <v>20</v>
       </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A7" s="5">
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" ht="32.05" customHeight="1">
+      <c r="A7" s="11">
         <v>8.06</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="17">
         <v>43</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" t="s" s="20">
         <v>23</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" t="s" s="20">
         <v>24</v>
       </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A8" s="5">
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" ht="32.05" customHeight="1">
+      <c r="A8" s="11">
         <v>9.07</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="17">
         <v>290</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" t="s" s="18">
         <v>25</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" t="s" s="22">
         <v>26</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" t="s" s="20">
         <v>27</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" t="s" s="20">
         <v>28</v>
       </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A9" s="5">
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" ht="44.05" customHeight="1">
+      <c r="A9" s="11">
         <v>10.07</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="17">
         <v>358</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" t="s" s="18">
         <v>29</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" t="s" s="19">
         <v>30</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" t="s" s="20">
         <v>31</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" t="s" s="23">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A10" s="5">
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" s="11">
         <v>11.06</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="17">
         <v>343</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s" s="18">
         <v>34</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" t="s" s="19">
         <v>35</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" t="s" s="20">
         <v>36</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" t="s" s="20">
         <v>37</v>
       </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A11" s="5">
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" s="11">
         <v>13.06</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="17">
         <v>103</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" t="s" s="18">
         <v>38</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s" s="19">
         <v>39</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" t="s" s="20">
         <v>40</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" t="s" s="20">
         <v>41</v>
       </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A12" s="5">
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" ht="32.05" customHeight="1">
+      <c r="A12" s="11">
         <v>14.05</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="17">
         <v>182</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" t="s" s="18">
         <v>42</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" t="s" s="19">
         <v>43</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" t="s" s="20">
         <v>44</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" t="s" s="20">
         <v>45</v>
       </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A13" s="5">
-        <v>16.059999999999999</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" ht="32.05" customHeight="1">
+      <c r="A13" s="11">
+        <v>16.06</v>
+      </c>
+      <c r="B13" s="17">
         <v>99</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" t="s" s="18">
         <v>46</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" t="s" s="19">
         <v>47</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" t="s" s="20">
         <v>48</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" t="s" s="20">
         <v>49</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" t="s" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A14" s="5">
+    <row r="14" ht="32.05" customHeight="1">
+      <c r="A14" s="11">
         <v>19.07</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="17">
         <v>298</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" t="s" s="18">
         <v>51</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" t="s" s="19">
         <v>52</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" t="s" s="20">
         <v>53</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" t="s" s="20">
         <v>54</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" t="s" s="23">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A15" s="18">
+    <row r="15" ht="32.05" customHeight="1">
+      <c r="A15" s="24">
         <v>20.07</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="17">
         <v>26</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" t="s" s="18">
         <v>56</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" t="s" s="22">
         <v>57</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" t="s" s="20">
         <v>58</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" t="s" s="20">
         <v>59</v>
       </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A16" s="18">
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" ht="32.05" customHeight="1">
+      <c r="A16" s="24">
         <v>20.11</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="17">
         <v>26</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" t="s" s="18">
         <v>56</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" t="s" s="22">
         <v>57</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" t="s" s="20">
         <v>58</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" t="s" s="20">
         <v>59</v>
       </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A17" s="18">
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" ht="32.05" customHeight="1">
+      <c r="A17" s="24">
         <v>24.06</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="17">
         <v>337</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" t="s" s="18">
         <v>60</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" t="s" s="22">
         <v>57</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" t="s" s="20">
         <v>61</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" t="s" s="20">
         <v>62</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" t="s" s="23">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A18" s="5">
+    <row r="18" ht="32.35" customHeight="1">
+      <c r="A18" s="11">
         <v>26.06</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="17">
         <v>48</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" t="s" s="18">
         <v>64</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" t="s" s="22">
         <v>65</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" t="s" s="20">
         <v>66</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" t="s" s="20">
         <v>67</v>
       </c>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A19" s="5">
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" ht="32.05" customHeight="1">
+      <c r="A19" s="11">
         <v>29.08</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="17">
         <v>116</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" t="s" s="18">
         <v>68</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" t="s" s="22">
         <v>69</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" t="s" s="20">
         <v>70</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" t="s" s="20">
         <v>71</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" t="s" s="23">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A20" s="5">
+    <row r="20" ht="32.05" customHeight="1">
+      <c r="A20" s="11">
         <v>30.06</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="17">
         <v>76</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" t="s" s="18">
         <v>72</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" t="s" s="22">
         <v>73</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" t="s" s="20">
         <v>74</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" t="s" s="20">
         <v>75</v>
       </c>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A21" s="5">
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" ht="44.05" customHeight="1">
+      <c r="A21" s="11">
         <v>33.06</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="17">
         <v>13</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" t="s" s="18">
         <v>76</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" t="s" s="22">
         <v>77</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" t="s" s="20">
         <v>78</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" t="s" s="20">
         <v>79</v>
       </c>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A22" s="5">
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" ht="32.05" customHeight="1">
+      <c r="A22" s="11">
         <v>36.04</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="17">
         <v>86</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" t="s" s="18">
         <v>80</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" t="s" s="22">
         <v>81</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" t="s" s="20">
         <v>82</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" t="s" s="20">
         <v>83</v>
       </c>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A23" s="5">
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" ht="32.05" customHeight="1">
+      <c r="A23" s="11">
         <v>36.08</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="17">
         <v>28</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" t="s" s="18">
         <v>80</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" t="s" s="22">
         <v>81</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" t="s" s="20">
         <v>84</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" t="s" s="20">
         <v>85</v>
       </c>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A24" s="5">
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" ht="32.05" customHeight="1">
+      <c r="A24" s="11">
         <v>37.06</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="17">
         <v>341</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" t="s" s="18">
         <v>86</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" t="s" s="19">
         <v>87</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" t="s" s="20">
         <v>88</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" t="s" s="20">
         <v>89</v>
       </c>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A25" s="5">
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" ht="32.05" customHeight="1">
+      <c r="A25" s="11">
         <v>38.06</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="17">
         <v>10</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" t="s" s="18">
         <v>90</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" t="s" s="22">
         <v>91</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" t="s" s="20">
         <v>92</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" t="s" s="20">
         <v>93</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" t="s" s="23">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A26" s="5">
+    <row r="26" ht="32.05" customHeight="1">
+      <c r="A26" s="11">
         <v>40.03</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="17">
         <v>321</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" t="s" s="18">
         <v>94</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" t="s" s="22">
         <v>95</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" t="s" s="20">
         <v>96</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" t="s" s="20">
         <v>97</v>
       </c>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A27" s="5">
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" ht="32.05" customHeight="1">
+      <c r="A27" s="11">
         <v>40.06</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="17">
         <v>142</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" t="s" s="18">
         <v>94</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" t="s" s="22">
         <v>95</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" t="s" s="20">
         <v>98</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" t="s" s="20">
         <v>99</v>
       </c>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A28" s="5">
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" ht="32.05" customHeight="1">
+      <c r="A28" s="11">
         <v>42.07</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="17">
         <v>91</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" t="s" s="18">
         <v>100</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" t="s" s="22">
         <v>101</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" t="s" s="20">
         <v>102</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" t="s" s="20">
         <v>103</v>
       </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A29" s="5">
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" ht="32.05" customHeight="1">
+      <c r="A29" s="11">
         <v>43.11</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="17">
         <v>102</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" t="s" s="18">
         <v>104</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" t="s" s="22">
         <v>105</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" t="s" s="20">
         <v>106</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" t="s" s="20">
         <v>107</v>
       </c>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A30" s="5">
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" ht="44.05" customHeight="1">
+      <c r="A30" s="11">
         <v>47.05</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="17">
         <v>94</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" t="s" s="18">
         <v>108</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" t="s" s="22">
         <v>109</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" t="s" s="20">
         <v>110</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" t="s" s="20">
         <v>111</v>
       </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A31" s="5">
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" ht="32.05" customHeight="1">
+      <c r="A31" s="11">
         <v>48.07</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="17">
         <v>266</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" t="s" s="22">
         <v>113</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" t="s" s="20">
         <v>114</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" t="s" s="20">
         <v>115</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" t="s" s="23">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="56.1" customHeight="1">
-      <c r="A32" s="5">
+    <row r="32" ht="56.05" customHeight="1">
+      <c r="A32" s="11">
         <v>57.08</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="17">
         <v>90</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" t="s" s="18">
         <v>117</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" t="s" s="19">
         <v>118</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" t="s" s="20">
         <v>119</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" t="s" s="20">
         <v>120</v>
       </c>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A33" s="5">
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" ht="32.05" customHeight="1">
+      <c r="A33" s="11">
         <v>62.06</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="17">
         <v>170</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" t="s" s="22">
         <v>122</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" t="s" s="20">
         <v>123</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" t="s" s="20">
         <v>124</v>
       </c>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A34" s="5">
-        <v>64.08</v>
-      </c>
-      <c r="B34" s="11">
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" ht="44.05" customHeight="1">
+      <c r="A34" t="s" s="25">
+        <v>125</v>
+      </c>
+      <c r="B34" s="17">
         <v>138</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="16" t="s">
+      <c r="C34" t="s" s="18">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s" s="22">
         <v>122</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="14" t="s">
+      <c r="E34" t="s" s="20">
         <v>127</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="F34" t="s" s="20">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A35" s="5">
-        <v>67.069999999999993</v>
-      </c>
-      <c r="B35" s="11">
+      <c r="G34" t="s" s="23">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" ht="32.05" customHeight="1">
+      <c r="A35" s="11">
+        <v>67.06999999999999</v>
+      </c>
+      <c r="B35" s="17">
         <v>42</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" t="s" s="18">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s" s="22">
+        <v>131</v>
+      </c>
+      <c r="E35" t="s" s="20">
+        <v>132</v>
+      </c>
+      <c r="F35" t="s" s="20">
+        <v>133</v>
+      </c>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" ht="32.05" customHeight="1">
+      <c r="A36" s="11">
+        <v>73.05</v>
+      </c>
+      <c r="B36" s="17">
+        <v>191</v>
+      </c>
+      <c r="C36" t="s" s="18">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s" s="22">
+        <v>135</v>
+      </c>
+      <c r="E36" t="s" s="20">
+        <v>136</v>
+      </c>
+      <c r="F36" t="s" s="20">
+        <v>137</v>
+      </c>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" ht="32.05" customHeight="1">
+      <c r="A37" s="11">
+        <v>74.08</v>
+      </c>
+      <c r="B37" s="17">
+        <v>370</v>
+      </c>
+      <c r="C37" t="s" s="18">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s" s="22">
+        <v>139</v>
+      </c>
+      <c r="E37" t="s" s="20">
+        <v>140</v>
+      </c>
+      <c r="F37" t="s" s="20">
+        <v>141</v>
+      </c>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" ht="32.05" customHeight="1">
+      <c r="A38" s="11">
+        <v>78.06999999999999</v>
+      </c>
+      <c r="B38" s="17">
+        <v>297</v>
+      </c>
+      <c r="C38" t="s" s="18">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s" s="22">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s" s="20">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s" s="20">
+        <v>145</v>
+      </c>
+      <c r="G38" t="s" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" ht="32.05" customHeight="1">
+      <c r="A39" s="11">
+        <v>81.06999999999999</v>
+      </c>
+      <c r="B39" s="17">
+        <v>324</v>
+      </c>
+      <c r="C39" t="s" s="18">
+        <v>146</v>
+      </c>
+      <c r="D39" t="s" s="22">
+        <v>147</v>
+      </c>
+      <c r="E39" t="s" s="20">
+        <v>148</v>
+      </c>
+      <c r="F39" t="s" s="20">
+        <v>149</v>
+      </c>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" ht="32.05" customHeight="1">
+      <c r="A40" s="11">
+        <v>83.05</v>
+      </c>
+      <c r="B40" s="17">
+        <v>325</v>
+      </c>
+      <c r="C40" t="s" s="18">
+        <v>150</v>
+      </c>
+      <c r="D40" t="s" s="22">
+        <v>151</v>
+      </c>
+      <c r="E40" t="s" s="20">
+        <v>152</v>
+      </c>
+      <c r="F40" t="s" s="20">
+        <v>153</v>
+      </c>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" ht="32.05" customHeight="1">
+      <c r="A41" s="11">
+        <v>89.06</v>
+      </c>
+      <c r="B41" s="17">
+        <v>281</v>
+      </c>
+      <c r="C41" t="s" s="18">
+        <v>154</v>
+      </c>
+      <c r="D41" t="s" s="22">
+        <v>155</v>
+      </c>
+      <c r="E41" t="s" s="20">
+        <v>156</v>
+      </c>
+      <c r="F41" t="s" s="20">
+        <v>157</v>
+      </c>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" ht="32.05" customHeight="1">
+      <c r="A42" s="11">
+        <v>91.06</v>
+      </c>
+      <c r="B42" s="17">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s" s="18">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s" s="22">
+        <v>159</v>
+      </c>
+      <c r="E42" t="s" s="20">
+        <v>160</v>
+      </c>
+      <c r="F42" t="s" s="20">
+        <v>161</v>
+      </c>
+      <c r="G42" t="s" s="23">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" ht="32.05" customHeight="1">
+      <c r="A43" s="11">
+        <v>94.08</v>
+      </c>
+      <c r="B43" s="17">
+        <v>291</v>
+      </c>
+      <c r="C43" t="s" s="18">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s" s="22">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s" s="20">
+        <v>163</v>
+      </c>
+      <c r="F43" t="s" s="20">
+        <v>165</v>
+      </c>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" ht="32.05" customHeight="1">
+      <c r="A44" s="11">
+        <v>96.06</v>
+      </c>
+      <c r="B44" s="17">
+        <v>303</v>
+      </c>
+      <c r="C44" t="s" s="18">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s" s="19">
+        <v>167</v>
+      </c>
+      <c r="E44" t="s" s="20">
+        <v>168</v>
+      </c>
+      <c r="F44" t="s" s="20">
+        <v>169</v>
+      </c>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" ht="32.05" customHeight="1">
+      <c r="A45" s="11">
+        <v>102.07</v>
+      </c>
+      <c r="B45" s="17">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s" s="18">
+        <v>170</v>
+      </c>
+      <c r="D45" t="s" s="22">
+        <v>171</v>
+      </c>
+      <c r="E45" t="s" s="20">
+        <v>172</v>
+      </c>
+      <c r="F45" t="s" s="20">
+        <v>173</v>
+      </c>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" ht="32.05" customHeight="1">
+      <c r="A46" s="11">
+        <v>104.06</v>
+      </c>
+      <c r="B46" s="17">
+        <v>326</v>
+      </c>
+      <c r="C46" t="s" s="18">
+        <v>174</v>
+      </c>
+      <c r="D46" t="s" s="22">
+        <v>175</v>
+      </c>
+      <c r="E46" t="s" s="20">
+        <v>176</v>
+      </c>
+      <c r="F46" t="s" s="20">
+        <v>177</v>
+      </c>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" ht="44.05" customHeight="1">
+      <c r="A47" s="11">
+        <v>108.06</v>
+      </c>
+      <c r="B47" s="17">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s" s="18">
+        <v>178</v>
+      </c>
+      <c r="D47" t="s" s="22">
+        <v>179</v>
+      </c>
+      <c r="E47" t="s" s="20">
+        <v>180</v>
+      </c>
+      <c r="F47" t="s" s="20">
+        <v>181</v>
+      </c>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" ht="32.05" customHeight="1">
+      <c r="A48" s="11">
+        <v>112.05</v>
+      </c>
+      <c r="B48" s="17">
+        <v>313</v>
+      </c>
+      <c r="C48" t="s" s="18">
+        <v>182</v>
+      </c>
+      <c r="D48" t="s" s="22">
+        <v>183</v>
+      </c>
+      <c r="E48" t="s" s="20">
+        <v>184</v>
+      </c>
+      <c r="F48" t="s" s="20">
+        <v>185</v>
+      </c>
+      <c r="G48" t="s" s="23">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" ht="44.05" customHeight="1">
+      <c r="A49" s="11">
+        <v>113.08</v>
+      </c>
+      <c r="B49" s="17">
+        <v>294</v>
+      </c>
+      <c r="C49" t="s" s="18">
+        <v>186</v>
+      </c>
+      <c r="D49" t="s" s="22">
+        <v>187</v>
+      </c>
+      <c r="E49" t="s" s="20">
+        <v>188</v>
+      </c>
+      <c r="F49" t="s" s="20">
+        <v>189</v>
+      </c>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" ht="32.05" customHeight="1">
+      <c r="A50" s="11">
+        <v>114.07</v>
+      </c>
+      <c r="B50" s="17">
+        <v>301</v>
+      </c>
+      <c r="C50" t="s" s="18">
+        <v>190</v>
+      </c>
+      <c r="D50" t="s" s="22">
+        <v>191</v>
+      </c>
+      <c r="E50" t="s" s="20">
+        <v>192</v>
+      </c>
+      <c r="F50" t="s" s="20">
+        <v>193</v>
+      </c>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" ht="32.05" customHeight="1">
+      <c r="A51" s="11">
+        <v>115.06</v>
+      </c>
+      <c r="B51" s="17">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s" s="18">
+        <v>194</v>
+      </c>
+      <c r="D51" t="s" s="22">
+        <v>195</v>
+      </c>
+      <c r="E51" t="s" s="20">
+        <v>196</v>
+      </c>
+      <c r="F51" t="s" s="20">
+        <v>197</v>
+      </c>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" ht="32.05" customHeight="1">
+      <c r="A52" t="s" s="25">
+        <v>198</v>
+      </c>
+      <c r="B52" t="s" s="26">
+        <v>199</v>
+      </c>
+      <c r="C52" t="s" s="27">
+        <v>200</v>
+      </c>
+      <c r="D52" t="s" s="22">
+        <v>201</v>
+      </c>
+      <c r="E52" t="s" s="20">
+        <v>200</v>
+      </c>
+      <c r="F52" t="s" s="27">
+        <v>202</v>
+      </c>
+      <c r="G52" t="s" s="23">
         <v>129</v>
       </c>
-      <c r="D35" s="16" t="s">
+    </row>
+    <row r="53" ht="32.05" customHeight="1">
+      <c r="A53" t="s" s="25">
+        <v>203</v>
+      </c>
+      <c r="B53" t="s" s="26">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s" s="18">
+        <v>200</v>
+      </c>
+      <c r="D53" t="s" s="22">
+        <v>201</v>
+      </c>
+      <c r="E53" t="s" s="20">
+        <v>200</v>
+      </c>
+      <c r="F53" t="s" s="20">
+        <v>202</v>
+      </c>
+      <c r="G53" t="s" s="23">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" ht="32.05" customHeight="1">
+      <c r="A54" s="11">
+        <v>121.06</v>
+      </c>
+      <c r="B54" s="17">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s" s="18">
+        <v>204</v>
+      </c>
+      <c r="D54" t="s" s="19">
+        <v>205</v>
+      </c>
+      <c r="E54" t="s" s="20">
+        <v>206</v>
+      </c>
+      <c r="F54" t="s" s="20">
+        <v>207</v>
+      </c>
+      <c r="G54" s="21"/>
+    </row>
+    <row r="55" ht="32.05" customHeight="1">
+      <c r="A55" s="11">
+        <v>126.06</v>
+      </c>
+      <c r="B55" s="17">
+        <v>215</v>
+      </c>
+      <c r="C55" t="s" s="18">
+        <v>208</v>
+      </c>
+      <c r="D55" t="s" s="19">
+        <v>209</v>
+      </c>
+      <c r="E55" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s" s="20">
+        <v>210</v>
+      </c>
+      <c r="G55" s="21"/>
+    </row>
+    <row r="56" ht="32.05" customHeight="1">
+      <c r="A56" s="11">
+        <v>133.06</v>
+      </c>
+      <c r="B56" s="17">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s" s="18">
+        <v>211</v>
+      </c>
+      <c r="D56" t="s" s="22">
+        <v>212</v>
+      </c>
+      <c r="E56" t="s" s="20">
+        <v>213</v>
+      </c>
+      <c r="F56" t="s" s="20">
+        <v>214</v>
+      </c>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" ht="32.05" customHeight="1">
+      <c r="A57" s="11">
+        <v>136.06</v>
+      </c>
+      <c r="B57" s="17">
+        <v>331</v>
+      </c>
+      <c r="C57" t="s" s="18">
+        <v>215</v>
+      </c>
+      <c r="D57" t="s" s="22">
+        <v>216</v>
+      </c>
+      <c r="E57" t="s" s="20">
+        <v>217</v>
+      </c>
+      <c r="F57" t="s" s="20">
+        <v>218</v>
+      </c>
+      <c r="G57" t="s" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" ht="32.05" customHeight="1">
+      <c r="A58" s="11">
+        <v>140.07</v>
+      </c>
+      <c r="B58" s="17">
+        <v>179</v>
+      </c>
+      <c r="C58" t="s" s="18">
+        <v>219</v>
+      </c>
+      <c r="D58" t="s" s="19">
+        <v>220</v>
+      </c>
+      <c r="E58" t="s" s="20">
+        <v>221</v>
+      </c>
+      <c r="F58" t="s" s="20">
+        <v>222</v>
+      </c>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" ht="32.05" customHeight="1">
+      <c r="A59" s="11">
+        <v>145.05</v>
+      </c>
+      <c r="B59" s="17">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s" s="18">
+        <v>223</v>
+      </c>
+      <c r="D59" t="s" s="22">
+        <v>224</v>
+      </c>
+      <c r="E59" t="s" s="20">
+        <v>225</v>
+      </c>
+      <c r="F59" t="s" s="20">
+        <v>226</v>
+      </c>
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" ht="32.05" customHeight="1">
+      <c r="A60" s="11">
+        <v>153.01</v>
+      </c>
+      <c r="B60" s="17">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s" s="18">
+        <v>227</v>
+      </c>
+      <c r="D60" t="s" s="22">
+        <v>228</v>
+      </c>
+      <c r="E60" t="s" s="20">
+        <v>229</v>
+      </c>
+      <c r="F60" t="s" s="20">
+        <v>230</v>
+      </c>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" ht="32.05" customHeight="1">
+      <c r="A61" s="11">
+        <v>153.05</v>
+      </c>
+      <c r="B61" s="17">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s" s="18">
+        <v>227</v>
+      </c>
+      <c r="D61" t="s" s="22">
+        <v>228</v>
+      </c>
+      <c r="E61" t="s" s="20">
+        <v>231</v>
+      </c>
+      <c r="F61" t="s" s="20">
+        <v>232</v>
+      </c>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" ht="32.05" customHeight="1">
+      <c r="A62" s="11">
+        <v>153.09</v>
+      </c>
+      <c r="B62" s="17">
+        <v>217</v>
+      </c>
+      <c r="C62" t="s" s="18">
+        <v>227</v>
+      </c>
+      <c r="D62" t="s" s="22">
+        <v>228</v>
+      </c>
+      <c r="E62" t="s" s="20">
+        <v>233</v>
+      </c>
+      <c r="F62" t="s" s="20">
+        <v>234</v>
+      </c>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" ht="32.05" customHeight="1">
+      <c r="A63" s="11">
+        <v>154.03</v>
+      </c>
+      <c r="B63" s="17">
+        <v>233</v>
+      </c>
+      <c r="C63" t="s" s="18">
+        <v>235</v>
+      </c>
+      <c r="D63" t="s" s="22">
+        <v>236</v>
+      </c>
+      <c r="E63" t="s" s="20">
+        <v>237</v>
+      </c>
+      <c r="F63" t="s" s="20">
+        <v>238</v>
+      </c>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" ht="32.05" customHeight="1">
+      <c r="A64" s="11">
+        <v>159.05</v>
+      </c>
+      <c r="B64" s="17">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s" s="18">
+        <v>239</v>
+      </c>
+      <c r="D64" t="s" s="22">
+        <v>240</v>
+      </c>
+      <c r="E64" t="s" s="20">
+        <v>241</v>
+      </c>
+      <c r="F64" t="s" s="20">
+        <v>242</v>
+      </c>
+      <c r="G64" s="21"/>
+    </row>
+    <row r="65" ht="44.05" customHeight="1">
+      <c r="A65" s="11">
+        <v>161.06</v>
+      </c>
+      <c r="B65" s="17">
+        <v>270</v>
+      </c>
+      <c r="C65" t="s" s="18">
+        <v>243</v>
+      </c>
+      <c r="D65" t="s" s="19">
+        <v>244</v>
+      </c>
+      <c r="E65" t="s" s="20">
+        <v>245</v>
+      </c>
+      <c r="F65" t="s" s="20">
+        <v>246</v>
+      </c>
+      <c r="G65" t="s" s="23">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" ht="44.05" customHeight="1">
+      <c r="A66" s="11">
+        <v>168.06</v>
+      </c>
+      <c r="B66" s="17">
+        <v>92</v>
+      </c>
+      <c r="C66" t="s" s="18">
+        <v>248</v>
+      </c>
+      <c r="D66" t="s" s="22">
+        <v>249</v>
+      </c>
+      <c r="E66" t="s" s="20">
+        <v>188</v>
+      </c>
+      <c r="F66" t="s" s="20">
+        <v>250</v>
+      </c>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" ht="44.05" customHeight="1">
+      <c r="A67" s="11">
+        <v>172.06</v>
+      </c>
+      <c r="B67" s="17">
+        <v>323</v>
+      </c>
+      <c r="C67" t="s" s="18">
+        <v>251</v>
+      </c>
+      <c r="D67" t="s" s="19">
+        <v>252</v>
+      </c>
+      <c r="E67" t="s" s="20">
+        <v>253</v>
+      </c>
+      <c r="F67" t="s" s="20">
+        <v>254</v>
+      </c>
+      <c r="G67" t="s" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" ht="32.05" customHeight="1">
+      <c r="A68" s="11">
+        <v>174.05</v>
+      </c>
+      <c r="B68" s="17">
+        <v>58</v>
+      </c>
+      <c r="C68" t="s" s="18">
+        <v>255</v>
+      </c>
+      <c r="D68" t="s" s="22">
+        <v>256</v>
+      </c>
+      <c r="E68" t="s" s="20">
+        <v>257</v>
+      </c>
+      <c r="F68" t="s" s="20">
+        <v>258</v>
+      </c>
+      <c r="G68" s="21"/>
+    </row>
+    <row r="69" ht="32.05" customHeight="1">
+      <c r="A69" s="11">
+        <v>176.06</v>
+      </c>
+      <c r="B69" s="17">
+        <v>119</v>
+      </c>
+      <c r="C69" t="s" s="18">
+        <v>259</v>
+      </c>
+      <c r="D69" t="s" s="22">
+        <v>260</v>
+      </c>
+      <c r="E69" t="s" s="20">
+        <v>261</v>
+      </c>
+      <c r="F69" t="s" s="20">
+        <v>262</v>
+      </c>
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" ht="32.05" customHeight="1">
+      <c r="A70" s="11">
+        <v>177.05</v>
+      </c>
+      <c r="B70" s="17">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s" s="18">
+        <v>263</v>
+      </c>
+      <c r="D70" t="s" s="22">
+        <v>264</v>
+      </c>
+      <c r="E70" t="s" s="20">
+        <v>265</v>
+      </c>
+      <c r="F70" t="s" s="20">
+        <v>266</v>
+      </c>
+      <c r="G70" t="s" s="23">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" ht="32.05" customHeight="1">
+      <c r="A71" s="11">
+        <v>187.07</v>
+      </c>
+      <c r="B71" s="17">
+        <v>109</v>
+      </c>
+      <c r="C71" t="s" s="18">
+        <v>268</v>
+      </c>
+      <c r="D71" t="s" s="22">
+        <v>269</v>
+      </c>
+      <c r="E71" t="s" s="20">
+        <v>270</v>
+      </c>
+      <c r="F71" t="s" s="20">
+        <v>271</v>
+      </c>
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" ht="32.05" customHeight="1">
+      <c r="A72" s="11">
+        <v>194.06</v>
+      </c>
+      <c r="B72" s="17">
+        <v>256</v>
+      </c>
+      <c r="C72" t="s" s="18">
+        <v>272</v>
+      </c>
+      <c r="D72" t="s" s="22">
+        <v>273</v>
+      </c>
+      <c r="E72" t="s" s="20">
+        <v>274</v>
+      </c>
+      <c r="F72" t="s" s="20">
+        <v>275</v>
+      </c>
+      <c r="G72" t="s" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" ht="44.05" customHeight="1">
+      <c r="A73" s="11">
+        <v>244.03</v>
+      </c>
+      <c r="B73" s="17">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s" s="18">
+        <v>276</v>
+      </c>
+      <c r="D73" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E73" t="s" s="20">
+        <v>278</v>
+      </c>
+      <c r="F73" t="s" s="20">
+        <v>279</v>
+      </c>
+      <c r="G73" s="21"/>
+    </row>
+    <row r="74" ht="32.05" customHeight="1">
+      <c r="A74" s="11">
+        <v>244.1</v>
+      </c>
+      <c r="B74" s="17">
+        <v>117</v>
+      </c>
+      <c r="C74" t="s" s="18">
+        <v>276</v>
+      </c>
+      <c r="D74" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E74" t="s" s="20">
+        <v>280</v>
+      </c>
+      <c r="F74" t="s" s="20">
+        <v>281</v>
+      </c>
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" ht="32.05" customHeight="1">
+      <c r="A75" s="11">
+        <v>244.15</v>
+      </c>
+      <c r="B75" s="17">
+        <v>98</v>
+      </c>
+      <c r="C75" t="s" s="18">
+        <v>276</v>
+      </c>
+      <c r="D75" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E75" t="s" s="20">
+        <v>282</v>
+      </c>
+      <c r="F75" t="s" s="20">
+        <v>283</v>
+      </c>
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" ht="32.05" customHeight="1">
+      <c r="A76" s="11">
+        <v>244.25</v>
+      </c>
+      <c r="B76" s="17">
+        <v>115</v>
+      </c>
+      <c r="C76" t="s" s="18">
+        <v>276</v>
+      </c>
+      <c r="D76" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E76" t="s" s="20">
+        <v>284</v>
+      </c>
+      <c r="F76" t="s" s="20">
+        <v>285</v>
+      </c>
+      <c r="G76" s="21"/>
+    </row>
+    <row r="77" ht="32.05" customHeight="1">
+      <c r="A77" s="11">
+        <v>244.32</v>
+      </c>
+      <c r="B77" s="17">
+        <v>118</v>
+      </c>
+      <c r="C77" t="s" s="18">
+        <v>276</v>
+      </c>
+      <c r="D77" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E77" t="s" s="20">
+        <v>286</v>
+      </c>
+      <c r="F77" t="s" s="20">
+        <v>287</v>
+      </c>
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" ht="32.05" customHeight="1">
+      <c r="A78" s="11">
+        <v>244.37</v>
+      </c>
+      <c r="B78" s="17">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s" s="18">
+        <v>276</v>
+      </c>
+      <c r="D78" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E78" t="s" s="20">
+        <v>288</v>
+      </c>
+      <c r="F78" t="s" s="20">
+        <v>289</v>
+      </c>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" ht="32.05" customHeight="1">
+      <c r="A79" s="11">
+        <v>244.4</v>
+      </c>
+      <c r="B79" s="17">
+        <v>121</v>
+      </c>
+      <c r="C79" t="s" s="18">
+        <v>276</v>
+      </c>
+      <c r="D79" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E79" t="s" s="20">
+        <v>290</v>
+      </c>
+      <c r="F79" t="s" s="20">
+        <v>291</v>
+      </c>
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" ht="32.05" customHeight="1">
+      <c r="A80" s="11">
+        <v>244.44</v>
+      </c>
+      <c r="B80" s="17">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s" s="18">
+        <v>276</v>
+      </c>
+      <c r="D80" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E80" t="s" s="20">
+        <v>292</v>
+      </c>
+      <c r="F80" t="s" s="20">
+        <v>293</v>
+      </c>
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" ht="44.05" customHeight="1">
+      <c r="A81" s="11">
+        <v>244.46</v>
+      </c>
+      <c r="B81" s="17">
+        <v>105</v>
+      </c>
+      <c r="C81" t="s" s="18">
+        <v>276</v>
+      </c>
+      <c r="D81" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E81" t="s" s="20">
+        <v>294</v>
+      </c>
+      <c r="F81" t="s" s="20">
+        <v>295</v>
+      </c>
+      <c r="G81" s="21"/>
+    </row>
+    <row r="82" ht="32.05" customHeight="1">
+      <c r="A82" s="11">
+        <v>244.54</v>
+      </c>
+      <c r="B82" s="17">
+        <v>74</v>
+      </c>
+      <c r="C82" t="s" s="18">
+        <v>276</v>
+      </c>
+      <c r="D82" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E82" t="s" s="20">
+        <v>296</v>
+      </c>
+      <c r="F82" t="s" s="20">
+        <v>297</v>
+      </c>
+      <c r="G82" s="21"/>
+    </row>
+    <row r="83" ht="32.05" customHeight="1">
+      <c r="A83" s="11">
+        <v>244.62</v>
+      </c>
+      <c r="B83" s="17">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s" s="18">
+        <v>276</v>
+      </c>
+      <c r="D83" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E83" t="s" s="20">
+        <v>298</v>
+      </c>
+      <c r="F83" t="s" s="20">
+        <v>299</v>
+      </c>
+      <c r="G83" s="21"/>
+    </row>
+    <row r="84" ht="20.05" customHeight="1">
+      <c r="A84" s="11">
+        <v>245.03</v>
+      </c>
+      <c r="B84" s="17">
+        <v>59</v>
+      </c>
+      <c r="C84" t="s" s="18">
+        <v>300</v>
+      </c>
+      <c r="D84" t="s" s="22">
+        <v>301</v>
+      </c>
+      <c r="E84" t="s" s="20">
+        <v>302</v>
+      </c>
+      <c r="F84" t="s" s="20">
+        <v>303</v>
+      </c>
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" ht="32.05" customHeight="1">
+      <c r="A85" s="11">
+        <v>245.11</v>
+      </c>
+      <c r="B85" s="17">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s" s="18">
+        <v>300</v>
+      </c>
+      <c r="D85" t="s" s="22">
+        <v>301</v>
+      </c>
+      <c r="E85" t="s" s="20">
+        <v>288</v>
+      </c>
+      <c r="F85" t="s" s="20">
+        <v>304</v>
+      </c>
+      <c r="G85" s="21"/>
+    </row>
+    <row r="86" ht="41" customHeight="1">
+      <c r="A86" s="11">
+        <v>245.14</v>
+      </c>
+      <c r="B86" s="17">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s" s="18">
+        <v>300</v>
+      </c>
+      <c r="D86" t="s" s="22">
+        <v>301</v>
+      </c>
+      <c r="E86" t="s" s="20">
+        <v>305</v>
+      </c>
+      <c r="F86" t="s" s="20">
+        <v>306</v>
+      </c>
+      <c r="G86" t="s" s="23">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="87" ht="32.05" customHeight="1">
+      <c r="A87" s="11">
+        <v>245.15</v>
+      </c>
+      <c r="B87" s="17">
+        <v>81</v>
+      </c>
+      <c r="C87" t="s" s="18">
+        <v>300</v>
+      </c>
+      <c r="D87" t="s" s="22">
+        <v>301</v>
+      </c>
+      <c r="E87" t="s" s="20">
+        <v>308</v>
+      </c>
+      <c r="F87" t="s" s="20">
+        <v>309</v>
+      </c>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" ht="32.05" customHeight="1">
+      <c r="A88" s="11">
+        <v>245.17</v>
+      </c>
+      <c r="B88" s="17">
+        <v>111</v>
+      </c>
+      <c r="C88" t="s" s="18">
+        <v>300</v>
+      </c>
+      <c r="D88" t="s" s="22">
+        <v>301</v>
+      </c>
+      <c r="E88" t="s" s="20">
+        <v>310</v>
+      </c>
+      <c r="F88" t="s" s="20">
+        <v>311</v>
+      </c>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" ht="44.05" customHeight="1">
+      <c r="A89" s="11">
+        <v>245.22</v>
+      </c>
+      <c r="B89" s="17">
+        <v>310</v>
+      </c>
+      <c r="C89" t="s" s="18">
+        <v>300</v>
+      </c>
+      <c r="D89" t="s" s="22">
+        <v>301</v>
+      </c>
+      <c r="E89" t="s" s="20">
+        <v>312</v>
+      </c>
+      <c r="F89" t="s" s="20">
+        <v>313</v>
+      </c>
+      <c r="G89" s="21"/>
+    </row>
+    <row r="90" ht="32.05" customHeight="1">
+      <c r="A90" s="11">
+        <v>245.26</v>
+      </c>
+      <c r="B90" s="17">
+        <v>108</v>
+      </c>
+      <c r="C90" t="s" s="18">
+        <v>300</v>
+      </c>
+      <c r="D90" t="s" s="22">
+        <v>301</v>
+      </c>
+      <c r="E90" t="s" s="20">
+        <v>314</v>
+      </c>
+      <c r="F90" t="s" s="20">
+        <v>315</v>
+      </c>
+      <c r="G90" s="21"/>
+    </row>
+    <row r="91" ht="32.05" customHeight="1">
+      <c r="A91" s="11">
+        <v>245.28</v>
+      </c>
+      <c r="B91" s="17">
+        <v>106</v>
+      </c>
+      <c r="C91" t="s" s="18">
+        <v>300</v>
+      </c>
+      <c r="D91" t="s" s="22">
+        <v>301</v>
+      </c>
+      <c r="E91" t="s" s="20">
+        <v>316</v>
+      </c>
+      <c r="F91" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="G91" s="21"/>
+    </row>
+    <row r="92" ht="32.05" customHeight="1">
+      <c r="A92" s="11">
+        <v>245.37</v>
+      </c>
+      <c r="B92" s="17">
+        <v>113</v>
+      </c>
+      <c r="C92" t="s" s="18">
+        <v>300</v>
+      </c>
+      <c r="D92" t="s" s="22">
+        <v>301</v>
+      </c>
+      <c r="E92" t="s" s="20">
+        <v>318</v>
+      </c>
+      <c r="F92" t="s" s="20">
+        <v>319</v>
+      </c>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" ht="32.05" customHeight="1">
+      <c r="A93" s="11">
+        <v>245.4</v>
+      </c>
+      <c r="B93" s="17">
+        <v>107</v>
+      </c>
+      <c r="C93" t="s" s="18">
+        <v>300</v>
+      </c>
+      <c r="D93" t="s" s="22">
+        <v>301</v>
+      </c>
+      <c r="E93" t="s" s="20">
+        <v>320</v>
+      </c>
+      <c r="F93" t="s" s="20">
+        <v>321</v>
+      </c>
+      <c r="G93" s="21"/>
+    </row>
+    <row r="94" ht="32.05" customHeight="1">
+      <c r="A94" s="11">
+        <v>248.05</v>
+      </c>
+      <c r="B94" s="17">
+        <v>345</v>
+      </c>
+      <c r="C94" t="s" s="18">
+        <v>322</v>
+      </c>
+      <c r="D94" t="s" s="19">
+        <v>323</v>
+      </c>
+      <c r="E94" t="s" s="20">
+        <v>324</v>
+      </c>
+      <c r="F94" t="s" s="20">
+        <v>325</v>
+      </c>
+      <c r="G94" s="21"/>
+    </row>
+    <row r="95" ht="32.05" customHeight="1">
+      <c r="A95" s="11">
+        <v>248.09</v>
+      </c>
+      <c r="B95" s="17">
+        <v>46</v>
+      </c>
+      <c r="C95" t="s" s="18">
+        <v>322</v>
+      </c>
+      <c r="D95" t="s" s="19">
+        <v>323</v>
+      </c>
+      <c r="E95" t="s" s="20">
+        <v>326</v>
+      </c>
+      <c r="F95" t="s" s="20">
+        <v>327</v>
+      </c>
+      <c r="G95" t="s" s="23">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" ht="32.05" customHeight="1">
+      <c r="A96" s="11">
+        <v>248.12</v>
+      </c>
+      <c r="B96" s="17">
+        <v>361</v>
+      </c>
+      <c r="C96" t="s" s="18">
+        <v>322</v>
+      </c>
+      <c r="D96" t="s" s="19">
+        <v>323</v>
+      </c>
+      <c r="E96" t="s" s="20">
+        <v>329</v>
+      </c>
+      <c r="F96" t="s" s="20">
+        <v>330</v>
+      </c>
+      <c r="G96" s="21"/>
+    </row>
+    <row r="97" ht="32.05" customHeight="1">
+      <c r="A97" s="11">
+        <v>248.23</v>
+      </c>
+      <c r="B97" s="17">
+        <v>344</v>
+      </c>
+      <c r="C97" t="s" s="18">
+        <v>322</v>
+      </c>
+      <c r="D97" t="s" s="19">
+        <v>323</v>
+      </c>
+      <c r="E97" t="s" s="20">
+        <v>331</v>
+      </c>
+      <c r="F97" t="s" s="20">
+        <v>332</v>
+      </c>
+      <c r="G97" t="s" s="23">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" ht="32.05" customHeight="1">
+      <c r="A98" s="11">
+        <v>248.33</v>
+      </c>
+      <c r="B98" s="17">
+        <v>139</v>
+      </c>
+      <c r="C98" t="s" s="18">
+        <v>322</v>
+      </c>
+      <c r="D98" t="s" s="19">
+        <v>323</v>
+      </c>
+      <c r="E98" t="s" s="20">
+        <v>333</v>
+      </c>
+      <c r="F98" t="s" s="20">
+        <v>334</v>
+      </c>
+      <c r="G98" s="21"/>
+    </row>
+    <row r="99" ht="20.05" customHeight="1">
+      <c r="A99" s="11">
+        <v>248.35</v>
+      </c>
+      <c r="B99" s="17">
+        <v>360</v>
+      </c>
+      <c r="C99" t="s" s="18">
+        <v>322</v>
+      </c>
+      <c r="D99" t="s" s="19">
+        <v>323</v>
+      </c>
+      <c r="E99" t="s" s="20">
+        <v>335</v>
+      </c>
+      <c r="F99" t="s" s="20">
+        <v>336</v>
+      </c>
+      <c r="G99" s="21"/>
+    </row>
+    <row r="100" ht="32.05" customHeight="1">
+      <c r="A100" s="11">
+        <v>248.42</v>
+      </c>
+      <c r="B100" s="17">
+        <v>368</v>
+      </c>
+      <c r="C100" t="s" s="18">
+        <v>322</v>
+      </c>
+      <c r="D100" t="s" s="19">
+        <v>323</v>
+      </c>
+      <c r="E100" t="s" s="20">
+        <v>337</v>
+      </c>
+      <c r="F100" t="s" s="20">
+        <v>338</v>
+      </c>
+      <c r="G100" t="s" s="23">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" ht="32.05" customHeight="1">
+      <c r="A101" s="11">
+        <v>248.46</v>
+      </c>
+      <c r="B101" s="17">
+        <v>77</v>
+      </c>
+      <c r="C101" t="s" s="18">
+        <v>322</v>
+      </c>
+      <c r="D101" t="s" s="19">
+        <v>323</v>
+      </c>
+      <c r="E101" t="s" s="20">
+        <v>339</v>
+      </c>
+      <c r="F101" t="s" s="20">
+        <v>340</v>
+      </c>
+      <c r="G101" s="21"/>
+    </row>
+    <row r="102" ht="32.05" customHeight="1">
+      <c r="A102" s="11">
+        <v>248.53</v>
+      </c>
+      <c r="B102" s="17">
+        <v>35</v>
+      </c>
+      <c r="C102" t="s" s="18">
+        <v>322</v>
+      </c>
+      <c r="D102" t="s" s="19">
+        <v>323</v>
+      </c>
+      <c r="E102" t="s" s="20">
+        <v>341</v>
+      </c>
+      <c r="F102" t="s" s="20">
+        <v>342</v>
+      </c>
+      <c r="G102" s="21"/>
+    </row>
+    <row r="103" ht="32.05" customHeight="1">
+      <c r="A103" s="11">
+        <v>248.59</v>
+      </c>
+      <c r="B103" s="17">
+        <v>362</v>
+      </c>
+      <c r="C103" t="s" s="18">
+        <v>322</v>
+      </c>
+      <c r="D103" t="s" s="19">
+        <v>323</v>
+      </c>
+      <c r="E103" t="s" s="20">
+        <v>343</v>
+      </c>
+      <c r="F103" t="s" s="20">
+        <v>344</v>
+      </c>
+      <c r="G103" s="21"/>
+    </row>
+    <row r="104" ht="32.05" customHeight="1">
+      <c r="A104" t="s" s="25">
+        <v>345</v>
+      </c>
+      <c r="B104" s="17">
+        <v>347</v>
+      </c>
+      <c r="C104" s="28"/>
+      <c r="D104" s="29"/>
+      <c r="E104" t="s" s="20">
+        <v>346</v>
+      </c>
+      <c r="F104" t="s" s="20">
+        <v>347</v>
+      </c>
+      <c r="G104" t="s" s="23">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" ht="32.05" customHeight="1">
+      <c r="A105" t="s" s="25">
+        <v>348</v>
+      </c>
+      <c r="B105" s="17">
+        <v>329</v>
+      </c>
+      <c r="C105" s="28"/>
+      <c r="D105" s="29"/>
+      <c r="E105" t="s" s="20">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s" s="20">
+        <v>349</v>
+      </c>
+      <c r="G105" t="s" s="23">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" ht="32.35" customHeight="1">
+      <c r="A106" t="s" s="30">
+        <v>350</v>
+      </c>
+      <c r="B106" s="31">
+        <v>330</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="D106" s="33"/>
+      <c r="E106" t="s" s="34">
+        <v>351</v>
+      </c>
+      <c r="F106" t="s" s="34">
+        <v>352</v>
+      </c>
+      <c r="G106" t="s" s="35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" ht="20.35" customHeight="1">
+      <c r="A107" t="s" s="36">
+        <v>353</v>
+      </c>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="38"/>
+    </row>
+    <row r="108" ht="32.35" customHeight="1">
+      <c r="A108" t="s" s="8">
+        <v>354</v>
+      </c>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="G108" t="s" s="10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="109" ht="32.65" customHeight="1">
+      <c r="A109" t="s" s="40">
+        <v>356</v>
+      </c>
+      <c r="B109" s="41"/>
+      <c r="C109" t="s" s="42">
+        <v>357</v>
+      </c>
+      <c r="D109" t="s" s="43">
+        <v>358</v>
+      </c>
+      <c r="E109" t="s" s="15">
+        <v>359</v>
+      </c>
+      <c r="F109" t="s" s="15">
+        <v>360</v>
+      </c>
+      <c r="G109" s="16"/>
+    </row>
+    <row r="110" ht="32.35" customHeight="1">
+      <c r="A110" t="s" s="40">
+        <v>361</v>
+      </c>
+      <c r="B110" s="44"/>
+      <c r="C110" t="s" s="45">
+        <v>362</v>
+      </c>
+      <c r="D110" t="s" s="19">
+        <v>363</v>
+      </c>
+      <c r="E110" t="s" s="20">
+        <v>364</v>
+      </c>
+      <c r="F110" t="s" s="20">
+        <v>365</v>
+      </c>
+      <c r="G110" t="s" s="23">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" ht="32.35" customHeight="1">
+      <c r="A111" t="s" s="40">
+        <v>366</v>
+      </c>
+      <c r="B111" s="44"/>
+      <c r="C111" t="s" s="45">
         <v>130</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="D111" t="s" s="22">
         <v>131</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A36" s="5">
-        <v>73.05</v>
-      </c>
-      <c r="B36" s="11">
-        <v>191</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A37" s="5">
-        <v>74.08</v>
-      </c>
-      <c r="B37" s="11">
+      <c r="E111" t="s" s="20">
+        <v>367</v>
+      </c>
+      <c r="F111" t="s" s="20">
+        <v>368</v>
+      </c>
+      <c r="G111" s="21"/>
+    </row>
+    <row r="112" ht="32.35" customHeight="1">
+      <c r="A112" t="s" s="40">
+        <v>369</v>
+      </c>
+      <c r="B112" s="44"/>
+      <c r="C112" t="s" s="45">
         <v>370</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A38" s="5">
-        <v>78.069999999999993</v>
-      </c>
-      <c r="B38" s="11">
-        <v>297</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A39" s="5">
-        <v>81.069999999999993</v>
-      </c>
-      <c r="B39" s="11">
-        <v>324</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A40" s="5">
-        <v>83.05</v>
-      </c>
-      <c r="B40" s="11">
-        <v>325</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40" s="14" t="s">
+      <c r="D112" t="s" s="22">
+        <v>131</v>
+      </c>
+      <c r="E112" t="s" s="20">
+        <v>371</v>
+      </c>
+      <c r="F112" t="s" s="20">
+        <v>372</v>
+      </c>
+      <c r="G112" s="21"/>
+    </row>
+    <row r="113" ht="32.35" customHeight="1">
+      <c r="A113" t="s" s="40">
+        <v>373</v>
+      </c>
+      <c r="B113" s="44"/>
+      <c r="C113" t="s" s="45">
+        <v>374</v>
+      </c>
+      <c r="D113" t="s" s="22">
+        <v>375</v>
+      </c>
+      <c r="E113" t="s" s="20">
+        <v>284</v>
+      </c>
+      <c r="F113" t="s" s="20">
+        <v>376</v>
+      </c>
+      <c r="G113" s="21"/>
+    </row>
+    <row r="114" ht="32.35" customHeight="1">
+      <c r="A114" t="s" s="40">
+        <v>377</v>
+      </c>
+      <c r="B114" s="44"/>
+      <c r="C114" t="s" s="45">
+        <v>378</v>
+      </c>
+      <c r="D114" t="s" s="22">
+        <v>379</v>
+      </c>
+      <c r="E114" t="s" s="20">
+        <v>380</v>
+      </c>
+      <c r="F114" t="s" s="20">
+        <v>381</v>
+      </c>
+      <c r="G114" t="s" s="23">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="115" ht="32.35" customHeight="1">
+      <c r="A115" t="s" s="40">
+        <v>383</v>
+      </c>
+      <c r="B115" s="44"/>
+      <c r="C115" t="s" s="45">
+        <v>384</v>
+      </c>
+      <c r="D115" t="s" s="22">
+        <v>385</v>
+      </c>
+      <c r="E115" t="s" s="20">
+        <v>386</v>
+      </c>
+      <c r="F115" t="s" s="20">
+        <v>387</v>
+      </c>
+      <c r="G115" s="21"/>
+    </row>
+    <row r="116" ht="32.05" customHeight="1">
+      <c r="A116" t="s" s="40">
+        <v>388</v>
+      </c>
+      <c r="B116" s="44"/>
+      <c r="C116" t="s" s="45">
+        <v>389</v>
+      </c>
+      <c r="D116" t="s" s="22">
+        <v>390</v>
+      </c>
+      <c r="E116" t="s" s="20">
+        <v>40</v>
+      </c>
+      <c r="F116" t="s" s="20">
+        <v>391</v>
+      </c>
+      <c r="G116" t="s" s="23">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="117" ht="32.35" customHeight="1">
+      <c r="A117" t="s" s="40">
+        <v>393</v>
+      </c>
+      <c r="B117" s="44"/>
+      <c r="C117" t="s" s="45">
+        <v>346</v>
+      </c>
+      <c r="D117" t="s" s="22">
+        <v>394</v>
+      </c>
+      <c r="E117" t="s" s="20">
+        <v>346</v>
+      </c>
+      <c r="F117" t="s" s="20">
+        <v>395</v>
+      </c>
+      <c r="G117" t="s" s="23">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="118" ht="44.35" customHeight="1">
+      <c r="A118" t="s" s="40">
+        <v>397</v>
+      </c>
+      <c r="B118" s="44"/>
+      <c r="C118" t="s" s="45">
+        <v>398</v>
+      </c>
+      <c r="D118" t="s" s="22">
+        <v>399</v>
+      </c>
+      <c r="E118" t="s" s="20">
+        <v>400</v>
+      </c>
+      <c r="F118" t="s" s="20">
+        <v>401</v>
+      </c>
+      <c r="G118" t="s" s="23">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" ht="32.35" customHeight="1">
+      <c r="A119" t="s" s="40">
+        <v>402</v>
+      </c>
+      <c r="B119" s="44"/>
+      <c r="C119" t="s" s="45">
+        <v>186</v>
+      </c>
+      <c r="D119" t="s" s="22">
+        <v>187</v>
+      </c>
+      <c r="E119" t="s" s="20">
+        <v>186</v>
+      </c>
+      <c r="F119" t="s" s="20">
+        <v>403</v>
+      </c>
+      <c r="G119" t="s" s="23">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="120" ht="32.35" customHeight="1">
+      <c r="A120" t="s" s="40">
+        <v>404</v>
+      </c>
+      <c r="B120" s="44"/>
+      <c r="C120" t="s" s="45">
+        <v>405</v>
+      </c>
+      <c r="D120" t="s" s="22">
+        <v>406</v>
+      </c>
+      <c r="E120" t="s" s="20">
+        <v>407</v>
+      </c>
+      <c r="F120" t="s" s="20">
+        <v>408</v>
+      </c>
+      <c r="G120" s="21"/>
+    </row>
+    <row r="121" ht="32.35" customHeight="1">
+      <c r="A121" t="s" s="40">
+        <v>409</v>
+      </c>
+      <c r="B121" s="44"/>
+      <c r="C121" t="s" s="45">
+        <v>410</v>
+      </c>
+      <c r="D121" t="s" s="22">
+        <v>411</v>
+      </c>
+      <c r="E121" t="s" s="20">
         <v>152</v>
       </c>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A41" s="5">
-        <v>89.06</v>
-      </c>
-      <c r="B41" s="11">
-        <v>281</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A42" s="5">
-        <v>91.06</v>
-      </c>
-      <c r="B42" s="11">
-        <v>51</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A43" s="5">
-        <v>94.08</v>
-      </c>
-      <c r="B43" s="11">
-        <v>291</v>
-      </c>
-      <c r="C43" s="12" t="s">
+      <c r="F121" t="s" s="20">
+        <v>412</v>
+      </c>
+      <c r="G121" s="21"/>
+    </row>
+    <row r="122" ht="32.35" customHeight="1">
+      <c r="A122" t="s" s="40">
+        <v>413</v>
+      </c>
+      <c r="B122" s="44"/>
+      <c r="C122" t="s" s="45">
+        <v>414</v>
+      </c>
+      <c r="D122" t="s" s="22">
+        <v>415</v>
+      </c>
+      <c r="E122" t="s" s="20">
+        <v>416</v>
+      </c>
+      <c r="F122" t="s" s="20">
+        <v>417</v>
+      </c>
+      <c r="G122" t="s" s="23">
         <v>162</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="E43" s="14" t="s">
+    </row>
+    <row r="123" ht="32.35" customHeight="1">
+      <c r="A123" t="s" s="40">
+        <v>418</v>
+      </c>
+      <c r="B123" s="44"/>
+      <c r="C123" t="s" s="45">
+        <v>419</v>
+      </c>
+      <c r="D123" t="s" s="22">
+        <v>420</v>
+      </c>
+      <c r="E123" t="s" s="20">
+        <v>421</v>
+      </c>
+      <c r="F123" t="s" s="20">
+        <v>422</v>
+      </c>
+      <c r="G123" t="s" s="23">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" ht="32.35" customHeight="1">
+      <c r="A124" t="s" s="40">
+        <v>423</v>
+      </c>
+      <c r="B124" s="44"/>
+      <c r="C124" t="s" s="45">
+        <v>424</v>
+      </c>
+      <c r="D124" t="s" s="22">
+        <v>425</v>
+      </c>
+      <c r="E124" t="s" s="20">
+        <v>426</v>
+      </c>
+      <c r="F124" t="s" s="20">
+        <v>427</v>
+      </c>
+      <c r="G124" s="21"/>
+    </row>
+    <row r="125" ht="44.35" customHeight="1">
+      <c r="A125" t="s" s="40">
+        <v>428</v>
+      </c>
+      <c r="B125" s="44"/>
+      <c r="C125" t="s" s="45">
+        <v>429</v>
+      </c>
+      <c r="D125" t="s" s="22">
+        <v>430</v>
+      </c>
+      <c r="E125" t="s" s="20">
+        <v>431</v>
+      </c>
+      <c r="F125" t="s" s="20">
+        <v>432</v>
+      </c>
+      <c r="G125" t="s" s="23">
         <v>162</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A44" s="5">
-        <v>96.06</v>
-      </c>
-      <c r="B44" s="11">
-        <v>303</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A45" s="5">
-        <v>102.07</v>
-      </c>
-      <c r="B45" s="11">
-        <v>110</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" s="14" t="s">
+    </row>
+    <row r="126" ht="32.35" customHeight="1">
+      <c r="A126" t="s" s="40">
+        <v>433</v>
+      </c>
+      <c r="B126" s="44"/>
+      <c r="C126" t="s" s="45">
+        <v>434</v>
+      </c>
+      <c r="D126" t="s" s="22">
+        <v>435</v>
+      </c>
+      <c r="E126" t="s" s="20">
+        <v>436</v>
+      </c>
+      <c r="F126" t="s" s="20">
+        <v>437</v>
+      </c>
+      <c r="G126" s="21"/>
+    </row>
+    <row r="127" ht="32.35" customHeight="1">
+      <c r="A127" t="s" s="40">
+        <v>438</v>
+      </c>
+      <c r="B127" s="44"/>
+      <c r="C127" t="s" s="45">
+        <v>439</v>
+      </c>
+      <c r="D127" t="s" s="19">
+        <v>440</v>
+      </c>
+      <c r="E127" t="s" s="20">
+        <v>320</v>
+      </c>
+      <c r="F127" t="s" s="20">
+        <v>441</v>
+      </c>
+      <c r="G127" t="s" s="23">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="128" ht="32.35" customHeight="1">
+      <c r="A128" t="s" s="40">
+        <v>443</v>
+      </c>
+      <c r="B128" s="44"/>
+      <c r="C128" t="s" s="45">
+        <v>444</v>
+      </c>
+      <c r="D128" t="s" s="19">
+        <v>445</v>
+      </c>
+      <c r="E128" t="s" s="20">
+        <v>405</v>
+      </c>
+      <c r="F128" t="s" s="20">
+        <v>446</v>
+      </c>
+      <c r="G128" s="21"/>
+    </row>
+    <row r="129" ht="44.05" customHeight="1">
+      <c r="A129" t="s" s="40">
+        <v>447</v>
+      </c>
+      <c r="B129" s="44"/>
+      <c r="C129" t="s" s="45">
+        <v>448</v>
+      </c>
+      <c r="D129" t="s" s="19">
+        <v>358</v>
+      </c>
+      <c r="E129" t="s" s="20">
+        <v>449</v>
+      </c>
+      <c r="F129" t="s" s="20">
+        <v>450</v>
+      </c>
+      <c r="G129" t="s" s="23">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" ht="41" customHeight="1">
+      <c r="A130" t="s" s="40">
+        <v>451</v>
+      </c>
+      <c r="B130" s="44"/>
+      <c r="C130" t="s" s="45">
+        <v>452</v>
+      </c>
+      <c r="D130" t="s" s="19">
+        <v>453</v>
+      </c>
+      <c r="E130" t="s" s="20">
+        <v>454</v>
+      </c>
+      <c r="F130" t="s" s="20">
+        <v>455</v>
+      </c>
+      <c r="G130" t="s" s="23">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" ht="32.35" customHeight="1">
+      <c r="A131" t="s" s="40">
+        <v>457</v>
+      </c>
+      <c r="B131" s="44"/>
+      <c r="C131" t="s" s="45">
+        <v>458</v>
+      </c>
+      <c r="D131" t="s" s="22">
+        <v>459</v>
+      </c>
+      <c r="E131" t="s" s="20">
+        <v>263</v>
+      </c>
+      <c r="F131" t="s" s="20">
+        <v>460</v>
+      </c>
+      <c r="G131" t="s" s="23">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" ht="32.35" customHeight="1">
+      <c r="A132" t="s" s="40">
+        <v>461</v>
+      </c>
+      <c r="B132" s="44"/>
+      <c r="C132" t="s" s="45">
+        <v>462</v>
+      </c>
+      <c r="D132" t="s" s="22">
+        <v>463</v>
+      </c>
+      <c r="E132" t="s" s="20">
+        <v>464</v>
+      </c>
+      <c r="F132" t="s" s="20">
+        <v>465</v>
+      </c>
+      <c r="G132" t="s" s="23">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="133" ht="44.05" customHeight="1">
+      <c r="A133" t="s" s="40">
+        <v>467</v>
+      </c>
+      <c r="B133" s="44"/>
+      <c r="C133" t="s" s="45">
+        <v>276</v>
+      </c>
+      <c r="D133" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E133" t="s" s="20">
+        <v>468</v>
+      </c>
+      <c r="F133" t="s" s="20">
+        <v>469</v>
+      </c>
+      <c r="G133" s="21"/>
+    </row>
+    <row r="134" ht="32.35" customHeight="1">
+      <c r="A134" t="s" s="40">
+        <v>470</v>
+      </c>
+      <c r="B134" s="44"/>
+      <c r="C134" t="s" s="45">
+        <v>276</v>
+      </c>
+      <c r="D134" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="E134" s="28"/>
+      <c r="F134" t="s" s="20">
+        <v>471</v>
+      </c>
+      <c r="G134" t="s" s="23">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="135" ht="32.05" customHeight="1">
+      <c r="A135" t="s" s="40">
+        <v>472</v>
+      </c>
+      <c r="B135" s="44"/>
+      <c r="C135" t="s" s="45">
+        <v>300</v>
+      </c>
+      <c r="D135" t="s" s="22">
+        <v>301</v>
+      </c>
+      <c r="E135" t="s" s="20">
+        <v>473</v>
+      </c>
+      <c r="F135" t="s" s="20">
+        <v>474</v>
+      </c>
+      <c r="G135" s="21"/>
+    </row>
+    <row r="136" ht="44.05" customHeight="1">
+      <c r="A136" t="s" s="40">
+        <v>475</v>
+      </c>
+      <c r="B136" s="44"/>
+      <c r="C136" t="s" s="45">
+        <v>322</v>
+      </c>
+      <c r="D136" t="s" s="19">
+        <v>323</v>
+      </c>
+      <c r="E136" t="s" s="20">
+        <v>468</v>
+      </c>
+      <c r="F136" t="s" s="20">
+        <v>469</v>
+      </c>
+      <c r="G136" s="21"/>
+    </row>
+    <row r="137" ht="32.05" customHeight="1">
+      <c r="A137" t="s" s="40">
+        <v>476</v>
+      </c>
+      <c r="B137" s="44"/>
+      <c r="C137" t="s" s="45">
+        <v>322</v>
+      </c>
+      <c r="D137" t="s" s="19">
+        <v>323</v>
+      </c>
+      <c r="E137" t="s" s="20">
+        <v>477</v>
+      </c>
+      <c r="F137" t="s" s="20">
+        <v>478</v>
+      </c>
+      <c r="G137" s="21"/>
+    </row>
+    <row r="138" ht="32.35" customHeight="1">
+      <c r="A138" t="s" s="46">
+        <v>479</v>
+      </c>
+      <c r="B138" s="47"/>
+      <c r="C138" t="s" s="48">
+        <v>322</v>
+      </c>
+      <c r="D138" t="s" s="49">
+        <v>323</v>
+      </c>
+      <c r="E138" t="s" s="34">
+        <v>480</v>
+      </c>
+      <c r="F138" t="s" s="34">
+        <v>481</v>
+      </c>
+      <c r="G138" t="s" s="35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="139" ht="20.35" customHeight="1">
+      <c r="A139" t="s" s="36">
+        <v>482</v>
+      </c>
+      <c r="B139" s="37"/>
+      <c r="C139" s="37"/>
+      <c r="D139" s="37"/>
+      <c r="E139" s="37"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="38"/>
+    </row>
+    <row r="140" ht="32.35" customHeight="1">
+      <c r="A140" t="s" s="8">
+        <v>483</v>
+      </c>
+      <c r="B140" t="s" s="9">
+        <v>484</v>
+      </c>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
+      <c r="E140" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="G140" t="s" s="10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="141" ht="32.35" customHeight="1">
+      <c r="A141" t="s" s="25">
+        <v>485</v>
+      </c>
+      <c r="B141" s="50">
+        <v>232</v>
+      </c>
+      <c r="C141" s="51"/>
+      <c r="D141" s="52"/>
+      <c r="E141" t="s" s="15">
+        <v>486</v>
+      </c>
+      <c r="F141" t="s" s="15">
+        <v>487</v>
+      </c>
+      <c r="G141" s="16"/>
+    </row>
+    <row r="142" ht="41" customHeight="1">
+      <c r="A142" t="s" s="25">
+        <v>488</v>
+      </c>
+      <c r="B142" s="17">
+        <v>234</v>
+      </c>
+      <c r="C142" s="28"/>
+      <c r="D142" s="53"/>
+      <c r="E142" t="s" s="20">
+        <v>489</v>
+      </c>
+      <c r="F142" t="s" s="20">
+        <v>490</v>
+      </c>
+      <c r="G142" t="s" s="23">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="143" ht="32.05" customHeight="1">
+      <c r="A143" t="s" s="25">
+        <v>492</v>
+      </c>
+      <c r="B143" s="17">
+        <v>244</v>
+      </c>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" t="s" s="20">
+        <v>493</v>
+      </c>
+      <c r="F143" t="s" s="20">
+        <v>494</v>
+      </c>
+      <c r="G143" s="21"/>
+    </row>
+    <row r="144" ht="32.05" customHeight="1">
+      <c r="A144" t="s" s="25">
+        <v>495</v>
+      </c>
+      <c r="B144" s="17">
+        <v>346</v>
+      </c>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" t="s" s="20">
+        <v>496</v>
+      </c>
+      <c r="F144" t="s" s="20">
+        <v>497</v>
+      </c>
+      <c r="G144" s="21"/>
+    </row>
+    <row r="145" ht="32.05" customHeight="1">
+      <c r="A145" t="s" s="25">
+        <v>498</v>
+      </c>
+      <c r="B145" s="17">
+        <v>213</v>
+      </c>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" t="s" s="20">
+        <v>499</v>
+      </c>
+      <c r="F145" t="s" s="20">
+        <v>500</v>
+      </c>
+      <c r="G145" s="21"/>
+    </row>
+    <row r="146" ht="32.05" customHeight="1">
+      <c r="A146" t="s" s="25">
+        <v>501</v>
+      </c>
+      <c r="B146" s="17">
         <v>172</v>
       </c>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A46" s="5">
-        <v>104.06</v>
-      </c>
-      <c r="B46" s="11">
-        <v>326</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="G46" s="15"/>
-    </row>
-    <row r="47" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A47" s="5">
-        <v>108.06</v>
-      </c>
-      <c r="B47" s="11">
-        <v>45</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G47" s="15"/>
-    </row>
-    <row r="48" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A48" s="5">
-        <v>112.05</v>
-      </c>
-      <c r="B48" s="11">
-        <v>313</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A49" s="5">
-        <v>113.08</v>
-      </c>
-      <c r="B49" s="11">
-        <v>294</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G49" s="15"/>
-    </row>
-    <row r="50" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A50" s="5">
-        <v>114.07</v>
-      </c>
-      <c r="B50" s="11">
-        <v>301</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A51" s="5">
-        <v>115.06</v>
-      </c>
-      <c r="B51" s="11">
-        <v>38</v>
-      </c>
-      <c r="C51" s="12" t="s">
+      <c r="C146" s="28"/>
+      <c r="D146" s="28"/>
+      <c r="E146" t="s" s="20">
+        <v>502</v>
+      </c>
+      <c r="F146" t="s" s="20">
+        <v>503</v>
+      </c>
+      <c r="G146" s="21"/>
+    </row>
+    <row r="147" ht="32.05" customHeight="1">
+      <c r="A147" t="s" s="25">
+        <v>504</v>
+      </c>
+      <c r="B147" s="17">
+        <v>220</v>
+      </c>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" t="s" s="20">
+        <v>505</v>
+      </c>
+      <c r="F147" t="s" s="20">
+        <v>506</v>
+      </c>
+      <c r="G147" s="21"/>
+    </row>
+    <row r="148" ht="32.35" customHeight="1">
+      <c r="A148" t="s" s="30">
+        <v>507</v>
+      </c>
+      <c r="B148" s="31">
         <v>193</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G51" s="15"/>
-    </row>
-    <row r="52" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A52" s="5">
-        <v>117.04</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A53" s="5">
-        <v>117.09</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A54" s="5">
-        <v>121.06</v>
-      </c>
-      <c r="B54" s="11">
-        <v>56</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="G54" s="15"/>
-    </row>
-    <row r="55" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A55" s="5">
-        <v>126.06</v>
-      </c>
-      <c r="B55" s="11">
-        <v>215</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G55" s="15"/>
-    </row>
-    <row r="56" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A56" s="5">
-        <v>133.06</v>
-      </c>
-      <c r="B56" s="11">
-        <v>60</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A57" s="5">
-        <v>136.06</v>
-      </c>
-      <c r="B57" s="11">
-        <v>331</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A58" s="5">
-        <v>140.07</v>
-      </c>
-      <c r="B58" s="11">
-        <v>179</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A59" s="5">
-        <v>145.05000000000001</v>
-      </c>
-      <c r="B59" s="11">
-        <v>17</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A60" s="5">
-        <v>153.01</v>
-      </c>
-      <c r="B60" s="11">
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" t="s" s="34">
+        <v>508</v>
+      </c>
+      <c r="F148" t="s" s="34">
+        <v>509</v>
+      </c>
+      <c r="G148" s="54"/>
+    </row>
+    <row r="149" ht="20.35" customHeight="1">
+      <c r="A149" t="s" s="36">
+        <v>510</v>
+      </c>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="38"/>
+    </row>
+    <row r="150" ht="32.35" customHeight="1">
+      <c r="A150" t="s" s="8">
+        <v>354</v>
+      </c>
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
+      <c r="E150" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="F150" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="G150" t="s" s="10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="151" ht="20.35" customHeight="1">
+      <c r="A151" s="40"/>
+      <c r="B151" t="s" s="55">
+        <v>511</v>
+      </c>
+      <c r="C151" s="37"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="37"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="38"/>
+    </row>
+    <row r="152" ht="20.85" customHeight="1">
+      <c r="A152" s="56"/>
+      <c r="B152" s="57"/>
+      <c r="C152" s="58"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="58"/>
+      <c r="F152" s="58"/>
+      <c r="G152" s="59"/>
+    </row>
+    <row r="153" ht="26.9" customHeight="1">
+      <c r="A153" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B153" s="60"/>
+      <c r="C153" s="60"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="60"/>
+      <c r="G153" s="61"/>
+    </row>
+    <row r="154" ht="20.25" customHeight="1">
+      <c r="A154" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B154" s="62"/>
+      <c r="C154" s="62"/>
+      <c r="D154" s="62"/>
+      <c r="E154" s="62"/>
+      <c r="F154" s="62"/>
+      <c r="G154" s="63"/>
+    </row>
+    <row r="155" ht="32.35" customHeight="1">
+      <c r="A155" t="s" s="8">
+        <v>354</v>
+      </c>
+      <c r="B155" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="G60" s="15"/>
-    </row>
-    <row r="61" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A61" s="5">
-        <v>153.05000000000001</v>
-      </c>
-      <c r="B61" s="11">
-        <v>21</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G61" s="15"/>
-    </row>
-    <row r="62" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A62" s="5">
-        <v>153.09</v>
-      </c>
-      <c r="B62" s="11">
-        <v>217</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="G62" s="15"/>
-    </row>
-    <row r="63" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A63" s="5">
-        <v>154.03</v>
-      </c>
-      <c r="B63" s="11">
-        <v>233</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="G63" s="15"/>
-    </row>
-    <row r="64" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A64" s="5">
-        <v>159.05000000000001</v>
-      </c>
-      <c r="B64" s="11">
-        <v>61</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="G64" s="15"/>
-    </row>
-    <row r="65" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A65" s="5">
-        <v>161.06</v>
-      </c>
-      <c r="B65" s="11">
-        <v>270</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A66" s="5">
-        <v>168.06</v>
-      </c>
-      <c r="B66" s="11">
-        <v>92</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="G66" s="15"/>
-    </row>
-    <row r="67" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A67" s="5">
-        <v>172.06</v>
-      </c>
-      <c r="B67" s="11">
-        <v>323</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A68" s="5">
-        <v>174.05</v>
-      </c>
-      <c r="B68" s="11">
-        <v>58</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="G68" s="15"/>
-    </row>
-    <row r="69" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A69" s="5">
-        <v>176.06</v>
-      </c>
-      <c r="B69" s="11">
-        <v>119</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="G69" s="15"/>
-    </row>
-    <row r="70" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A70" s="5">
-        <v>177.05</v>
-      </c>
-      <c r="B70" s="11">
-        <v>71</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A71" s="5">
-        <v>187.07</v>
-      </c>
-      <c r="B71" s="11">
-        <v>109</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="G71" s="15"/>
-    </row>
-    <row r="72" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A72" s="5">
-        <v>194.06</v>
-      </c>
-      <c r="B72" s="11">
-        <v>256</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A73" s="5">
-        <v>244.03</v>
-      </c>
-      <c r="B73" s="11">
-        <v>78</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="G73" s="15"/>
-    </row>
-    <row r="74" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A74" s="5">
-        <v>244.1</v>
-      </c>
-      <c r="B74" s="11">
-        <v>117</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="G74" s="15"/>
-    </row>
-    <row r="75" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A75" s="5">
-        <v>244.15</v>
-      </c>
-      <c r="B75" s="11">
-        <v>98</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="G75" s="15"/>
-    </row>
-    <row r="76" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A76" s="5">
-        <v>244.25</v>
-      </c>
-      <c r="B76" s="11">
-        <v>115</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="G76" s="15"/>
-    </row>
-    <row r="77" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A77" s="5">
-        <v>244.32</v>
-      </c>
-      <c r="B77" s="11">
-        <v>118</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="G77" s="15"/>
-    </row>
-    <row r="78" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A78" s="5">
-        <v>244.37</v>
-      </c>
-      <c r="B78" s="11">
-        <v>50</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="G78" s="15"/>
-    </row>
-    <row r="79" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A79" s="5">
-        <v>244.4</v>
-      </c>
-      <c r="B79" s="11">
-        <v>121</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="G79" s="15"/>
-    </row>
-    <row r="80" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A80" s="5">
-        <v>244.44</v>
-      </c>
-      <c r="B80" s="11">
-        <v>80</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="G80" s="15"/>
-    </row>
-    <row r="81" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A81" s="5">
-        <v>244.46</v>
-      </c>
-      <c r="B81" s="11">
-        <v>105</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="G81" s="15"/>
-    </row>
-    <row r="82" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A82" s="5">
-        <v>244.54</v>
-      </c>
-      <c r="B82" s="11">
-        <v>74</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="G82" s="15"/>
-    </row>
-    <row r="83" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A83" s="5">
-        <v>244.62</v>
-      </c>
-      <c r="B83" s="11">
-        <v>89</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="G83" s="15"/>
-    </row>
-    <row r="84" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="5">
-        <v>245.03</v>
-      </c>
-      <c r="B84" s="11">
-        <v>59</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="G84" s="15"/>
-    </row>
-    <row r="85" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A85" s="5">
-        <v>245.11</v>
-      </c>
-      <c r="B85" s="11">
-        <v>63</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="G85" s="15"/>
-    </row>
-    <row r="86" spans="1:7" ht="41.1" customHeight="1">
-      <c r="A86" s="5">
-        <v>245.14</v>
-      </c>
-      <c r="B86" s="11">
-        <v>83</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A87" s="5">
-        <v>245.15</v>
-      </c>
-      <c r="B87" s="11">
-        <v>81</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="G87" s="15"/>
-    </row>
-    <row r="88" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A88" s="5">
-        <v>245.17</v>
-      </c>
-      <c r="B88" s="11">
-        <v>111</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="G88" s="15"/>
-    </row>
-    <row r="89" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A89" s="5">
-        <v>245.22</v>
-      </c>
-      <c r="B89" s="11">
-        <v>310</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="G89" s="15"/>
-    </row>
-    <row r="90" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A90" s="5">
-        <v>245.26</v>
-      </c>
-      <c r="B90" s="11">
-        <v>108</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="G90" s="15"/>
-    </row>
-    <row r="91" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A91" s="5">
-        <v>245.28</v>
-      </c>
-      <c r="B91" s="11">
-        <v>106</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="G91" s="15"/>
-    </row>
-    <row r="92" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A92" s="5">
-        <v>245.37</v>
-      </c>
-      <c r="B92" s="11">
-        <v>113</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="G92" s="15"/>
-    </row>
-    <row r="93" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A93" s="5">
-        <v>245.4</v>
-      </c>
-      <c r="B93" s="11">
-        <v>107</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="G93" s="15"/>
-    </row>
-    <row r="94" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A94" s="5">
-        <v>248.05</v>
-      </c>
-      <c r="B94" s="11">
-        <v>345</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="G94" s="15"/>
-    </row>
-    <row r="95" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A95" s="5">
-        <v>248.09</v>
-      </c>
-      <c r="B95" s="11">
-        <v>46</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A96" s="5">
-        <v>248.12</v>
-      </c>
-      <c r="B96" s="11">
-        <v>361</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="G96" s="15"/>
-    </row>
-    <row r="97" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A97" s="5">
-        <v>248.23</v>
-      </c>
-      <c r="B97" s="11">
-        <v>344</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A98" s="5">
-        <v>248.33</v>
-      </c>
-      <c r="B98" s="11">
-        <v>139</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G98" s="15"/>
-    </row>
-    <row r="99" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="5">
-        <v>248.35</v>
-      </c>
-      <c r="B99" s="11">
-        <v>360</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="G99" s="15"/>
-    </row>
-    <row r="100" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A100" s="5">
-        <v>248.42</v>
-      </c>
-      <c r="B100" s="11">
-        <v>368</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A101" s="5">
-        <v>248.46</v>
-      </c>
-      <c r="B101" s="11">
-        <v>77</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="G101" s="15"/>
-    </row>
-    <row r="102" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A102" s="5">
-        <v>248.53</v>
-      </c>
-      <c r="B102" s="11">
-        <v>35</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="G102" s="15"/>
-    </row>
-    <row r="103" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A103" s="5">
-        <v>248.59</v>
-      </c>
-      <c r="B103" s="11">
-        <v>362</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="G103" s="15"/>
-    </row>
-    <row r="104" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A104" s="21">
-        <v>250</v>
-      </c>
-      <c r="B104" s="11">
-        <v>347</v>
-      </c>
-      <c r="C104" s="22"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A105" s="21">
-        <v>251</v>
-      </c>
-      <c r="B105" s="11">
-        <v>329</v>
-      </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="G105" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A106" s="24">
-        <v>252</v>
-      </c>
-      <c r="B106" s="25">
-        <v>330</v>
-      </c>
-      <c r="C106" s="26"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="F106" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="G106" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A107" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="B107" s="52"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="53"/>
-    </row>
-    <row r="108" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A108" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="3" t="s">
+      <c r="C155" s="39"/>
+      <c r="D155" s="39"/>
+      <c r="E155" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F155" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="G108" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="32.65" customHeight="1">
-      <c r="A109" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="D109" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F109" s="9" t="s">
+      <c r="G155" t="s" s="10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="156" ht="20.35" customHeight="1">
+      <c r="A156" s="40"/>
+      <c r="B156" t="s" s="55">
+        <v>511</v>
+      </c>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="38"/>
+    </row>
+    <row r="157" ht="20.35" customHeight="1">
+      <c r="A157" s="46"/>
+      <c r="B157" s="64"/>
+      <c r="C157" s="65"/>
+      <c r="D157" s="65"/>
+      <c r="E157" s="65"/>
+      <c r="F157" s="65"/>
+      <c r="G157" s="66"/>
+    </row>
+    <row r="158" ht="20.35" customHeight="1">
+      <c r="A158" t="s" s="36">
         <v>353</v>
       </c>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A110" s="31" t="s">
+      <c r="B158" s="37"/>
+      <c r="C158" s="37"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="38"/>
+    </row>
+    <row r="159" ht="32.35" customHeight="1">
+      <c r="A159" t="s" s="8">
         <v>354</v>
       </c>
-      <c r="B110" s="35"/>
-      <c r="C110" s="36" t="s">
+      <c r="B159" s="39"/>
+      <c r="C159" s="39"/>
+      <c r="D159" s="39"/>
+      <c r="E159" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="F159" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="G159" t="s" s="10">
         <v>355</v>
       </c>
-      <c r="D110" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A111" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="B111" s="35"/>
-      <c r="C111" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="F111" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="G111" s="15"/>
-    </row>
-    <row r="112" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A112" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="B112" s="35"/>
-      <c r="C112" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="G112" s="15"/>
-    </row>
-    <row r="113" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A113" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="B113" s="35"/>
-      <c r="C113" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="G113" s="15"/>
-    </row>
-    <row r="114" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A114" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="B114" s="35"/>
-      <c r="C114" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="G114" s="17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A115" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="B115" s="35"/>
-      <c r="C115" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="E115" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="G115" s="15"/>
-    </row>
-    <row r="116" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A116" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="B116" s="35"/>
-      <c r="C116" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="G116" s="17" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A117" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="B117" s="35"/>
-      <c r="C117" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="G117" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="44.45" customHeight="1">
-      <c r="A118" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="B118" s="35"/>
-      <c r="C118" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="G118" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A119" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="B119" s="35"/>
-      <c r="C119" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="G119" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A120" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="B120" s="35"/>
-      <c r="C120" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="G120" s="15"/>
-    </row>
-    <row r="121" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A121" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="B121" s="35"/>
-      <c r="C121" s="36" t="s">
-        <v>403</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="G121" s="15"/>
-    </row>
-    <row r="122" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A122" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="B122" s="35"/>
-      <c r="C122" s="36" t="s">
-        <v>407</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A123" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="B123" s="35"/>
-      <c r="C123" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="G123" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A124" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="B124" s="35"/>
-      <c r="C124" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="G124" s="15"/>
-    </row>
-    <row r="125" spans="1:7" ht="44.45" customHeight="1">
-      <c r="A125" s="31" t="s">
-        <v>421</v>
-      </c>
-      <c r="B125" s="35"/>
-      <c r="C125" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="G125" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A126" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="B126" s="35"/>
-      <c r="C126" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="F126" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="G126" s="15"/>
-    </row>
-    <row r="127" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A127" s="31" t="s">
-        <v>431</v>
-      </c>
-      <c r="B127" s="35"/>
-      <c r="C127" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="G127" s="17" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A128" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="B128" s="35"/>
-      <c r="C128" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="G128" s="15"/>
-    </row>
-    <row r="129" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A129" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="B129" s="35"/>
-      <c r="C129" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="G129" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="41.1" customHeight="1">
-      <c r="A130" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="B130" s="35"/>
-      <c r="C130" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G130" s="17" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A131" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="B131" s="35"/>
-      <c r="C131" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="E131" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="F131" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="G131" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A132" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="E132" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="G132" s="17" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A133" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="B133" s="35"/>
-      <c r="C133" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="G133" s="15"/>
-    </row>
-    <row r="134" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A134" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="B134" s="35"/>
-      <c r="C134" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E134" s="22"/>
-      <c r="F134" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="G134" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A135" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="B135" s="35"/>
-      <c r="C135" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="G135" s="15"/>
-    </row>
-    <row r="136" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A136" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="B136" s="35"/>
-      <c r="C136" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="G136" s="15"/>
-    </row>
-    <row r="137" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A137" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="B137" s="35"/>
-      <c r="C137" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="F137" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="G137" s="15"/>
-    </row>
-    <row r="138" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A138" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="B138" s="39"/>
-      <c r="C138" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="D138" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="E138" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="F138" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="G138" s="29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A139" s="51" t="s">
-        <v>475</v>
-      </c>
-      <c r="B139" s="52"/>
-      <c r="C139" s="52"/>
-      <c r="D139" s="52"/>
-      <c r="E139" s="52"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="53"/>
-    </row>
-    <row r="140" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A140" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F140" s="3" t="s">
+    </row>
+    <row r="160" ht="20.35" customHeight="1">
+      <c r="A160" s="40"/>
+      <c r="B160" t="s" s="55">
+        <v>511</v>
+      </c>
+      <c r="C160" s="37"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="38"/>
+    </row>
+    <row r="161" ht="20.35" customHeight="1">
+      <c r="A161" s="46"/>
+      <c r="B161" s="64"/>
+      <c r="C161" s="65"/>
+      <c r="D161" s="65"/>
+      <c r="E161" s="65"/>
+      <c r="F161" s="65"/>
+      <c r="G161" s="66"/>
+    </row>
+    <row r="162" ht="20.35" customHeight="1">
+      <c r="A162" t="s" s="36">
+        <v>513</v>
+      </c>
+      <c r="B162" s="37"/>
+      <c r="C162" s="37"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="37"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="38"/>
+    </row>
+    <row r="163" ht="32.35" customHeight="1">
+      <c r="A163" t="s" s="8">
+        <v>354</v>
+      </c>
+      <c r="B163" s="39"/>
+      <c r="C163" s="39"/>
+      <c r="D163" s="39"/>
+      <c r="E163" t="s" s="9">
+        <v>514</v>
+      </c>
+      <c r="F163" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A141" s="21">
-        <v>447</v>
-      </c>
-      <c r="B141" s="42">
-        <v>232</v>
-      </c>
-      <c r="C141" s="43"/>
-      <c r="D141" s="44"/>
-      <c r="E141" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="41.1" customHeight="1">
-      <c r="A142" s="21">
-        <v>461</v>
-      </c>
-      <c r="B142" s="11">
-        <v>234</v>
-      </c>
-      <c r="C142" s="22"/>
-      <c r="D142" s="45"/>
-      <c r="E142" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="G142" s="17" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A143" s="21">
-        <v>470</v>
-      </c>
-      <c r="B143" s="11">
-        <v>244</v>
-      </c>
-      <c r="C143" s="22"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="G143" s="15"/>
-    </row>
-    <row r="144" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A144" s="21">
-        <v>488</v>
-      </c>
-      <c r="B144" s="11">
-        <v>346</v>
-      </c>
-      <c r="C144" s="22"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="G144" s="15"/>
-    </row>
-    <row r="145" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A145" s="21">
-        <v>495</v>
-      </c>
-      <c r="B145" s="11">
-        <v>213</v>
-      </c>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="F145" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="G145" s="15"/>
-    </row>
-    <row r="146" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A146" s="21">
-        <v>499</v>
-      </c>
-      <c r="B146" s="11">
-        <v>172</v>
-      </c>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="G146" s="15"/>
-    </row>
-    <row r="147" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A147" s="21">
-        <v>481</v>
-      </c>
-      <c r="B147" s="11">
-        <v>220</v>
-      </c>
-      <c r="C147" s="22"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="F147" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="G147" s="15"/>
-    </row>
-    <row r="148" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A148" s="24">
-        <v>506</v>
-      </c>
-      <c r="B148" s="25">
-        <v>193</v>
-      </c>
-      <c r="C148" s="26"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="F148" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="G148" s="46"/>
-    </row>
-    <row r="149" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A149" s="51" t="s">
-        <v>495</v>
-      </c>
-      <c r="B149" s="52"/>
-      <c r="C149" s="52"/>
-      <c r="D149" s="52"/>
-      <c r="E149" s="52"/>
-      <c r="F149" s="52"/>
-      <c r="G149" s="53"/>
-    </row>
-    <row r="150" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A150" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B150" s="30"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30"/>
-      <c r="E150" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A151" s="31"/>
-      <c r="B151" s="61" t="s">
-        <v>496</v>
-      </c>
-      <c r="C151" s="52"/>
-      <c r="D151" s="52"/>
-      <c r="E151" s="52"/>
-      <c r="F151" s="52"/>
-      <c r="G151" s="53"/>
-    </row>
-    <row r="152" spans="1:7" ht="20.85" customHeight="1">
-      <c r="A152" s="47"/>
-      <c r="B152" s="62"/>
-      <c r="C152" s="63"/>
-      <c r="D152" s="63"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="63"/>
-      <c r="G152" s="64"/>
-    </row>
-    <row r="153" spans="1:7" ht="26.85" customHeight="1">
-      <c r="A153" s="48" t="s">
-        <v>497</v>
-      </c>
-      <c r="B153" s="57"/>
-      <c r="C153" s="57"/>
-      <c r="D153" s="57"/>
-      <c r="E153" s="57"/>
-      <c r="F153" s="57"/>
-      <c r="G153" s="58"/>
-    </row>
-    <row r="154" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A154" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" s="59"/>
-      <c r="C154" s="59"/>
-      <c r="D154" s="59"/>
-      <c r="E154" s="59"/>
-      <c r="F154" s="59"/>
-      <c r="G154" s="60"/>
-    </row>
-    <row r="155" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A155" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A156" s="31"/>
-      <c r="B156" s="61" t="s">
-        <v>496</v>
-      </c>
-      <c r="C156" s="52"/>
-      <c r="D156" s="52"/>
-      <c r="E156" s="52"/>
-      <c r="F156" s="52"/>
-      <c r="G156" s="53"/>
-    </row>
-    <row r="157" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A157" s="38"/>
-      <c r="B157" s="65"/>
-      <c r="C157" s="66"/>
-      <c r="D157" s="66"/>
-      <c r="E157" s="66"/>
-      <c r="F157" s="66"/>
-      <c r="G157" s="67"/>
-    </row>
-    <row r="158" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A158" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="B158" s="52"/>
-      <c r="C158" s="52"/>
-      <c r="D158" s="52"/>
-      <c r="E158" s="52"/>
-      <c r="F158" s="52"/>
-      <c r="G158" s="53"/>
-    </row>
-    <row r="159" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A159" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B159" s="30"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
-      <c r="E159" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A160" s="31"/>
-      <c r="B160" s="61" t="s">
-        <v>496</v>
-      </c>
-      <c r="C160" s="52"/>
-      <c r="D160" s="52"/>
-      <c r="E160" s="52"/>
-      <c r="F160" s="52"/>
-      <c r="G160" s="53"/>
-    </row>
-    <row r="161" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A161" s="38"/>
-      <c r="B161" s="65"/>
-      <c r="C161" s="66"/>
-      <c r="D161" s="66"/>
-      <c r="E161" s="66"/>
-      <c r="F161" s="66"/>
-      <c r="G161" s="67"/>
-    </row>
-    <row r="162" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A162" s="51" t="s">
-        <v>498</v>
-      </c>
-      <c r="B162" s="52"/>
-      <c r="C162" s="52"/>
-      <c r="D162" s="52"/>
-      <c r="E162" s="52"/>
-      <c r="F162" s="52"/>
-      <c r="G162" s="53"/>
-    </row>
-    <row r="163" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A163" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B163" s="30"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A164" s="31"/>
-      <c r="B164" s="61" t="s">
-        <v>496</v>
-      </c>
-      <c r="C164" s="52"/>
-      <c r="D164" s="52"/>
-      <c r="E164" s="52"/>
-      <c r="F164" s="52"/>
-      <c r="G164" s="53"/>
-    </row>
-    <row r="165" spans="1:7" ht="20.85" customHeight="1">
-      <c r="A165" s="47"/>
-      <c r="B165" s="62"/>
-      <c r="C165" s="63"/>
-      <c r="D165" s="63"/>
-      <c r="E165" s="63"/>
-      <c r="F165" s="63"/>
-      <c r="G165" s="64"/>
+      <c r="G163" t="s" s="10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="164" ht="20.35" customHeight="1">
+      <c r="A164" s="40"/>
+      <c r="B164" t="s" s="55">
+        <v>511</v>
+      </c>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="38"/>
+    </row>
+    <row r="165" ht="20.85" customHeight="1">
+      <c r="A165" s="56"/>
+      <c r="B165" s="57"/>
+      <c r="C165" s="58"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="58"/>
+      <c r="F165" s="58"/>
+      <c r="G165" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B164:G165"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A153:G153"/>
     <mergeCell ref="A154:G154"/>
     <mergeCell ref="A162:G162"/>
     <mergeCell ref="A149:G149"/>
@@ -6850,14 +6810,10 @@
     <mergeCell ref="B151:G152"/>
     <mergeCell ref="B156:G157"/>
     <mergeCell ref="B160:G161"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A139:G139"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="B164:G165"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
   </headerFooter>
